--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0B58A8-3921-463D-948E-F7E805D8ADCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A2CDE2-F3B5-4410-9E56-B1B64EFA2745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Day-2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -117,12 +121,54 @@
       <t>When you want to move a value in the formula but want to keep either column or cell reference constant you use mixed referencing by adding $ sign before column or cell reference as per the need of your formula. For e.g. $A4 i.e. fixed column and A$4 i.e. fixed row.</t>
     </r>
   </si>
+  <si>
+    <t>Excel Filters - Basic</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Sales Value</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Shirt blue</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Shirt white</t>
+  </si>
+  <si>
+    <t>Affiliate site</t>
+  </si>
+  <si>
+    <t>Pants Blue</t>
+  </si>
+  <si>
+    <t>Shirt yellow</t>
+  </si>
+  <si>
+    <t>Pants Black</t>
+  </si>
+  <si>
+    <t>To add filter use shortcut Ctrl+Shift+L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +197,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +240,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -198,38 +279,414 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{27E0D15E-1D11-4E0E-9819-2BF1029C6403}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -240,6 +697,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="5" totalsRowDxfId="4" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="C3:F29" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,176 +988,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>100</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>200</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>500</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>300</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>SUM(B4:E4)</f>
         <v>1100</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>F4/$F$7</f>
         <v>0.4408817635270541</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f>B4/$F4</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <f t="shared" ref="K4:M4" si="0">C4/$F4</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <f t="shared" si="0"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>150</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>250</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>140</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>90</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" ref="F5:F6" si="1">SUM(B5:E5)</f>
         <v>630</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G6" si="2">F5/$F$7</f>
         <v>0.25250501002004005</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f t="shared" ref="J5:J6" si="3">B5/$F5</f>
         <v>0.23809523809523808</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f t="shared" ref="K5:K6" si="4">C5/$F5</f>
         <v>0.3968253968253968</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <f t="shared" ref="L5:L6" si="5">D5/$F5</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <f t="shared" ref="M5:M6" si="6">E5/$F5</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>230</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>350</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>100</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>85</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>765</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
         <v>0.30661322645290578</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <f t="shared" si="3"/>
         <v>0.30065359477124182</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <f t="shared" si="4"/>
         <v>0.45751633986928103</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <f t="shared" si="5"/>
         <v>0.13071895424836602</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <f t="shared" si="6"/>
         <v>0.1111111111111111</v>
       </c>
@@ -697,7 +1167,7 @@
         <f>SUM(F4:F6)</f>
         <v>2495</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f>SUM(G4:G6)</f>
         <v>1</v>
       </c>
@@ -724,4 +1194,432 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF01704-6D7D-4BD8-89C5-D27E2E9D95F5}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="11">
+        <v>43108</v>
+      </c>
+      <c r="F4" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="11">
+        <v>43108</v>
+      </c>
+      <c r="F5" s="23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="11">
+        <v>43111</v>
+      </c>
+      <c r="F6" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11">
+        <v>43141</v>
+      </c>
+      <c r="F7" s="23">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11">
+        <v>43141</v>
+      </c>
+      <c r="F8" s="23">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11">
+        <v>43089</v>
+      </c>
+      <c r="F9" s="23">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11">
+        <v>43040</v>
+      </c>
+      <c r="F10" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11">
+        <v>43040</v>
+      </c>
+      <c r="F11" s="24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11">
+        <v>43040</v>
+      </c>
+      <c r="F12" s="24">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="11">
+        <v>43089</v>
+      </c>
+      <c r="F13" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11">
+        <v>43089</v>
+      </c>
+      <c r="F14" s="24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="11">
+        <v>43089</v>
+      </c>
+      <c r="F15" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="11">
+        <v>43108</v>
+      </c>
+      <c r="F16" s="24">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="11">
+        <v>43108</v>
+      </c>
+      <c r="F17" s="24">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="11">
+        <v>43108</v>
+      </c>
+      <c r="F18" s="23">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="11">
+        <v>43111</v>
+      </c>
+      <c r="F19" s="24">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="11">
+        <v>43141</v>
+      </c>
+      <c r="F20" s="24">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="11">
+        <v>43110</v>
+      </c>
+      <c r="F21" s="24">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="11">
+        <v>43110</v>
+      </c>
+      <c r="F22" s="23">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="11">
+        <v>43110</v>
+      </c>
+      <c r="F23" s="23">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="11">
+        <v>43110</v>
+      </c>
+      <c r="F24" s="23">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="11">
+        <v>43079</v>
+      </c>
+      <c r="F25" s="23">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="11">
+        <v>43079</v>
+      </c>
+      <c r="F26" s="24">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="11">
+        <v>43049</v>
+      </c>
+      <c r="F27" s="23">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="11">
+        <v>43049</v>
+      </c>
+      <c r="F28" s="24">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="18">
+        <v>43108</v>
+      </c>
+      <c r="F29" s="25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="20">
+        <f>SUBTOTAL(103,Table1[Product])</f>
+        <v>26</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21">
+        <f>SUBTOTAL(109,Table1[Sales Value])</f>
+        <v>8167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A2CDE2-F3B5-4410-9E56-B1B64EFA2745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC85D57-8E2F-4F17-8A18-67A4033623CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
     <sheet name="Day-2" sheetId="2" r:id="rId2"/>
+    <sheet name="Day-3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Day-3'!$E$3:$E$29</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'Day-3'!$I$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -162,6 +165,21 @@
   </si>
   <si>
     <t>To add filter use shortcut Ctrl+Shift+L</t>
+  </si>
+  <si>
+    <t>Excel Filters -  Advanced</t>
+  </si>
+  <si>
+    <t>*pants*</t>
+  </si>
+  <si>
+    <t>Shirt White</t>
+  </si>
+  <si>
+    <t>&gt;200</t>
+  </si>
+  <si>
+    <t>&lt;400</t>
   </si>
 </sst>
 </file>
@@ -381,7 +399,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -397,9 +415,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -424,13 +439,223 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{27E0D15E-1D11-4E0E-9819-2BF1029C6403}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="25">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -460,6 +685,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -490,6 +731,25 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -517,6 +777,24 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -548,9 +826,55 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -587,105 +911,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -700,13 +925,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="5" totalsRowDxfId="4" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="24" totalsRowDxfId="21" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="20">
   <autoFilter ref="C3:F29" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="4" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -988,13 +1225,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -1200,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF01704-6D7D-4BD8-89C5-D27E2E9D95F5}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1213,402 +1450,402 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="25"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>43108</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>43108</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>43111</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>43141</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>43141</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>43089</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>43040</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>43040</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>43040</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>43089</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>43089</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>43089</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>43108</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>401</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>43108</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>430</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>43108</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>285</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>43111</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>344</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>43141</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>304</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>43110</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>431</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>43110</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>298</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>43110</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>258</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>43110</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>251</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>43079</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>260</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>43079</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>415</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>43049</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>266</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>43049</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>425</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <v>43108</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="24">
         <v>429</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <f>SUBTOTAL(103,Table1[Product])</f>
         <v>26</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21">
+      <c r="E30" s="19"/>
+      <c r="F30" s="20">
         <f>SUBTOTAL(109,Table1[Sales Value])</f>
         <v>8167</v>
       </c>
@@ -1622,4 +1859,488 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD893A58-35C4-4ADC-96F1-E62CA20E0C55}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="I1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43108</v>
+      </c>
+      <c r="G4" s="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10">
+        <v>43108</v>
+      </c>
+      <c r="G5" s="30">
+        <v>250</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10">
+        <v>43111</v>
+      </c>
+      <c r="G6" s="30">
+        <v>300</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10">
+        <v>43141</v>
+      </c>
+      <c r="G7" s="30">
+        <v>260</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43141</v>
+      </c>
+      <c r="G8" s="30">
+        <v>270</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="10">
+        <v>43089</v>
+      </c>
+      <c r="G9" s="30">
+        <v>280</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10">
+        <v>43040</v>
+      </c>
+      <c r="G10" s="30">
+        <v>100</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="10">
+        <v>43040</v>
+      </c>
+      <c r="G11" s="30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43040</v>
+      </c>
+      <c r="G12" s="30">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43089</v>
+      </c>
+      <c r="G13" s="30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43089</v>
+      </c>
+      <c r="G14" s="30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43089</v>
+      </c>
+      <c r="G15" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="10">
+        <v>43108</v>
+      </c>
+      <c r="G16" s="30">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43108</v>
+      </c>
+      <c r="G17" s="30">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="10">
+        <v>43108</v>
+      </c>
+      <c r="G18" s="30">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="10">
+        <v>43111</v>
+      </c>
+      <c r="G19" s="30">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="10">
+        <v>43141</v>
+      </c>
+      <c r="G20" s="30">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="10">
+        <v>43110</v>
+      </c>
+      <c r="G21" s="30">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10">
+        <v>43110</v>
+      </c>
+      <c r="G22" s="30">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="10">
+        <v>43110</v>
+      </c>
+      <c r="G23" s="30">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="10">
+        <v>43110</v>
+      </c>
+      <c r="G24" s="30">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="10">
+        <v>43079</v>
+      </c>
+      <c r="G25" s="30">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="10">
+        <v>43079</v>
+      </c>
+      <c r="G26" s="30">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="10">
+        <v>43049</v>
+      </c>
+      <c r="G27" s="30">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="10">
+        <v>43049</v>
+      </c>
+      <c r="G28" s="30">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="17">
+        <v>43108</v>
+      </c>
+      <c r="G29" s="26">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="16">
+        <f>SUBTOTAL(103,Table2[Product])</f>
+        <v>26</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="26">
+        <f>SUBTOTAL(109,Table2[Sales Value])</f>
+        <v>8167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC85D57-8E2F-4F17-8A18-67A4033623CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518C54F9-2297-4D32-B596-25DF861631C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
     <sheet name="Day-2" sheetId="2" r:id="rId2"/>
     <sheet name="Day-3" sheetId="3" r:id="rId3"/>
+    <sheet name="Day-4" sheetId="4" r:id="rId4"/>
+    <sheet name="Day-5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="57">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -181,12 +183,87 @@
   <si>
     <t>&lt;400</t>
   </si>
+  <si>
+    <t>Excel Sort Basics</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Apps</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Misty Wash</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>WenCaL</t>
+  </si>
+  <si>
+    <t>Sleops</t>
+  </si>
+  <si>
+    <t>Blend</t>
+  </si>
+  <si>
+    <t>Twenty20</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Hackrr</t>
+  </si>
+  <si>
+    <t>Fightrr</t>
+  </si>
+  <si>
+    <t>Kryptis</t>
+  </si>
+  <si>
+    <t>Perino</t>
+  </si>
+  <si>
+    <t>Sort/Unsort</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +321,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Schriftart für Textkörper"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -265,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -393,13 +485,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -439,17 +542,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{DA3F0C31-CC79-4E87-AFB1-7A6099006D56}"/>
+    <cellStyle name="Hyperlink 3" xfId="4" xr:uid="{C4CE5DF7-4AB3-4E3B-B8AF-6BB298E76A64}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{27E0D15E-1D11-4E0E-9819-2BF1029C6403}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -460,26 +575,32 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top/>
         <bottom/>
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -492,6 +613,65 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -499,6 +679,56 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -539,121 +769,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -938,12 +1053,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="4" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1218,22 +1333,22 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1267,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1426,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1355,7 +1470,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1399,7 +1514,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="F7" s="2">
         <f>SUM(F4:F6)</f>
         <v>2495</v>
@@ -1409,17 +1524,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1441,7 +1556,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
@@ -1449,16 +1564,16 @@
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
+      <c r="A1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="31"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
@@ -1472,7 +1587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
@@ -1486,7 +1601,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
@@ -1500,7 +1615,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1514,7 +1629,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1528,7 +1643,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1542,7 +1657,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
@@ -1556,7 +1671,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1570,7 +1685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
@@ -1584,7 +1699,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1713,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
@@ -1612,7 +1727,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
@@ -1626,7 +1741,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1654,7 +1769,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6">
       <c r="C17" s="11" t="s">
         <v>22</v>
       </c>
@@ -1668,7 +1783,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6">
       <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1797,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6">
       <c r="C19" s="11" t="s">
         <v>22</v>
       </c>
@@ -1696,7 +1811,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6">
       <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
@@ -1710,7 +1825,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6">
       <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
@@ -1724,7 +1839,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6">
       <c r="C22" s="11" t="s">
         <v>22</v>
       </c>
@@ -1738,7 +1853,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6">
       <c r="C23" s="11" t="s">
         <v>20</v>
       </c>
@@ -1752,7 +1867,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6">
       <c r="C24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1766,7 +1881,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6">
       <c r="C25" s="11" t="s">
         <v>20</v>
       </c>
@@ -1780,7 +1895,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6">
       <c r="C26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1794,7 +1909,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6">
       <c r="C27" s="11" t="s">
         <v>20</v>
       </c>
@@ -1808,7 +1923,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6">
       <c r="C28" s="11" t="s">
         <v>20</v>
       </c>
@@ -1822,7 +1937,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6">
       <c r="C29" s="15" t="s">
         <v>22</v>
       </c>
@@ -1836,7 +1951,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6">
       <c r="C30" s="18" t="s">
         <v>8</v>
       </c>
@@ -1865,11 +1980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD893A58-35C4-4ADC-96F1-E62CA20E0C55}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -1879,26 +1994,26 @@
     <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
@@ -1912,17 +2027,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D3" s="27" t="s">
+    <row r="3" spans="1:12">
+      <c r="D3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -1938,7 +2053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
@@ -1948,11 +2063,11 @@
       <c r="F4" s="10">
         <v>43108</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
@@ -1962,14 +2077,14 @@
       <c r="F5" s="10">
         <v>43108</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <v>250</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1979,14 +2094,14 @@
       <c r="F6" s="10">
         <v>43111</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>300</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="D7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1996,14 +2111,14 @@
       <c r="F7" s="10">
         <v>43141</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>260</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="D8" s="11" t="s">
         <v>22</v>
       </c>
@@ -2013,14 +2128,14 @@
       <c r="F8" s="10">
         <v>43141</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>270</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
@@ -2030,14 +2145,14 @@
       <c r="F9" s="10">
         <v>43089</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <v>280</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="D10" s="11" t="s">
         <v>20</v>
       </c>
@@ -2047,14 +2162,14 @@
       <c r="F10" s="10">
         <v>43040</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>100</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="D11" s="11" t="s">
         <v>20</v>
       </c>
@@ -2064,11 +2179,11 @@
       <c r="F11" s="10">
         <v>43040</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="D12" s="11" t="s">
         <v>18</v>
       </c>
@@ -2078,11 +2193,11 @@
       <c r="F12" s="10">
         <v>43040</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
@@ -2092,11 +2207,11 @@
       <c r="F13" s="10">
         <v>43089</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="29">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="D14" s="11" t="s">
         <v>22</v>
       </c>
@@ -2106,11 +2221,11 @@
       <c r="F14" s="10">
         <v>43089</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="D15" s="11" t="s">
         <v>20</v>
       </c>
@@ -2120,11 +2235,11 @@
       <c r="F15" s="10">
         <v>43089</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
@@ -2134,11 +2249,11 @@
       <c r="F16" s="10">
         <v>43108</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="29">
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7">
       <c r="D17" s="11" t="s">
         <v>22</v>
       </c>
@@ -2148,11 +2263,11 @@
       <c r="F17" s="10">
         <v>43108</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <v>430</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7">
       <c r="D18" s="11" t="s">
         <v>20</v>
       </c>
@@ -2162,11 +2277,11 @@
       <c r="F18" s="10">
         <v>43108</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="29">
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7">
       <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
@@ -2176,11 +2291,11 @@
       <c r="F19" s="10">
         <v>43111</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7">
       <c r="D20" s="11" t="s">
         <v>20</v>
       </c>
@@ -2190,11 +2305,11 @@
       <c r="F20" s="10">
         <v>43141</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7">
       <c r="D21" s="11" t="s">
         <v>20</v>
       </c>
@@ -2204,11 +2319,11 @@
       <c r="F21" s="10">
         <v>43110</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="29">
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:7">
       <c r="D22" s="11" t="s">
         <v>22</v>
       </c>
@@ -2218,11 +2333,11 @@
       <c r="F22" s="10">
         <v>43110</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7">
       <c r="D23" s="11" t="s">
         <v>20</v>
       </c>
@@ -2232,11 +2347,11 @@
       <c r="F23" s="10">
         <v>43110</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7">
       <c r="D24" s="11" t="s">
         <v>20</v>
       </c>
@@ -2246,11 +2361,11 @@
       <c r="F24" s="10">
         <v>43110</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="29">
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7">
       <c r="D25" s="11" t="s">
         <v>20</v>
       </c>
@@ -2260,11 +2375,11 @@
       <c r="F25" s="10">
         <v>43079</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7">
       <c r="D26" s="11" t="s">
         <v>22</v>
       </c>
@@ -2274,11 +2389,11 @@
       <c r="F26" s="10">
         <v>43079</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="29">
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7">
       <c r="D27" s="11" t="s">
         <v>20</v>
       </c>
@@ -2288,11 +2403,11 @@
       <c r="F27" s="10">
         <v>43049</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="29">
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7">
       <c r="D28" s="11" t="s">
         <v>20</v>
       </c>
@@ -2302,11 +2417,11 @@
       <c r="F28" s="10">
         <v>43049</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="29">
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:7">
       <c r="D29" s="15" t="s">
         <v>22</v>
       </c>
@@ -2316,11 +2431,11 @@
       <c r="F29" s="17">
         <v>43108</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="25">
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:7">
       <c r="D30" s="15" t="s">
         <v>8</v>
       </c>
@@ -2329,7 +2444,7 @@
         <v>26</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="26">
+      <c r="G30" s="25">
         <f>SUBTOTAL(109,Table2[Sales Value])</f>
         <v>8167</v>
       </c>
@@ -2343,4 +2458,1168 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF7D00-80FC-42C0-A490-F9016C3DF4B0}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1">
+      <c r="A1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="31"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="34">
+        <v>47296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="34">
+        <v>8132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="34">
+        <v>6487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="34">
+        <v>29277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="34">
+        <v>26412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="34">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="34">
+        <v>49988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="34">
+        <v>49144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="34">
+        <v>34155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="34">
+        <v>46652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="34">
+        <v>28020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="34">
+        <v>28523</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="34">
+        <v>90530</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="34">
+        <v>46994</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="34">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="34">
+        <v>34196</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="34">
+        <v>85200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="34">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="34">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="34">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="34">
+        <v>20898</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="34">
+        <v>43784</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="34">
+        <v>34155</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="34">
+        <v>19789</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="34">
+        <v>49656</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="34">
+        <v>9432</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="34">
+        <v>46922</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="34">
+        <v>46336</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="34">
+        <v>30832</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="34">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="34">
+        <v>13596</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="34">
+        <v>42569</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="34">
+        <v>18524</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="34">
+        <v>2116</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:F38">
+    <sortCondition ref="C5:C38" customList="Productivity,Utility,Game"/>
+    <sortCondition ref="D5:D38"/>
+    <sortCondition sortBy="icon" ref="F5:F38" iconSet="3Flags" iconId="2"/>
+    <sortCondition sortBy="icon" ref="F5:F38" iconSet="3Flags" iconId="1"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F5:F38">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Flags">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADED6C27-6C18-4AA2-A056-D97167A8B3BE}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="31"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="37">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="35">
+        <v>2</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="37">
+        <v>46994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="35">
+        <v>3</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="37">
+        <v>34155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="35">
+        <v>4</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="37">
+        <v>49144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="35">
+        <v>5</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="37">
+        <v>49988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="35">
+        <v>6</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="35">
+        <v>7</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="37">
+        <v>90530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="35">
+        <v>8</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="37">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="35">
+        <v>9</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="37">
+        <v>34196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="35">
+        <v>10</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="37">
+        <v>46652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="35">
+        <v>11</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="37">
+        <v>28523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="35">
+        <v>12</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="37">
+        <v>20898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="35">
+        <v>13</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="37">
+        <v>8132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="35">
+        <v>14</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="37">
+        <v>47296</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="35">
+        <v>15</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="37">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="35">
+        <v>16</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="37">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="35">
+        <v>17</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="37">
+        <v>42569</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="35">
+        <v>18</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="37">
+        <v>18524</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="35">
+        <v>19</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="37">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="35">
+        <v>20</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="37">
+        <v>13596</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="35">
+        <v>21</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="37">
+        <v>6487</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="35">
+        <v>22</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="37">
+        <v>26412</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="35">
+        <v>23</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="37">
+        <v>29277</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="35">
+        <v>24</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="37">
+        <v>34155</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="35">
+        <v>25</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="37">
+        <v>19789</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="35">
+        <v>26</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="37">
+        <v>43784</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="35">
+        <v>27</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="37">
+        <v>28020</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="35">
+        <v>28</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="37">
+        <v>46336</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="35">
+        <v>29</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="37">
+        <v>30832</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="35">
+        <v>30</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="37">
+        <v>85200</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="35">
+        <v>31</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="37">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="35">
+        <v>32</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="37">
+        <v>46922</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="35">
+        <v>33</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="37">
+        <v>49656</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="35">
+        <v>34</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="37">
+        <v>9432</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:G37">
+    <sortCondition ref="C4:C37"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518C54F9-2297-4D32-B596-25DF861631C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6D51CA-8CA9-4838-9E70-5FEA128C47C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Day-3" sheetId="3" r:id="rId3"/>
     <sheet name="Day-4" sheetId="4" r:id="rId4"/>
     <sheet name="Day-5" sheetId="5" r:id="rId5"/>
+    <sheet name="Day-6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="83">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -257,6 +258,84 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Create Smart Drop Down List</t>
+  </si>
+  <si>
+    <t>Select from a list, check for dates, numbers between certain values and specific text length.</t>
+  </si>
+  <si>
+    <t>Project Start Date</t>
+  </si>
+  <si>
+    <t>Project Number</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>Project Description</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>AMAZO</t>
+  </si>
+  <si>
+    <t>FLIPC</t>
+  </si>
+  <si>
+    <t>ATLAS</t>
+  </si>
+  <si>
+    <t>INFOS</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>MINDT</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>It is a nice AI project on driverless cabs</t>
+  </si>
+  <si>
+    <t>This is new addition to our amazon services</t>
+  </si>
+  <si>
+    <t>This is to address the problems in the delivery times</t>
+  </si>
+  <si>
+    <t>Creating a new software to manage employees</t>
+  </si>
+  <si>
+    <t>A new client is now added to process policy issues</t>
+  </si>
+  <si>
+    <t>An armoured vehicle to be used both on land and water</t>
+  </si>
+  <si>
+    <t>Introducing Google school of learning and growing together</t>
+  </si>
+  <si>
+    <t>A new cheap device that has all the benefits like a pro apple device</t>
+  </si>
+  <si>
+    <t>Focussing on healthcare equipments to increase crop production</t>
   </si>
 </sst>
 </file>
@@ -337,7 +416,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +587,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -548,19 +633,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{DA3F0C31-CC79-4E87-AFB1-7A6099006D56}"/>
@@ -569,7 +654,30 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{27E0D15E-1D11-4E0E-9819-2BF1029C6403}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1040,25 +1148,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="24" totalsRowDxfId="21" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="27" totalsRowDxfId="24" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="23">
   <autoFilter ref="C3:F29" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}" name="TableDiv" displayName="TableDiv" ref="H4:H9" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="H4:H9" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3843E976-0EFC-4D33-BEC2-236EAF0CBBCB}" name="Division"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1340,13 +1458,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -1565,10 +1683,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -1995,11 +2113,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -2477,498 +2595,498 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="C5" s="32" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <v>47296</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="C6" s="32" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="32">
         <v>8132</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="C7" s="32" t="s">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="32">
         <v>6487</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="C8" s="32" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="32">
         <v>29277</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="C9" s="32" t="s">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="32">
         <v>26412</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="C10" s="32" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="32">
         <v>8532</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="C11" s="32" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="32">
         <v>49988</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="C12" s="32" t="s">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="32">
         <v>49144</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="C13" s="32" t="s">
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="32">
         <v>34155</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="32" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="32">
         <v>46652</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="C15" s="32" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="32">
         <v>28020</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="32" t="s">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="32">
         <v>28523</v>
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="32" t="s">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="32">
         <v>90530</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="32" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="32">
         <v>46994</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="32" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="32">
         <v>3000</v>
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="32" t="s">
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="32">
         <v>34196</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="32" t="s">
+      <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="32">
         <v>85200</v>
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="32" t="s">
+      <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="32">
         <v>9000</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="32" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="32">
         <v>13500</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="32" t="s">
+      <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="32">
         <v>40000</v>
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="32" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="32">
         <v>20898</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="32" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="32">
         <v>43784</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="32" t="s">
+      <c r="C27" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="32">
         <v>34155</v>
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="32" t="s">
+      <c r="C28" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="32">
         <v>19789</v>
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="32" t="s">
+      <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="32">
         <v>49656</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="32" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="32">
         <v>9432</v>
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="32" t="s">
+      <c r="C31" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="32">
         <v>46922</v>
       </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="32" t="s">
+      <c r="C32" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="32">
         <v>46336</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="32" t="s">
+      <c r="C33" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="32">
         <v>30832</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="32" t="s">
+      <c r="C34" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="32">
         <v>44675</v>
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="32" t="s">
+      <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="32">
         <v>13596</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="32" t="s">
+      <c r="C36" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="32">
         <v>42569</v>
       </c>
     </row>
     <row r="37" spans="3:6">
-      <c r="C37" s="32" t="s">
+      <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="32">
         <v>18524</v>
       </c>
     </row>
     <row r="38" spans="3:6">
-      <c r="C38" s="32" t="s">
+      <c r="C38" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="32">
         <v>2116</v>
       </c>
     </row>
@@ -3000,7 +3118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADED6C27-6C18-4AA2-A056-D97167A8B3BE}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3013,25 +3131,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="31" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3039,577 +3157,577 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="32">
         <v>40000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="35">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="32">
         <v>46994</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="35">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="32">
         <v>34155</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="C7" s="35">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="32">
         <v>49144</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="C8" s="35">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="32">
         <v>49988</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="C9" s="35">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="32">
         <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="C10" s="35">
+      <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="32">
         <v>90530</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="C11" s="35">
+      <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="32">
         <v>13500</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="C12" s="35">
+      <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="32">
         <v>34196</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="C13" s="35">
+      <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="32">
         <v>46652</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="C14" s="35">
+      <c r="C14">
         <v>11</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="32">
         <v>28523</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="C15" s="35">
+      <c r="C15">
         <v>12</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="32">
         <v>20898</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="C16" s="35">
+      <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="32">
         <v>8132</v>
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="35">
+      <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="32">
         <v>47296</v>
       </c>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="35">
+      <c r="C18">
         <v>15</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="32">
         <v>8532</v>
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="35">
+      <c r="C19">
         <v>16</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="32">
         <v>44675</v>
       </c>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="35">
+      <c r="C20">
         <v>17</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="32">
         <v>42569</v>
       </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="35">
+      <c r="C21">
         <v>18</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="32">
         <v>18524</v>
       </c>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="35">
+      <c r="C22">
         <v>19</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="32">
         <v>2116</v>
       </c>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="35">
+      <c r="C23">
         <v>20</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="32">
         <v>13596</v>
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="35">
+      <c r="C24">
         <v>21</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="32">
         <v>6487</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="35">
+      <c r="C25">
         <v>22</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="32">
         <v>26412</v>
       </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="35">
+      <c r="C26">
         <v>23</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="32">
         <v>29277</v>
       </c>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="35">
+      <c r="C27">
         <v>24</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="32">
         <v>34155</v>
       </c>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="35">
+      <c r="C28">
         <v>25</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="32">
         <v>19789</v>
       </c>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="35">
+      <c r="C29">
         <v>26</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="32">
         <v>43784</v>
       </c>
     </row>
     <row r="30" spans="3:7">
-      <c r="C30" s="35">
+      <c r="C30">
         <v>27</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="32">
         <v>28020</v>
       </c>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="35">
+      <c r="C31">
         <v>28</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="32">
         <v>46336</v>
       </c>
     </row>
     <row r="32" spans="3:7">
-      <c r="C32" s="35">
+      <c r="C32">
         <v>29</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="32">
         <v>30832</v>
       </c>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="35">
+      <c r="C33">
         <v>30</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="32">
         <v>85200</v>
       </c>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="35">
+      <c r="C34">
         <v>31</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="32">
         <v>9000</v>
       </c>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="35">
+      <c r="C35">
         <v>32</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="32">
         <v>46922</v>
       </c>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="35">
+      <c r="C36">
         <v>33</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="32">
         <v>49656</v>
       </c>
     </row>
     <row r="37" spans="3:7">
-      <c r="C37" s="35">
+      <c r="C37">
         <v>34</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="32">
         <v>9432</v>
       </c>
     </row>
@@ -3622,4 +3740,260 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CBC756-7E1F-4FAE-B8CA-E47FA757D423}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1">
+      <c r="A1" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="H4" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10">
+        <v>45460</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="10">
+        <v>45461</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1001</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="10">
+        <v>45462</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1002</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="10">
+        <v>45463</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="10">
+        <v>45464</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="10">
+        <v>45465</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="10">
+        <v>45466</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1006</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="10">
+        <v>45467</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1007</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="10">
+        <v>45468</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1008</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8" xr:uid="{7E1014A0-8B82-4670-B521-3FEAE8EBE1BB}">
+      <formula1>"Game, Productivity, Utility"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K7" xr:uid="{7629C85F-5B1D-4862-A99F-9DC6318F6F5E}">
+      <formula1>$I$5:$I$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="DivisionError" error="Select items from list only" promptTitle="Select Division" prompt="Please make a selection from the list" sqref="A6:A14" xr:uid="{0DA342EF-881C-4F08-B8AF-660FC497CCF1}">
+      <formula1>INDIRECT("TableDiv[[Division]]")</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="DateError" error="Date must be greater than or equal to today's date" promptTitle="Date" prompt="Please enter project start date" sqref="B6:B14" xr:uid="{4992CD1F-D4AC-44AC-8AC0-B391B6CF0213}">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Number should be between 1000 to 2000" prompt="Please enter your project number" sqref="C6:C14" xr:uid="{EF0D6A35-A72F-4EE2-997D-227137B0B496}">
+      <formula1>1000</formula1>
+      <formula2>2000</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="company code must be 5 characters only" prompt="Please enter company code" sqref="D6:D15" xr:uid="{519645E6-3CDE-40CA-9795-6F9A9D1C072F}">
+      <formula1>5</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="description must be more than 25 characters" prompt="Please enter project description" sqref="E6" xr:uid="{67A9D799-93BF-45EB-8BCE-6991345DBDBE}">
+      <formula1>25</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6D51CA-8CA9-4838-9E70-5FEA128C47C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D2B4CC-FA04-4D09-9BD5-43DF077B112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Day-4" sheetId="4" r:id="rId4"/>
     <sheet name="Day-5" sheetId="5" r:id="rId5"/>
     <sheet name="Day-6" sheetId="6" r:id="rId6"/>
+    <sheet name="Day-7" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="105">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -337,12 +338,78 @@
   <si>
     <t>Focussing on healthcare equipments to increase crop production</t>
   </si>
+  <si>
+    <t>Custom Data Validation</t>
+  </si>
+  <si>
+    <t>1 Letter 4 Numbers</t>
+  </si>
+  <si>
+    <t>2 Letters Fixed, 4 Numbers</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>2 Letters 4 Numbers</t>
+  </si>
+  <si>
+    <t>length = 5</t>
+  </si>
+  <si>
+    <t>last 4 characters are numbers</t>
+  </si>
+  <si>
+    <t>First character is non-numeric</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>A2345</t>
+  </si>
+  <si>
+    <t>B2345</t>
+  </si>
+  <si>
+    <t>C1245</t>
+  </si>
+  <si>
+    <t>PT4534</t>
+  </si>
+  <si>
+    <t>length = 6</t>
+  </si>
+  <si>
+    <t>First 2 characters are Fixed = "PT"</t>
+  </si>
+  <si>
+    <t>PT1234</t>
+  </si>
+  <si>
+    <t>PT7896</t>
+  </si>
+  <si>
+    <t>Second character is non-numeric</t>
+  </si>
+  <si>
+    <t>AB1234</t>
+  </si>
+  <si>
+    <t>CD7895</t>
+  </si>
+  <si>
+    <t>EF1595</t>
+  </si>
+  <si>
+    <t>GH3571</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +482,15 @@
       <name val="Schriftart für Textkörper"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +512,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,7 +667,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -637,15 +717,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{DA3F0C31-CC79-4E87-AFB1-7A6099006D56}"/>
@@ -656,6 +740,20 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -663,20 +761,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1173,7 +1257,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}" name="TableDiv" displayName="TableDiv" ref="H4:H9" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}" name="TableDiv" displayName="TableDiv" ref="H4:H9" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="H4:H9" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{3843E976-0EFC-4D33-BEC2-236EAF0CBBCB}" name="Division"/>
@@ -1458,13 +1542,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -1670,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF01704-6D7D-4BD8-89C5-D27E2E9D95F5}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1683,10 +1767,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="35"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -2113,11 +2197,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -2582,7 +2666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF7D00-80FC-42C0-A490-F9016C3DF4B0}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2595,10 +2679,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -3118,7 +3202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADED6C27-6C18-4AA2-A056-D97167A8B3BE}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3131,10 +3215,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -3746,7 +3830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CBC756-7E1F-4FAE-B8CA-E47FA757D423}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3761,11 +3845,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -3773,24 +3857,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>62</v>
       </c>
       <c r="H5" t="s">
@@ -3996,4 +4080,216 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BED727B-6143-4C20-8168-DA4C50732FA9}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1">
+      <c r="A1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="b">
+        <f>LEN(A5)=5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <f>ISNUMBER(VALUE(RIGHT(A5,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="37" t="b">
+        <f>NOT(ISNUMBER(VALUE(LEFT(A5,1))))</f>
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <f>AND(LEN(A5)=5,ISNUMBER(VALUE(RIGHT(A5,4))),NOT(ISNUMBER(VALUE(LEFT(A5,1)))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="b">
+        <f>LEN(A11)=6</f>
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <f>ISNUMBER(VALUE(RIGHT(A11,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="37" t="b">
+        <f>LEFT(A11,2)="PT"</f>
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <f>AND(LEFT(A11,2)="PT",ISNUMBER(VALUE(RIGHT(A11,4))),LEN(A11)=6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="b">
+        <f>LEN(A17)=6</f>
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <f>ISNUMBER(VALUE(RIGHT(A17,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="37" t="b">
+        <f>NOT(ISNUMBER(VALUE(LEFT(A17,1))))</f>
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <f>NOT(ISNUMBER(VALUE(MID(A17,2,1))))</f>
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <f>AND(LEN(A17)=6,ISNUMBER(VALUE(RIGHT(A17,4))),NOT(ISNUMBER(VALUE(LEFT(A17,1)))),NOT(ISNUMBER(VALUE(MID(A17,2,1)))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Company Code Format is not proper" prompt="Please enter 1 Letter &amp; 4 Numbers for your company code" sqref="A5:A8" xr:uid="{D2A839DD-E940-4B8A-BA03-E71ABC7CC9FB}">
+      <formula1>AND(LEN(A5)=5,ISNUMBER(VALUE(RIGHT(A5,4))),NOT(ISNUMBER(VALUE(LEFT(A5,1)))))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Project Code is not in Proper Format" prompt="Please enter &quot;PT&quot; followed by 4 Numbers" sqref="A11:A14" xr:uid="{E4749F25-68E7-4108-980E-DDA4FF69E987}">
+      <formula1>AND(LEFT(A11,2)="PT",ISNUMBER(VALUE(RIGHT(A11,4))),LEN(A11)=6)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Company Code is not in Proper Format" prompt="Please enter 2 Letters and 4 Numbers for your company code" sqref="A17:A20" xr:uid="{28E73089-72AD-481B-93D7-18C0B5253F5B}">
+      <formula1>AND(LEN(A17)=6,ISNUMBER(VALUE(RIGHT(A17,4))),NOT(ISNUMBER(VALUE(LEFT(A17,1)))),NOT(ISNUMBER(VALUE(MID(A17,2,1)))))</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D2B4CC-FA04-4D09-9BD5-43DF077B112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7F448B-57AA-4A9C-8C55-6850D8940C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Day-5" sheetId="5" r:id="rId5"/>
     <sheet name="Day-6" sheetId="6" r:id="rId6"/>
     <sheet name="Day-7" sheetId="7" r:id="rId7"/>
+    <sheet name="Day-8" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="106">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -403,6 +404,9 @@
   </si>
   <si>
     <t>GH3571</t>
+  </si>
+  <si>
+    <t>Headers &amp; Footers</t>
   </si>
 </sst>
 </file>
@@ -667,7 +671,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -723,13 +727,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{DA3F0C31-CC79-4E87-AFB1-7A6099006D56}"/>
@@ -1532,23 +1540,25 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -1616,15 +1626,15 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:M4" si="0">C4/$F4</f>
+        <f>C4/$F4</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" si="0"/>
+        <f>D4/$F4</f>
         <v>0.45454545454545453</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="0"/>
+        <f>E4/$F4</f>
         <v>0.27272727272727271</v>
       </c>
     </row>
@@ -1645,30 +1655,30 @@
         <v>90</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F6" si="1">SUM(B5:E5)</f>
+        <f t="shared" ref="F5:F6" si="0">SUM(B5:E5)</f>
         <v>630</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" ref="G5:G6" si="2">F5/$F$7</f>
+        <f t="shared" ref="G5:G6" si="1">F5/$F$7</f>
         <v>0.25250501002004005</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J5:J6" si="3">B5/$F5</f>
+        <f>B5/$F5</f>
         <v>0.23809523809523808</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ref="K5:K6" si="4">C5/$F5</f>
+        <f>C5/$F5</f>
         <v>0.3968253968253968</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" ref="L5:L6" si="5">D5/$F5</f>
+        <f>D5/$F5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" ref="M5:M6" si="6">E5/$F5</f>
+        <f>E5/$F5</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -1689,30 +1699,30 @@
         <v>85</v>
       </c>
       <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>765</v>
+      </c>
+      <c r="G6" s="8">
         <f t="shared" si="1"/>
-        <v>765</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="2"/>
         <v>0.30661322645290578</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="3"/>
+        <f>B6/$F6</f>
         <v>0.30065359477124182</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="4"/>
+        <f>C6/$F6</f>
         <v>0.45751633986928103</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" si="5"/>
+        <f>D6/$F6</f>
         <v>0.13071895424836602</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" si="6"/>
+        <f>E6/$F6</f>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -1727,9 +1737,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="A10" s="39" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -1742,11 +1760,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1754,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF01704-6D7D-4BD8-89C5-D27E2E9D95F5}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1767,10 +1787,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="37"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -2172,8 +2192,9 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2182,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD893A58-35C4-4ADC-96F1-E62CA20E0C55}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2197,11 +2218,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -2656,8 +2677,9 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2666,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF7D00-80FC-42C0-A490-F9016C3DF4B0}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2679,10 +2701,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -3202,8 +3224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADED6C27-6C18-4AA2-A056-D97167A8B3BE}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3215,10 +3237,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -3823,6 +3845,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3831,7 +3854,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3845,11 +3868,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -4076,8 +4099,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4086,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BED727B-6143-4C20-8168-DA4C50732FA9}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView showWhiteSpace="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4097,11 +4121,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -4109,7 +4133,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
@@ -4137,7 +4161,7 @@
         <f>ISNUMBER(VALUE(RIGHT(A5,4)))</f>
         <v>1</v>
       </c>
-      <c r="F5" s="37" t="b">
+      <c r="F5" s="36" t="b">
         <f>NOT(ISNUMBER(VALUE(LEFT(A5,1))))</f>
         <v>1</v>
       </c>
@@ -4162,7 +4186,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B10" t="s">
@@ -4190,7 +4214,7 @@
         <f>ISNUMBER(VALUE(RIGHT(A11,4)))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="37" t="b">
+      <c r="F11" s="36" t="b">
         <f>LEFT(A11,2)="PT"</f>
         <v>1</v>
       </c>
@@ -4215,7 +4239,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B16" t="s">
@@ -4246,7 +4270,7 @@
         <f>ISNUMBER(VALUE(RIGHT(A17,4)))</f>
         <v>1</v>
       </c>
-      <c r="F17" s="37" t="b">
+      <c r="F17" s="36" t="b">
         <f>NOT(ISNUMBER(VALUE(LEFT(A17,1))))</f>
         <v>1</v>
       </c>
@@ -4292,4 +4316,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A141A2CA-4D73-477C-AC13-C10AC1812F6A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1">
+      <c r="A1" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LMICROSOFT EXCEL TUTORIALS
+&amp;A&amp;C&amp;D&amp;R&amp;T</oddHeader>
+    <oddFooter>&amp;L&amp;"-,Bold"AKSHAY PAUNIKAR&amp;RPage &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7F448B-57AA-4A9C-8C55-6850D8940C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5BEEA6-2A43-4891-B1FD-5DE9C3ED6B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Day-6" sheetId="6" r:id="rId6"/>
     <sheet name="Day-7" sheetId="7" r:id="rId7"/>
     <sheet name="Day-8" sheetId="10" r:id="rId8"/>
+    <sheet name="Day-9" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="137">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -408,12 +409,108 @@
   <si>
     <t>Headers &amp; Footers</t>
   </si>
+  <si>
+    <t>Calculate Percentage in Excel the right way!</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
+    <t>Sales Values</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>% Change</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Inkly</t>
+  </si>
+  <si>
+    <t>Kind Ape</t>
+  </si>
+  <si>
+    <t>Pet Feed</t>
+  </si>
+  <si>
+    <t>Right App</t>
+  </si>
+  <si>
+    <t>Mirrrr</t>
+  </si>
+  <si>
+    <t>Halotot</t>
+  </si>
+  <si>
+    <t>Flowrrr</t>
+  </si>
+  <si>
+    <t>Silvrr</t>
+  </si>
+  <si>
+    <t>Starting Price</t>
+  </si>
+  <si>
+    <t>Increase Price by</t>
+  </si>
+  <si>
+    <t>End Price</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +590,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -526,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -663,15 +767,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -734,17 +856,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
+    <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{DA3F0C31-CC79-4E87-AFB1-7A6099006D56}"/>
     <cellStyle name="Hyperlink 3" xfId="4" xr:uid="{C4CE5DF7-4AB3-4E3B-B8AF-6BB298E76A64}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{27E0D15E-1D11-4E0E-9819-2BF1029C6403}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{323CA2F9-9C7C-4081-B581-9FDBBADDCB50}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="7" xr:uid="{E8494675-2B61-4121-80E1-BBCDC14FBEE3}"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -1622,19 +1762,19 @@
         <v>5</v>
       </c>
       <c r="J4" s="8">
-        <f>B4/$F4</f>
+        <f t="shared" ref="J4:M6" si="0">B4/$F4</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="K4" s="8">
-        <f>C4/$F4</f>
+        <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="L4" s="8">
-        <f>D4/$F4</f>
+        <f t="shared" si="0"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="M4" s="8">
-        <f>E4/$F4</f>
+        <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
     </row>
@@ -1655,30 +1795,30 @@
         <v>90</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F6" si="0">SUM(B5:E5)</f>
+        <f t="shared" ref="F5:F6" si="1">SUM(B5:E5)</f>
         <v>630</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" ref="G5:G6" si="1">F5/$F$7</f>
+        <f t="shared" ref="G5:G6" si="2">F5/$F$7</f>
         <v>0.25250501002004005</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="8">
-        <f>B5/$F5</f>
+        <f t="shared" si="0"/>
         <v>0.23809523809523808</v>
       </c>
       <c r="K5" s="8">
-        <f>C5/$F5</f>
+        <f t="shared" si="0"/>
         <v>0.3968253968253968</v>
       </c>
       <c r="L5" s="8">
-        <f>D5/$F5</f>
+        <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="M5" s="8">
-        <f>E5/$F5</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -1699,30 +1839,30 @@
         <v>85</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>765</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30661322645290578</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="8">
-        <f>B6/$F6</f>
+        <f t="shared" si="0"/>
         <v>0.30065359477124182</v>
       </c>
       <c r="K6" s="8">
-        <f>C6/$F6</f>
+        <f t="shared" si="0"/>
         <v>0.45751633986928103</v>
       </c>
       <c r="L6" s="8">
-        <f>D6/$F6</f>
+        <f t="shared" si="0"/>
         <v>0.13071895424836602</v>
       </c>
       <c r="M6" s="8">
-        <f>E6/$F6</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -1737,17 +1877,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -4322,17 +4462,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A141A2CA-4D73-477C-AC13-C10AC1812F6A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4346,4 +4486,440 @@
     <oddFooter>&amp;L&amp;"-,Bold"AKSHAY PAUNIKAR&amp;RPage &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DE359B-B384-418D-A5CC-5046733A215D}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1">
+      <c r="A1" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="41">
+        <v>480</v>
+      </c>
+      <c r="D4" s="41">
+        <v>500</v>
+      </c>
+      <c r="E4" s="43">
+        <f>C4/D4</f>
+        <v>0.96</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="41">
+        <v>470</v>
+      </c>
+      <c r="D5" s="41">
+        <v>500</v>
+      </c>
+      <c r="E5" s="43">
+        <f t="shared" ref="E5:E13" si="0">C5/D5</f>
+        <v>0.94</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="41">
+        <v>14432</v>
+      </c>
+      <c r="J5" s="41">
+        <v>15113</v>
+      </c>
+      <c r="K5" s="43">
+        <f>I5/J5-1</f>
+        <v>-4.5060543902600392E-2</v>
+      </c>
+      <c r="N5" s="41">
+        <v>100</v>
+      </c>
+      <c r="O5" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="41">
+        <f>N5*(1+O5)</f>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="41">
+        <v>468</v>
+      </c>
+      <c r="D6" s="41">
+        <v>500</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" si="0"/>
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="41">
+        <v>17990</v>
+      </c>
+      <c r="J6" s="41">
+        <v>18181</v>
+      </c>
+      <c r="K6" s="43">
+        <f t="shared" ref="K6:K16" si="1">I6/J6-1</f>
+        <v>-1.0505472746273559E-2</v>
+      </c>
+      <c r="N6" s="41">
+        <v>50</v>
+      </c>
+      <c r="O6" s="43">
+        <v>-0.2</v>
+      </c>
+      <c r="P6" s="41">
+        <f t="shared" ref="P6:P8" si="2">N6*(1+O6)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="41">
+        <v>423</v>
+      </c>
+      <c r="D7" s="41">
+        <v>500</v>
+      </c>
+      <c r="E7" s="43">
+        <f t="shared" si="0"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="41">
+        <v>15117</v>
+      </c>
+      <c r="J7" s="41">
+        <v>13455</v>
+      </c>
+      <c r="K7" s="43">
+        <f t="shared" si="1"/>
+        <v>0.12352285395763651</v>
+      </c>
+      <c r="N7" s="41">
+        <v>80</v>
+      </c>
+      <c r="O7" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="P7" s="41">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="41">
+        <v>415</v>
+      </c>
+      <c r="D8" s="41">
+        <v>500</v>
+      </c>
+      <c r="E8" s="43">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="41">
+        <v>11154</v>
+      </c>
+      <c r="J8" s="41">
+        <v>12031</v>
+      </c>
+      <c r="K8" s="43">
+        <f t="shared" si="1"/>
+        <v>-7.2895021195245602E-2</v>
+      </c>
+      <c r="N8" s="41">
+        <v>20</v>
+      </c>
+      <c r="O8" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="P8" s="41">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="41">
+        <v>406</v>
+      </c>
+      <c r="D9" s="41">
+        <v>500</v>
+      </c>
+      <c r="E9" s="43">
+        <f t="shared" si="0"/>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="41">
+        <v>11022</v>
+      </c>
+      <c r="J9" s="41">
+        <v>14600</v>
+      </c>
+      <c r="K9" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.24506849315068491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="41">
+        <v>358</v>
+      </c>
+      <c r="D10" s="41">
+        <v>500</v>
+      </c>
+      <c r="E10" s="43">
+        <f t="shared" si="0"/>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="41">
+        <v>8905</v>
+      </c>
+      <c r="J10" s="41">
+        <v>9096</v>
+      </c>
+      <c r="K10" s="43">
+        <f t="shared" si="1"/>
+        <v>-2.0998240985048322E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="41">
+        <v>369</v>
+      </c>
+      <c r="D11" s="41">
+        <v>500</v>
+      </c>
+      <c r="E11" s="43">
+        <f t="shared" si="0"/>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="41">
+        <v>16735</v>
+      </c>
+      <c r="J11" s="41">
+        <v>18207</v>
+      </c>
+      <c r="K11" s="43">
+        <f t="shared" si="1"/>
+        <v>-8.0848025484703712E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="41">
+        <v>358</v>
+      </c>
+      <c r="D12" s="41">
+        <v>500</v>
+      </c>
+      <c r="E12" s="43">
+        <f t="shared" si="0"/>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="41">
+        <v>3635</v>
+      </c>
+      <c r="J12" s="41">
+        <v>3579</v>
+      </c>
+      <c r="K12" s="43">
+        <f t="shared" si="1"/>
+        <v>1.5646828723107076E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="41">
+        <v>320</v>
+      </c>
+      <c r="D13" s="41">
+        <v>500</v>
+      </c>
+      <c r="E13" s="43">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13" s="41">
+        <v>15627</v>
+      </c>
+      <c r="J13" s="41">
+        <v>14634</v>
+      </c>
+      <c r="K13" s="43">
+        <f t="shared" si="1"/>
+        <v>6.7855678556785648E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="H14" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="41">
+        <v>7270</v>
+      </c>
+      <c r="J14" s="41">
+        <v>7158</v>
+      </c>
+      <c r="K14" s="43">
+        <f t="shared" si="1"/>
+        <v>1.5646828723107076E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="H15" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="41">
+        <v>5955</v>
+      </c>
+      <c r="J15" s="41">
+        <v>5977</v>
+      </c>
+      <c r="K15" s="43">
+        <f t="shared" si="1"/>
+        <v>-3.6807763091851742E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="H16" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="41">
+        <v>7666</v>
+      </c>
+      <c r="J16" s="41">
+        <v>7099</v>
+      </c>
+      <c r="K16" s="43">
+        <f t="shared" si="1"/>
+        <v>7.9870404282293306E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5BEEA6-2A43-4891-B1FD-5DE9C3ED6B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A4E06-32AD-416C-A9AA-EDB0F48FF175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Day-7" sheetId="7" r:id="rId7"/>
     <sheet name="Day-8" sheetId="10" r:id="rId8"/>
     <sheet name="Day-9" sheetId="11" r:id="rId9"/>
+    <sheet name="Day-10" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="138">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -501,6 +502,9 @@
   </si>
   <si>
     <t>End Price</t>
+  </si>
+  <si>
+    <t>FIND REPLACE</t>
   </si>
 </sst>
 </file>
@@ -793,7 +797,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -853,6 +857,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -860,20 +873,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1692,13 +1702,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -1877,17 +1887,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -1907,6 +1917,526 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FD6CB2-93D0-4DD1-99B9-B44D93E8E056}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1">
+      <c r="A1" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="42"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="46">
+        <v>47296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="46">
+        <v>8132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="46">
+        <v>6487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="46">
+        <v>29277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="46">
+        <v>26412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="46">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="46">
+        <v>49988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="46">
+        <v>49144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="46">
+        <v>34155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="46">
+        <v>46652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="46">
+        <v>28020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="46">
+        <v>28523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="46">
+        <v>90530</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="46">
+        <v>46994</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="46">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="46">
+        <v>34196</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="46">
+        <v>85200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="46">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="46">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="46">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="46">
+        <v>20898</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="46">
+        <v>43784</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="46">
+        <v>34155</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="46">
+        <v>19789</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="46">
+        <v>49656</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="46">
+        <v>9432</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="46">
+        <v>46922</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="46">
+        <v>46336</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="46">
+        <v>30832</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="46">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="46">
+        <v>13596</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="46">
+        <v>42569</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="46">
+        <v>18524</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="46">
+        <v>2116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1927,10 +2457,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="40"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -2358,11 +2888,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -2828,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF7D00-80FC-42C0-A490-F9016C3DF4B0}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2841,10 +3371,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -3377,10 +3907,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -4008,11 +4538,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -4261,11 +4791,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -4469,10 +4999,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4492,7 +5022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DE359B-B384-418D-A5CC-5046733A215D}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="P5" sqref="P5:P8"/>
     </sheetView>
   </sheetViews>
@@ -4513,26 +5043,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
       <c r="H3" s="44" t="s">
@@ -4543,374 +5073,374 @@
       <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="38">
         <v>480</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="38">
         <v>500</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="39">
         <f>C4/D4</f>
         <v>0.96</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="38" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="38">
         <v>470</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="38">
         <v>500</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="39">
         <f t="shared" ref="E5:E13" si="0">C5/D5</f>
         <v>0.94</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="38">
         <v>14432</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="38">
         <v>15113</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="39">
         <f>I5/J5-1</f>
         <v>-4.5060543902600392E-2</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="38">
         <v>100</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="39">
         <v>0.1</v>
       </c>
-      <c r="P5" s="41">
+      <c r="P5" s="38">
         <f>N5*(1+O5)</f>
         <v>110.00000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="38">
         <v>468</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="38">
         <v>500</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="39">
         <f t="shared" si="0"/>
         <v>0.93600000000000005</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="38">
         <v>17990</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="38">
         <v>18181</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="39">
         <f t="shared" ref="K6:K16" si="1">I6/J6-1</f>
         <v>-1.0505472746273559E-2</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="38">
         <v>50</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="39">
         <v>-0.2</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="38">
         <f t="shared" ref="P6:P8" si="2">N6*(1+O6)</f>
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="38">
         <v>423</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="38">
         <v>500</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="39">
         <f t="shared" si="0"/>
         <v>0.84599999999999997</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="38">
         <v>15117</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="38">
         <v>13455</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="39">
         <f t="shared" si="1"/>
         <v>0.12352285395763651</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="38">
         <v>80</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="39">
         <v>0.05</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="38">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="38">
         <v>415</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>500</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="39">
         <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="38">
         <v>11154</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="38">
         <v>12031</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="39">
         <f t="shared" si="1"/>
         <v>-7.2895021195245602E-2</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="38">
         <v>20</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="39">
         <v>0.3</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="38">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="38">
         <v>406</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="38">
         <v>500</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="39">
         <f t="shared" si="0"/>
         <v>0.81200000000000006</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="38">
         <v>11022</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="38">
         <v>14600</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="39">
         <f t="shared" si="1"/>
         <v>-0.24506849315068491</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="38">
         <v>358</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="38">
         <v>500</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="39">
         <f t="shared" si="0"/>
         <v>0.71599999999999997</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="38">
         <v>8905</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="38">
         <v>9096</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="39">
         <f t="shared" si="1"/>
         <v>-2.0998240985048322E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="38">
         <v>369</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="38">
         <v>500</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>0.73799999999999999</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="38">
         <v>16735</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="38">
         <v>18207</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="39">
         <f t="shared" si="1"/>
         <v>-8.0848025484703712E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="38">
         <v>358</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="38">
         <v>500</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="39">
         <f t="shared" si="0"/>
         <v>0.71599999999999997</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="38">
         <v>3635</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="38">
         <v>3579</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="39">
         <f t="shared" si="1"/>
         <v>1.5646828723107076E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="38">
         <v>320</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="38">
         <v>500</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="39">
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="38">
         <v>15627</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="38">
         <v>14634</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="39">
         <f t="shared" si="1"/>
         <v>6.7855678556785648E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="38">
         <v>7270</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="38">
         <v>7158</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="39">
         <f t="shared" si="1"/>
         <v>1.5646828723107076E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="38">
         <v>5955</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="38">
         <v>5977</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="39">
         <f t="shared" si="1"/>
         <v>-3.6807763091851742E-3</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="38">
         <v>7666</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="38">
         <v>7099</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="39">
         <f t="shared" si="1"/>
         <v>7.9870404282293306E-2</v>
       </c>

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A4E06-32AD-416C-A9AA-EDB0F48FF175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF09668-3EEF-4845-AA18-3FAEF7EAA26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="147">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -505,6 +505,33 @@
   </si>
   <si>
     <t>FIND REPLACE</t>
+  </si>
+  <si>
+    <t>Excel Cell Modes</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>When you click any cell in the sheet it first goes into ready mode.</t>
+  </si>
+  <si>
+    <t>When you start typing it enters into the enter mode.</t>
+  </si>
+  <si>
+    <t>When you are typing a formula, it goes into point mode where you can insert cell reference by using the arrow keys.</t>
+  </si>
+  <si>
+    <t>Let's say that you want to edit a formula so if you are in point model and use arrow keys it will move to the next cells. Edit mode allows you to edit the formula or text.</t>
   </si>
 </sst>
 </file>
@@ -634,7 +661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -786,6 +813,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -797,7 +833,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -866,6 +902,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -879,12 +921,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
@@ -1687,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1702,13 +1740,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -1887,17 +1925,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -1907,6 +1945,44 @@
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +2000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FD6CB2-93D0-4DD1-99B9-B44D93E8E056}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1937,498 +2013,498 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="41">
         <v>47296</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="41">
         <v>8132</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="41">
         <v>6487</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="41">
         <v>29277</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="41">
         <v>26412</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="41">
         <v>8532</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="41">
         <v>49988</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="41">
         <v>49144</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="41">
         <v>34155</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="41">
         <v>46652</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="41">
         <v>28020</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="41">
         <v>28523</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="41">
         <v>90530</v>
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="41">
         <v>46994</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="41">
         <v>3000</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="41">
         <v>34196</v>
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="41">
         <v>85200</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="41">
         <v>9000</v>
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="41">
         <v>13500</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="41">
         <v>40000</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="41">
         <v>20898</v>
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="41">
         <v>43784</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="41">
         <v>34155</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="41">
         <v>19789</v>
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="41">
         <v>49656</v>
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="41">
         <v>9432</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="41">
         <v>46922</v>
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="41">
         <v>46336</v>
       </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="41">
         <v>30832</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="41">
         <v>44675</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="41">
         <v>13596</v>
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="41">
         <v>42569</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="41">
         <v>18524</v>
       </c>
     </row>
     <row r="37" spans="3:6">
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="41">
         <v>2116</v>
       </c>
     </row>
@@ -2444,7 +2520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF01704-6D7D-4BD8-89C5-D27E2E9D95F5}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -2457,10 +2533,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="42"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -2873,7 +2949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD893A58-35C4-4ADC-96F1-E62CA20E0C55}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -2888,11 +2964,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -3371,10 +3447,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -3907,10 +3983,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -4538,11 +4614,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -4791,11 +4867,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -4999,10 +5075,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5043,14 +5119,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="37" t="s">
@@ -5065,12 +5141,12 @@
       <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="38" t="s">

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF09668-3EEF-4845-AA18-3FAEF7EAA26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DC7F75-298B-4522-A524-6600322AEEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Day-8" sheetId="10" r:id="rId8"/>
     <sheet name="Day-9" sheetId="11" r:id="rId9"/>
     <sheet name="Day-10" sheetId="12" r:id="rId10"/>
+    <sheet name="Day-11" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="169">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -532,6 +533,72 @@
   </si>
   <si>
     <t>Let's say that you want to edit a formula so if you are in point model and use arrow keys it will move to the next cells. Edit mode allows you to edit the formula or text.</t>
+  </si>
+  <si>
+    <t>CASE of Text Data</t>
+  </si>
+  <si>
+    <t>#1 Formula Method</t>
+  </si>
+  <si>
+    <t>Upper Case</t>
+  </si>
+  <si>
+    <t>Lower Case</t>
+  </si>
+  <si>
+    <t>Proper Case</t>
+  </si>
+  <si>
+    <t>Gary Miller</t>
+  </si>
+  <si>
+    <t>Gary   miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virat koHlI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SaCHiN   TenDULkAr  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RiChaRD   FeYNmaNN  </t>
+  </si>
+  <si>
+    <t>#2 Flash Fill Method</t>
+  </si>
+  <si>
+    <t>GARY MILLER</t>
+  </si>
+  <si>
+    <t>VIRAT KOHLI</t>
+  </si>
+  <si>
+    <t>SACHIN TENDULKAR</t>
+  </si>
+  <si>
+    <t>RICHARD FEYNMANN</t>
+  </si>
+  <si>
+    <t>gary miller</t>
+  </si>
+  <si>
+    <t>virat kohli</t>
+  </si>
+  <si>
+    <t>sachin tendulkar</t>
+  </si>
+  <si>
+    <t>richard feynmann</t>
+  </si>
+  <si>
+    <t>Virat Kohli</t>
+  </si>
+  <si>
+    <t>Sachin Tendulkar</t>
+  </si>
+  <si>
+    <t>Richard Feynmann</t>
   </si>
 </sst>
 </file>
@@ -908,6 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -921,8 +989,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
@@ -1727,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:D24"/>
     </sheetView>
   </sheetViews>
@@ -1740,13 +1807,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -1925,17 +1992,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -1948,37 +2015,36 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="42" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="42" t="s">
         <v>139</v>
       </c>
       <c r="B18" t="s">
         <v>143</v>
       </c>
-      <c r="K18" s="48"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="47" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="42" t="s">
         <v>140</v>
       </c>
       <c r="B19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="47" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="42" t="s">
         <v>141</v>
       </c>
       <c r="B20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="42" t="s">
         <v>142</v>
       </c>
       <c r="B21" t="s">
@@ -2000,7 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FD6CB2-93D0-4DD1-99B9-B44D93E8E056}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2013,10 +2079,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="40" t="s">
@@ -2511,6 +2577,202 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AC54C2-672F-4185-AAA6-F9DC37923135}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1">
+      <c r="A1" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="43"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
+      <c r="A3" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="43"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1">
+      <c r="C4" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="str">
+        <f>TRIM(UPPER(C5))</f>
+        <v>GARY MILLER</v>
+      </c>
+      <c r="E5" t="str">
+        <f>TRIM(LOWER(C5))</f>
+        <v>gary miller</v>
+      </c>
+      <c r="F5" t="str">
+        <f>TRIM(PROPER(C5))</f>
+        <v>Gary Miller</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6:D8" si="0">TRIM(UPPER(C6))</f>
+        <v>VIRAT KOHLI</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6:E8" si="1">TRIM(LOWER(C6))</f>
+        <v>virat kohli</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6:F8" si="2">TRIM(PROPER(C6))</f>
+        <v>Virat Kohli</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>SACHIN TENDULKAR</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>sachin tendulkar</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>Sachin Tendulkar</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>RICHARD FEYNMANN</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>richard feynmann</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>Richard Feynmann</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1">
+      <c r="A10" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1">
+      <c r="C11" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2533,10 +2795,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="43"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -2964,11 +3226,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -3447,10 +3709,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -3983,10 +4245,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -4614,11 +4876,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -4867,11 +5129,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -5075,10 +5337,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5119,14 +5381,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="37" t="s">
@@ -5141,12 +5403,12 @@
       <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="38" t="s">

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DC7F75-298B-4522-A524-6600322AEEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC979E5F-75D8-4F67-A9F0-E9576EFB015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Day-9" sheetId="11" r:id="rId9"/>
     <sheet name="Day-10" sheetId="12" r:id="rId10"/>
     <sheet name="Day-11" sheetId="13" r:id="rId11"/>
+    <sheet name="Day-12" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="214">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -599,6 +600,141 @@
   </si>
   <si>
     <t>Richard Feynmann</t>
+  </si>
+  <si>
+    <t>Lock Cells &amp; Protect Excel Worksheet</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>Phase 4</t>
+  </si>
+  <si>
+    <t>Phase 5</t>
+  </si>
+  <si>
+    <t>Phase 6</t>
+  </si>
+  <si>
+    <t>Phase 7</t>
+  </si>
+  <si>
+    <t>Phase 8</t>
+  </si>
+  <si>
+    <t>Phase 9</t>
+  </si>
+  <si>
+    <t>Phase 10</t>
+  </si>
+  <si>
+    <t>Phase 11</t>
+  </si>
+  <si>
+    <t>Phase 12</t>
+  </si>
+  <si>
+    <t>Phase 13</t>
+  </si>
+  <si>
+    <t>Phase 14</t>
+  </si>
+  <si>
+    <t>Phase 15</t>
+  </si>
+  <si>
+    <t>Phase 16</t>
+  </si>
+  <si>
+    <t>Phase 17</t>
+  </si>
+  <si>
+    <t>Phase 18</t>
+  </si>
+  <si>
+    <t>Phase 19</t>
+  </si>
+  <si>
+    <t>Phase 20</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -728,7 +864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -889,6 +1025,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -900,7 +1056,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -979,6 +1135,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,7 +1149,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
@@ -1807,13 +1979,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -1992,17 +2164,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -2079,10 +2251,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="40" t="s">
@@ -2586,7 +2758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AC54C2-672F-4185-AAA6-F9DC37923135}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2599,28 +2771,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="44" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2693,22 +2865,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="45"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="44" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2774,6 +2946,395 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C131DAA7-CAAB-4145-A204-2395D99BDB4A}">
+  <dimension ref="A1:U13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" thickBot="1">
+      <c r="A1" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1">
+      <c r="A3" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="U3" s="43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="51">
+        <v>1</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="51">
+        <v>2</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="51">
+        <v>3</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="51">
+        <v>4</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="51">
+        <v>5</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="51">
+        <v>6</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="51">
+        <v>7</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="51">
+        <v>8</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="51">
+        <v>9</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="51">
+        <v>10</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2795,10 +3356,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="45"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -3226,11 +3787,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -3709,10 +4270,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -4245,10 +4806,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -4876,11 +5437,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -5129,11 +5690,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -5337,10 +5898,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5381,14 +5942,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="37" t="s">
@@ -5403,12 +5964,12 @@
       <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="38" t="s">

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC979E5F-75D8-4F67-A9F0-E9576EFB015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1084A-2FE2-4656-8B42-201C838094D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Day-10" sheetId="12" r:id="rId10"/>
     <sheet name="Day-11" sheetId="13" r:id="rId11"/>
     <sheet name="Day-12" sheetId="14" r:id="rId12"/>
+    <sheet name="Day-13" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="276">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -736,15 +737,201 @@
   <si>
     <t>W</t>
   </si>
+  <si>
+    <t>VLOOKUP &amp; HLOOKUP</t>
+  </si>
+  <si>
+    <t>Sales Agent</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer </t>
+  </si>
+  <si>
+    <t>Agent Report</t>
+  </si>
+  <si>
+    <t>Agent A</t>
+  </si>
+  <si>
+    <t>Customer A</t>
+  </si>
+  <si>
+    <t>Select Agent:</t>
+  </si>
+  <si>
+    <t>Agent B</t>
+  </si>
+  <si>
+    <t>Customer B</t>
+  </si>
+  <si>
+    <t>Find Price</t>
+  </si>
+  <si>
+    <t>Agent C</t>
+  </si>
+  <si>
+    <t>Customer C</t>
+  </si>
+  <si>
+    <t>Find Customer</t>
+  </si>
+  <si>
+    <t>Agent D</t>
+  </si>
+  <si>
+    <t>Customer D</t>
+  </si>
+  <si>
+    <t>Agent E</t>
+  </si>
+  <si>
+    <t>Customer E</t>
+  </si>
+  <si>
+    <t>Price Calculated</t>
+  </si>
+  <si>
+    <t>Agent F</t>
+  </si>
+  <si>
+    <t>Customer F</t>
+  </si>
+  <si>
+    <t>Agent G</t>
+  </si>
+  <si>
+    <t>Customer G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent H    </t>
+  </si>
+  <si>
+    <t>Customer H</t>
+  </si>
+  <si>
+    <t>Agent I</t>
+  </si>
+  <si>
+    <t>Customer I</t>
+  </si>
+  <si>
+    <t>Agent J</t>
+  </si>
+  <si>
+    <t>Customer J</t>
+  </si>
+  <si>
+    <t>Agent K</t>
+  </si>
+  <si>
+    <t>Customer K</t>
+  </si>
+  <si>
+    <t>Agent L</t>
+  </si>
+  <si>
+    <t>Customer L</t>
+  </si>
+  <si>
+    <t>Agent M</t>
+  </si>
+  <si>
+    <t>Customer M</t>
+  </si>
+  <si>
+    <t>Agent N</t>
+  </si>
+  <si>
+    <t>Customer N</t>
+  </si>
+  <si>
+    <t>Agent O</t>
+  </si>
+  <si>
+    <t>Customer O</t>
+  </si>
+  <si>
+    <t>Agent P</t>
+  </si>
+  <si>
+    <t>Customer P</t>
+  </si>
+  <si>
+    <t>Agent Q</t>
+  </si>
+  <si>
+    <t>Customer Q</t>
+  </si>
+  <si>
+    <t>Agent R</t>
+  </si>
+  <si>
+    <t>Customer R</t>
+  </si>
+  <si>
+    <t>Agent S</t>
+  </si>
+  <si>
+    <t>Customer S</t>
+  </si>
+  <si>
+    <t>Agent T</t>
+  </si>
+  <si>
+    <t>Customer T</t>
+  </si>
+  <si>
+    <t>Agent U</t>
+  </si>
+  <si>
+    <t>Customer U</t>
+  </si>
+  <si>
+    <t>Agent V</t>
+  </si>
+  <si>
+    <t>Customer V</t>
+  </si>
+  <si>
+    <t>Agent W</t>
+  </si>
+  <si>
+    <t>Customer W</t>
+  </si>
+  <si>
+    <t>Agent X</t>
+  </si>
+  <si>
+    <t>Customer X</t>
+  </si>
+  <si>
+    <t>Agent Y</t>
+  </si>
+  <si>
+    <t>Customer Y</t>
+  </si>
+  <si>
+    <t>Agent Z</t>
+  </si>
+  <si>
+    <t>Customer Z</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,8 +1018,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,6 +1061,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,7 +1265,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1055,8 +1274,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1136,6 +1356,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1149,31 +1379,209 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{DA3F0C31-CC79-4E87-AFB1-7A6099006D56}"/>
     <cellStyle name="Hyperlink 3" xfId="4" xr:uid="{C4CE5DF7-4AB3-4E3B-B8AF-6BB298E76A64}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{27E0D15E-1D11-4E0E-9819-2BF1029C6403}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{323CA2F9-9C7C-4081-B581-9FDBBADDCB50}"/>
+    <cellStyle name="Normal 3 15 2" xfId="8" xr:uid="{EC99567D-A299-4710-9B75-CC28E1808607}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="7" xr:uid="{E8494675-2B61-4121-80E1-BBCDC14FBEE3}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top/>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <vertical style="double">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -1654,7 +2062,26 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="PivotFancy" table="0" count="12" xr9:uid="{A96DE6E9-C043-48BF-981B-CC78C23158D1}">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="8"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="7"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="6"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="5"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="4"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="3"/>
+      <tableStyleElement type="pageFieldValues" dxfId="2"/>
+    </tableStyle>
+    <tableStyle name="Slicerwithoutborder" pivot="0" table="0" count="2" xr9:uid="{CD3724C7-39F7-4B56-A201-585128461B42}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1667,32 +2094,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="27" totalsRowDxfId="24" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="41" totalsRowDxfId="38" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="37">
   <autoFilter ref="C3:F29" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}" name="TableDiv" displayName="TableDiv" ref="H4:H9" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}" name="TableDiv" displayName="TableDiv" ref="H4:H9" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="H4:H9" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{3843E976-0EFC-4D33-BEC2-236EAF0CBBCB}" name="Division"/>
@@ -1979,13 +2406,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -2164,17 +2591,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -2251,10 +2678,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="40" t="s">
@@ -2771,16 +3198,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="C4" s="44" t="s">
@@ -2865,10 +3292,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="C11" s="44" t="s">
@@ -2954,22 +3381,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C131DAA7-CAAB-4145-A204-2395D99BDB4A}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="45" t="s">
         <v>170</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -3034,300 +3461,300 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="51">
+      <c r="A4" s="46">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="52" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="51">
+      <c r="A5" s="46">
         <v>2</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="52" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="52" t="s">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="47" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="51">
+      <c r="A6" s="46">
         <v>3</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="52" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="52" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="51">
+      <c r="A7" s="46">
         <v>4</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="52" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="52" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="52" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="51">
+      <c r="A8" s="46">
         <v>5</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="52" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="52" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="52" t="s">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="51">
+      <c r="A9" s="46">
         <v>6</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="52" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="52" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="51">
+      <c r="A10" s="46">
         <v>7</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="51">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="52" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="52" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="52" t="s">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="52" t="s">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="47" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="51">
+      <c r="A12" s="46">
         <v>9</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="52" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="52" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="51">
+      <c r="A13" s="46">
         <v>10</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="52" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -3335,6 +3762,1453 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC3BDE-AAC5-49E8-BABD-DB58712F0EA5}">
+  <dimension ref="A1:AA42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8">
+      <c r="A3" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="57">
+        <v>5</v>
+      </c>
+      <c r="C4" s="57">
+        <v>200</v>
+      </c>
+      <c r="D4" s="59">
+        <v>40</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="57">
+        <v>6</v>
+      </c>
+      <c r="C5" s="57">
+        <v>300</v>
+      </c>
+      <c r="D5" s="59">
+        <v>50</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="57">
+        <f>VLOOKUP(J4,A4:E29,4,FALSE)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="57">
+        <v>1</v>
+      </c>
+      <c r="C6" s="57">
+        <v>50</v>
+      </c>
+      <c r="D6" s="59">
+        <v>50</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="57" t="str">
+        <f>VLOOKUP(J4,A4:E29,5,FALSE)</f>
+        <v>Customer K</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="57">
+        <v>9</v>
+      </c>
+      <c r="C7" s="57">
+        <v>350</v>
+      </c>
+      <c r="D7" s="59">
+        <v>38.888888888888886</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="J7" s="57">
+        <f>VLOOKUP(J4,A4:E29,4,FALSE) * VLOOKUP(J4,A4:E29,2,FALSE)</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="57">
+        <v>2</v>
+      </c>
+      <c r="C8" s="57">
+        <v>90</v>
+      </c>
+      <c r="D8" s="59">
+        <v>45</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="J8" s="57">
+        <f>VLOOKUP(J4,A4:E29,2,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="57">
+        <v>3</v>
+      </c>
+      <c r="C9" s="57">
+        <v>200</v>
+      </c>
+      <c r="D9" s="59">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="57">
+        <f>VLOOKUP(J4,A4:E29,3,FALSE)</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="57">
+        <v>4</v>
+      </c>
+      <c r="C10" s="57">
+        <v>350</v>
+      </c>
+      <c r="D10" s="59">
+        <v>87.5</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="57">
+        <v>9</v>
+      </c>
+      <c r="C11" s="57">
+        <v>333</v>
+      </c>
+      <c r="D11" s="57">
+        <v>37</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="57">
+        <v>10</v>
+      </c>
+      <c r="C12" s="57">
+        <v>410</v>
+      </c>
+      <c r="D12" s="57">
+        <v>41</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="57">
+        <v>7</v>
+      </c>
+      <c r="C13" s="57">
+        <v>280</v>
+      </c>
+      <c r="D13" s="57">
+        <v>40</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="57">
+        <v>10</v>
+      </c>
+      <c r="C14" s="57">
+        <v>320</v>
+      </c>
+      <c r="D14" s="57">
+        <v>32</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="57">
+        <v>8</v>
+      </c>
+      <c r="C15" s="57">
+        <v>272</v>
+      </c>
+      <c r="D15" s="57">
+        <v>34</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="57">
+        <v>10</v>
+      </c>
+      <c r="C16" s="57">
+        <v>300</v>
+      </c>
+      <c r="D16" s="57">
+        <v>30</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="57">
+        <v>4</v>
+      </c>
+      <c r="C17" s="57">
+        <v>168</v>
+      </c>
+      <c r="D17" s="57">
+        <v>42</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="57">
+        <v>9</v>
+      </c>
+      <c r="C18" s="57">
+        <v>279</v>
+      </c>
+      <c r="D18" s="57">
+        <v>31</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="57">
+        <v>8</v>
+      </c>
+      <c r="C19" s="57">
+        <v>320</v>
+      </c>
+      <c r="D19" s="57">
+        <v>40</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="57">
+        <v>3</v>
+      </c>
+      <c r="C20" s="57">
+        <v>144</v>
+      </c>
+      <c r="D20" s="57">
+        <v>48</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="57">
+        <v>10</v>
+      </c>
+      <c r="C21" s="57">
+        <v>380</v>
+      </c>
+      <c r="D21" s="57">
+        <v>38</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="57">
+        <v>4</v>
+      </c>
+      <c r="C22" s="57">
+        <v>192</v>
+      </c>
+      <c r="D22" s="57">
+        <v>48</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" s="57">
+        <v>4</v>
+      </c>
+      <c r="C23" s="57">
+        <v>160</v>
+      </c>
+      <c r="D23" s="57">
+        <v>40</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="57">
+        <v>5</v>
+      </c>
+      <c r="C24" s="57">
+        <v>155</v>
+      </c>
+      <c r="D24" s="57">
+        <v>31</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" s="57">
+        <v>8</v>
+      </c>
+      <c r="C25" s="57">
+        <v>352</v>
+      </c>
+      <c r="D25" s="57">
+        <v>44</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="57">
+        <v>8</v>
+      </c>
+      <c r="C26" s="57">
+        <v>400</v>
+      </c>
+      <c r="D26" s="57">
+        <v>50</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" s="57">
+        <v>8</v>
+      </c>
+      <c r="C27" s="57">
+        <v>280</v>
+      </c>
+      <c r="D27" s="57">
+        <v>35</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="57">
+        <v>10</v>
+      </c>
+      <c r="C28" s="57">
+        <v>350</v>
+      </c>
+      <c r="D28" s="57">
+        <v>35</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" s="57">
+        <v>3</v>
+      </c>
+      <c r="C29" s="57">
+        <v>102</v>
+      </c>
+      <c r="D29" s="57">
+        <v>34</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+    </row>
+    <row r="32" spans="1:27" ht="28.8">
+      <c r="A32" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="N32" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="O32" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="P32" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q32" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="R32" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="S32" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="T32" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="U32" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="V32" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="W32" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="X32" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y32" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z32" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA32" s="57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="57">
+        <v>5</v>
+      </c>
+      <c r="C33" s="57">
+        <v>6</v>
+      </c>
+      <c r="D33" s="57">
+        <v>1</v>
+      </c>
+      <c r="E33" s="57">
+        <v>9</v>
+      </c>
+      <c r="F33" s="57">
+        <v>2</v>
+      </c>
+      <c r="G33" s="57">
+        <v>3</v>
+      </c>
+      <c r="H33" s="57">
+        <v>4</v>
+      </c>
+      <c r="I33" s="57">
+        <v>9</v>
+      </c>
+      <c r="J33" s="57">
+        <v>10</v>
+      </c>
+      <c r="K33" s="57">
+        <v>7</v>
+      </c>
+      <c r="L33" s="57">
+        <v>10</v>
+      </c>
+      <c r="M33" s="57">
+        <v>8</v>
+      </c>
+      <c r="N33" s="57">
+        <v>10</v>
+      </c>
+      <c r="O33" s="57">
+        <v>4</v>
+      </c>
+      <c r="P33" s="57">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="57">
+        <v>8</v>
+      </c>
+      <c r="R33" s="57">
+        <v>3</v>
+      </c>
+      <c r="S33" s="57">
+        <v>10</v>
+      </c>
+      <c r="T33" s="57">
+        <v>4</v>
+      </c>
+      <c r="U33" s="57">
+        <v>4</v>
+      </c>
+      <c r="V33" s="57">
+        <v>5</v>
+      </c>
+      <c r="W33" s="57">
+        <v>8</v>
+      </c>
+      <c r="X33" s="57">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="57">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="57">
+        <v>10</v>
+      </c>
+      <c r="AA33" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="57">
+        <v>200</v>
+      </c>
+      <c r="C34" s="57">
+        <v>300</v>
+      </c>
+      <c r="D34" s="57">
+        <v>50</v>
+      </c>
+      <c r="E34" s="57">
+        <v>350</v>
+      </c>
+      <c r="F34" s="57">
+        <v>90</v>
+      </c>
+      <c r="G34" s="57">
+        <v>200</v>
+      </c>
+      <c r="H34" s="57">
+        <v>350</v>
+      </c>
+      <c r="I34" s="57">
+        <v>333</v>
+      </c>
+      <c r="J34" s="57">
+        <v>410</v>
+      </c>
+      <c r="K34" s="57">
+        <v>280</v>
+      </c>
+      <c r="L34" s="57">
+        <v>320</v>
+      </c>
+      <c r="M34" s="57">
+        <v>272</v>
+      </c>
+      <c r="N34" s="57">
+        <v>300</v>
+      </c>
+      <c r="O34" s="57">
+        <v>168</v>
+      </c>
+      <c r="P34" s="57">
+        <v>279</v>
+      </c>
+      <c r="Q34" s="57">
+        <v>320</v>
+      </c>
+      <c r="R34" s="57">
+        <v>144</v>
+      </c>
+      <c r="S34" s="57">
+        <v>380</v>
+      </c>
+      <c r="T34" s="57">
+        <v>192</v>
+      </c>
+      <c r="U34" s="57">
+        <v>160</v>
+      </c>
+      <c r="V34" s="57">
+        <v>155</v>
+      </c>
+      <c r="W34" s="57">
+        <v>352</v>
+      </c>
+      <c r="X34" s="57">
+        <v>400</v>
+      </c>
+      <c r="Y34" s="57">
+        <v>280</v>
+      </c>
+      <c r="Z34" s="57">
+        <v>350</v>
+      </c>
+      <c r="AA34" s="57">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="59">
+        <v>40</v>
+      </c>
+      <c r="C35" s="59">
+        <v>50</v>
+      </c>
+      <c r="D35" s="59">
+        <v>50</v>
+      </c>
+      <c r="E35" s="59">
+        <v>38.888888888888886</v>
+      </c>
+      <c r="F35" s="59">
+        <v>45</v>
+      </c>
+      <c r="G35" s="59">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="H35" s="59">
+        <v>87.5</v>
+      </c>
+      <c r="I35" s="57">
+        <v>37</v>
+      </c>
+      <c r="J35" s="57">
+        <v>41</v>
+      </c>
+      <c r="K35" s="57">
+        <v>40</v>
+      </c>
+      <c r="L35" s="57">
+        <v>32</v>
+      </c>
+      <c r="M35" s="57">
+        <v>34</v>
+      </c>
+      <c r="N35" s="57">
+        <v>30</v>
+      </c>
+      <c r="O35" s="57">
+        <v>42</v>
+      </c>
+      <c r="P35" s="57">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="57">
+        <v>40</v>
+      </c>
+      <c r="R35" s="57">
+        <v>48</v>
+      </c>
+      <c r="S35" s="57">
+        <v>38</v>
+      </c>
+      <c r="T35" s="57">
+        <v>48</v>
+      </c>
+      <c r="U35" s="57">
+        <v>40</v>
+      </c>
+      <c r="V35" s="57">
+        <v>31</v>
+      </c>
+      <c r="W35" s="57">
+        <v>44</v>
+      </c>
+      <c r="X35" s="57">
+        <v>50</v>
+      </c>
+      <c r="Y35" s="57">
+        <v>35</v>
+      </c>
+      <c r="Z35" s="57">
+        <v>35</v>
+      </c>
+      <c r="AA35" s="57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="K36" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="M36" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="N36" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="O36" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="P36" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q36" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="R36" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="S36" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="T36" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="U36" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="V36" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="W36" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="X36" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y36" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z36" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA36" s="59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="59">
+        <f>HLOOKUP(E38,B32:AA36,4,FALSE)</f>
+        <v>38.888888888888886</v>
+      </c>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="55"/>
+      <c r="AA39" s="55"/>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="57" t="str">
+        <f>HLOOKUP(E38,B32:AA36,5,FALSE)</f>
+        <v>Customer D</v>
+      </c>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
+      <c r="AA40" s="55"/>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="D41" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="57">
+        <f>HLOOKUP(E38,B32:AA36,2,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="D42" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="57">
+        <f>HLOOKUP(E38,B32:AA36,3,FALSE)</f>
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid agent" prompt="Select the Sales Agent" sqref="J4" xr:uid="{300F8BDE-2E3D-4DC4-90E9-0F7C82A57B91}">
+      <formula1>$A$4:$A$29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Sales Agent" prompt="Select Sales Agent" sqref="E38" xr:uid="{EDFBB9E9-5F8C-4B43-B03C-40AB17BB12D4}">
+      <formula1>$B$32:$AA$32</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3356,10 +5230,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="48"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -3787,11 +5661,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -4270,10 +6144,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -4806,10 +6680,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -5437,11 +7311,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -5690,11 +7564,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -5898,10 +7772,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5942,14 +7816,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="37" t="s">
@@ -5964,12 +7838,12 @@
       <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="38" t="s">

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1084A-2FE2-4656-8B42-201C838094D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC1989-8180-4071-B593-6B69830BFE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,13 @@
     <sheet name="Day-11" sheetId="13" r:id="rId11"/>
     <sheet name="Day-12" sheetId="14" r:id="rId12"/>
     <sheet name="Day-13" sheetId="15" r:id="rId13"/>
+    <sheet name="Day-14" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Day-14'!$F$3:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Day-3'!$E$3:$E$29</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="13">'Day-14'!$I$3</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">'Day-3'!$I$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="295">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -922,6 +925,63 @@
   </si>
   <si>
     <t>Customer Z</t>
+  </si>
+  <si>
+    <t>Formulas &amp; Functions</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>James Willard</t>
+  </si>
+  <si>
+    <t>Richard Elliot</t>
+  </si>
+  <si>
+    <t>Robert Spear</t>
+  </si>
+  <si>
+    <t>Romina Mun</t>
+  </si>
+  <si>
+    <t>Paul Garza</t>
+  </si>
+  <si>
+    <t>Robert Marquez</t>
+  </si>
+  <si>
+    <t>Natalie Porter</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Procurement</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Finance Average Salary</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1336,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1366,6 +1426,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1385,15 +1451,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
@@ -1407,181 +1468,6 @@
     <cellStyle name="Percent 2" xfId="7" xr:uid="{E8494675-2B61-4121-80E1-BBCDC14FBEE3}"/>
   </cellStyles>
   <dxfs count="42">
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top/>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <vertical style="double">
-          <color theme="0"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -2061,25 +1947,200 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top/>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <vertical style="double">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="PivotFancy" table="0" count="12" xr9:uid="{A96DE6E9-C043-48BF-981B-CC78C23158D1}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="8"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="7"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="6"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="5"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="4"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="3"/>
-      <tableStyleElement type="pageFieldValues" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="totalRow" dxfId="39"/>
+      <tableStyleElement type="firstRowStripe" dxfId="38"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="37"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="36"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="35"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="34"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="33"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="32"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="31"/>
+      <tableStyleElement type="pageFieldValues" dxfId="30"/>
     </tableStyle>
     <tableStyle name="Slicerwithoutborder" pivot="0" table="0" count="2" xr9:uid="{CD3724C7-39F7-4B56-A201-585128461B42}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2094,32 +2155,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="41" totalsRowDxfId="38" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="27" totalsRowDxfId="24" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="23">
   <autoFilter ref="C3:F29" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}" name="TableDiv" displayName="TableDiv" ref="H4:H9" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}" name="TableDiv" displayName="TableDiv" ref="H4:H9" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="H4:H9" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{3843E976-0EFC-4D33-BEC2-236EAF0CBBCB}" name="Division"/>
@@ -2406,13 +2467,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -2591,17 +2652,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -2678,10 +2739,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="40" t="s">
@@ -3198,16 +3259,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="C4" s="44" t="s">
@@ -3292,10 +3353,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="C11" s="44" t="s">
@@ -3388,12 +3449,12 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1">
       <c r="A3" s="45" t="s">
@@ -3770,7 +3831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC3BDE-AAC5-49E8-BABD-DB58712F0EA5}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -3803,1395 +3864,976 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="28.8">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="53"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="9">
         <v>5</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="9">
         <v>200</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="50">
         <v>40</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="49" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="9">
         <v>6</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="9">
         <v>300</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="50">
         <v>50</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="9">
         <f>VLOOKUP(J4,A4:E29,4,FALSE)</f>
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="9">
         <v>50</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="50">
         <v>50</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="57" t="str">
+      <c r="J6" s="9" t="str">
         <f>VLOOKUP(J4,A4:E29,5,FALSE)</f>
         <v>Customer K</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="9">
         <v>9</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="9">
         <v>350</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="50">
         <v>38.888888888888886</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="9">
         <f>VLOOKUP(J4,A4:E29,4,FALSE) * VLOOKUP(J4,A4:E29,2,FALSE)</f>
         <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="9">
         <v>90</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="50">
         <v>45</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="9">
         <f>VLOOKUP(J4,A4:E29,2,FALSE)</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="9">
         <v>3</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="9">
         <v>200</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="50">
         <v>66.666666666666671</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="9">
         <f>VLOOKUP(J4,A4:E29,3,FALSE)</f>
         <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="9">
         <v>4</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="9">
         <v>350</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="50">
         <v>87.5</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="9">
         <v>333</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="9">
         <v>37</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="9">
         <v>410</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="9">
         <v>41</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="9">
         <v>7</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="9">
         <v>280</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="9">
         <v>40</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="9">
         <v>10</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="9">
         <v>320</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="9">
         <v>32</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="9">
         <v>8</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="9">
         <v>272</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="9">
         <v>34</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="9">
         <v>10</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="9">
         <v>300</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="9">
         <v>30</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="9">
         <v>168</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="9">
         <v>42</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="9">
         <v>9</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="9">
         <v>279</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="9">
         <v>31</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="9">
         <v>8</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="9">
         <v>320</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="9">
         <v>40</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="9">
         <v>3</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="9">
         <v>144</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="9">
         <v>48</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="9">
         <v>10</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="9">
         <v>380</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="9">
         <v>38</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="9">
         <v>4</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="9">
         <v>192</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="9">
         <v>48</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="9">
         <v>4</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="9">
         <v>160</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="9">
         <v>40</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="9">
         <v>5</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="9">
         <v>155</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="9">
         <v>31</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="9">
         <v>8</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="9">
         <v>352</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="9">
         <v>44</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="9">
         <v>8</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="9">
         <v>400</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="9">
         <v>50</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="9">
         <v>8</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="9">
         <v>280</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="9">
         <v>35</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="9">
         <v>10</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="9">
         <v>350</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="9">
         <v>35</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="9">
         <v>3</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="9">
         <v>102</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="9">
         <v>34</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
     </row>
     <row r="32" spans="1:27" ht="28.8">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="H32" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="I32" s="57" t="s">
+      <c r="I32" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="J32" s="57" t="s">
+      <c r="J32" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="K32" s="57" t="s">
+      <c r="K32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="L32" s="57" t="s">
+      <c r="L32" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="M32" s="57" t="s">
+      <c r="M32" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="N32" s="57" t="s">
+      <c r="N32" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="O32" s="57" t="s">
+      <c r="O32" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="P32" s="57" t="s">
+      <c r="P32" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="Q32" s="57" t="s">
+      <c r="Q32" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="R32" s="57" t="s">
+      <c r="R32" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="S32" s="57" t="s">
+      <c r="S32" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="T32" s="57" t="s">
+      <c r="T32" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="U32" s="57" t="s">
+      <c r="U32" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="V32" s="57" t="s">
+      <c r="V32" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="W32" s="57" t="s">
+      <c r="W32" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="X32" s="57" t="s">
+      <c r="X32" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="Y32" s="57" t="s">
+      <c r="Y32" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="Z32" s="57" t="s">
+      <c r="Z32" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="AA32" s="57" t="s">
+      <c r="AA32" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="9">
         <v>5</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="9">
         <v>6</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="9">
         <v>1</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="9">
         <v>9</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="9">
         <v>2</v>
       </c>
-      <c r="G33" s="57">
+      <c r="G33" s="9">
         <v>3</v>
       </c>
-      <c r="H33" s="57">
+      <c r="H33" s="9">
         <v>4</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="9">
         <v>9</v>
       </c>
-      <c r="J33" s="57">
+      <c r="J33" s="9">
         <v>10</v>
       </c>
-      <c r="K33" s="57">
+      <c r="K33" s="9">
         <v>7</v>
       </c>
-      <c r="L33" s="57">
+      <c r="L33" s="9">
         <v>10</v>
       </c>
-      <c r="M33" s="57">
+      <c r="M33" s="9">
         <v>8</v>
       </c>
-      <c r="N33" s="57">
+      <c r="N33" s="9">
         <v>10</v>
       </c>
-      <c r="O33" s="57">
+      <c r="O33" s="9">
         <v>4</v>
       </c>
-      <c r="P33" s="57">
+      <c r="P33" s="9">
         <v>9</v>
       </c>
-      <c r="Q33" s="57">
+      <c r="Q33" s="9">
         <v>8</v>
       </c>
-      <c r="R33" s="57">
+      <c r="R33" s="9">
         <v>3</v>
       </c>
-      <c r="S33" s="57">
+      <c r="S33" s="9">
         <v>10</v>
       </c>
-      <c r="T33" s="57">
+      <c r="T33" s="9">
         <v>4</v>
       </c>
-      <c r="U33" s="57">
+      <c r="U33" s="9">
         <v>4</v>
       </c>
-      <c r="V33" s="57">
+      <c r="V33" s="9">
         <v>5</v>
       </c>
-      <c r="W33" s="57">
+      <c r="W33" s="9">
         <v>8</v>
       </c>
-      <c r="X33" s="57">
+      <c r="X33" s="9">
         <v>8</v>
       </c>
-      <c r="Y33" s="57">
+      <c r="Y33" s="9">
         <v>8</v>
       </c>
-      <c r="Z33" s="57">
+      <c r="Z33" s="9">
         <v>10</v>
       </c>
-      <c r="AA33" s="57">
+      <c r="AA33" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="9">
         <v>200</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="9">
         <v>300</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="9">
         <v>50</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="9">
         <v>350</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="9">
         <v>90</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G34" s="9">
         <v>200</v>
       </c>
-      <c r="H34" s="57">
+      <c r="H34" s="9">
         <v>350</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="9">
         <v>333</v>
       </c>
-      <c r="J34" s="57">
+      <c r="J34" s="9">
         <v>410</v>
       </c>
-      <c r="K34" s="57">
+      <c r="K34" s="9">
         <v>280</v>
       </c>
-      <c r="L34" s="57">
+      <c r="L34" s="9">
         <v>320</v>
       </c>
-      <c r="M34" s="57">
+      <c r="M34" s="9">
         <v>272</v>
       </c>
-      <c r="N34" s="57">
+      <c r="N34" s="9">
         <v>300</v>
       </c>
-      <c r="O34" s="57">
+      <c r="O34" s="9">
         <v>168</v>
       </c>
-      <c r="P34" s="57">
+      <c r="P34" s="9">
         <v>279</v>
       </c>
-      <c r="Q34" s="57">
+      <c r="Q34" s="9">
         <v>320</v>
       </c>
-      <c r="R34" s="57">
+      <c r="R34" s="9">
         <v>144</v>
       </c>
-      <c r="S34" s="57">
+      <c r="S34" s="9">
         <v>380</v>
       </c>
-      <c r="T34" s="57">
+      <c r="T34" s="9">
         <v>192</v>
       </c>
-      <c r="U34" s="57">
+      <c r="U34" s="9">
         <v>160</v>
       </c>
-      <c r="V34" s="57">
+      <c r="V34" s="9">
         <v>155</v>
       </c>
-      <c r="W34" s="57">
+      <c r="W34" s="9">
         <v>352</v>
       </c>
-      <c r="X34" s="57">
+      <c r="X34" s="9">
         <v>400</v>
       </c>
-      <c r="Y34" s="57">
+      <c r="Y34" s="9">
         <v>280</v>
       </c>
-      <c r="Z34" s="57">
+      <c r="Z34" s="9">
         <v>350</v>
       </c>
-      <c r="AA34" s="57">
+      <c r="AA34" s="9">
         <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="59">
+      <c r="B35" s="50">
         <v>40</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="50">
         <v>50</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="50">
         <v>50</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="50">
         <v>38.888888888888886</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="50">
         <v>45</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="50">
         <v>66.666666666666671</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="50">
         <v>87.5</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="9">
         <v>37</v>
       </c>
-      <c r="J35" s="57">
+      <c r="J35" s="9">
         <v>41</v>
       </c>
-      <c r="K35" s="57">
+      <c r="K35" s="9">
         <v>40</v>
       </c>
-      <c r="L35" s="57">
+      <c r="L35" s="9">
         <v>32</v>
       </c>
-      <c r="M35" s="57">
+      <c r="M35" s="9">
         <v>34</v>
       </c>
-      <c r="N35" s="57">
+      <c r="N35" s="9">
         <v>30</v>
       </c>
-      <c r="O35" s="57">
+      <c r="O35" s="9">
         <v>42</v>
       </c>
-      <c r="P35" s="57">
+      <c r="P35" s="9">
         <v>31</v>
       </c>
-      <c r="Q35" s="57">
+      <c r="Q35" s="9">
         <v>40</v>
       </c>
-      <c r="R35" s="57">
+      <c r="R35" s="9">
         <v>48</v>
       </c>
-      <c r="S35" s="57">
+      <c r="S35" s="9">
         <v>38</v>
       </c>
-      <c r="T35" s="57">
+      <c r="T35" s="9">
         <v>48</v>
       </c>
-      <c r="U35" s="57">
+      <c r="U35" s="9">
         <v>40</v>
       </c>
-      <c r="V35" s="57">
+      <c r="V35" s="9">
         <v>31</v>
       </c>
-      <c r="W35" s="57">
+      <c r="W35" s="9">
         <v>44</v>
       </c>
-      <c r="X35" s="57">
+      <c r="X35" s="9">
         <v>50</v>
       </c>
-      <c r="Y35" s="57">
+      <c r="Y35" s="9">
         <v>35</v>
       </c>
-      <c r="Z35" s="57">
+      <c r="Z35" s="9">
         <v>35</v>
       </c>
-      <c r="AA35" s="57">
+      <c r="AA35" s="9">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="F36" s="59" t="s">
+      <c r="F36" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G36" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="H36" s="59" t="s">
+      <c r="H36" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="I36" s="59" t="s">
+      <c r="I36" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="J36" s="59" t="s">
+      <c r="J36" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="K36" s="59" t="s">
+      <c r="K36" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="L36" s="59" t="s">
+      <c r="L36" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="M36" s="59" t="s">
+      <c r="M36" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="N36" s="59" t="s">
+      <c r="N36" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="O36" s="59" t="s">
+      <c r="O36" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="P36" s="59" t="s">
+      <c r="P36" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="Q36" s="59" t="s">
+      <c r="Q36" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="R36" s="59" t="s">
+      <c r="R36" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="S36" s="59" t="s">
+      <c r="S36" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="T36" s="59" t="s">
+      <c r="T36" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="U36" s="59" t="s">
+      <c r="U36" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="V36" s="59" t="s">
+      <c r="V36" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="W36" s="59" t="s">
+      <c r="W36" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="X36" s="59" t="s">
+      <c r="X36" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="Y36" s="59" t="s">
+      <c r="Y36" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="Z36" s="59" t="s">
+      <c r="Z36" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="AA36" s="59" t="s">
+      <c r="AA36" s="50" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:27">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="59">
+      <c r="E39" s="50">
         <f>HLOOKUP(E38,B32:AA36,4,FALSE)</f>
         <v>38.888888888888886</v>
       </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="55"/>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E40" s="57" t="str">
+      <c r="E40" s="9" t="str">
         <f>HLOOKUP(E38,B32:AA36,5,FALSE)</f>
         <v>Customer D</v>
       </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="55"/>
     </row>
     <row r="41" spans="1:27">
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="9">
         <f>HLOOKUP(E38,B32:AA36,2,FALSE)</f>
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:27">
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="9">
         <f>HLOOKUP(E38,B32:AA36,3,FALSE)</f>
         <v>350</v>
       </c>
@@ -5209,6 +4851,210 @@
       <formula1>$B$32:$AA$32</formula1>
     </dataValidation>
   </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CA4F55-CAD1-49F7-A8EB-DD8BF5EC43C9}">
+  <dimension ref="B1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15" thickBot="1">
+      <c r="B1" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1">
+      <c r="E3" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="E4" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="61">
+        <v>60270</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="E5" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="59">
+        <v>39627</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="E6" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" s="59">
+        <v>29727</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="E7" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="59">
+        <v>93668</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="E8" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="59">
+        <v>134000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="E9" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="59">
+        <v>34808</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="E10" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="59">
+        <v>134468</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="E11" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" s="59">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="G12" s="32">
+        <f>SUM(G4:G11)</f>
+        <v>571568</v>
+      </c>
+      <c r="H12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="G13" s="32">
+        <f>AVERAGE(G4:G11)</f>
+        <v>71446</v>
+      </c>
+      <c r="H13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="E14">
+        <f>COUNTA(E4:E11)</f>
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <f>ROWS(I4:I6)</f>
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <f>COUNT(G4:G11)</f>
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="G15" s="32">
+        <f>MIN(G4:G11)</f>
+        <v>29727</v>
+      </c>
+      <c r="H15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="G16" s="32">
+        <f>MAX(G4:G11)</f>
+        <v>134468</v>
+      </c>
+      <c r="H16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17">
+        <f>AVERAGEIFS(G4:G11,F4:F11,"Sales")</f>
+        <v>75642.75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5230,10 +5076,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="52"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -5661,11 +5507,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -6131,7 +5977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF7D00-80FC-42C0-A490-F9016C3DF4B0}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:F38"/>
     </sheetView>
   </sheetViews>
@@ -6144,10 +5990,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -6667,7 +6513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADED6C27-6C18-4AA2-A056-D97167A8B3BE}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -6680,10 +6526,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -7311,11 +7157,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -7564,11 +7410,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -7772,10 +7618,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7816,14 +7662,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="37" t="s">
@@ -7838,12 +7684,12 @@
       <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="38" t="s">

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC1989-8180-4071-B593-6B69830BFE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43ADE86-5593-4033-9FC3-0E29B9470C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Day-12" sheetId="14" r:id="rId12"/>
     <sheet name="Day-13" sheetId="15" r:id="rId13"/>
     <sheet name="Day-14" sheetId="16" r:id="rId14"/>
+    <sheet name="Day-15" sheetId="17" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Day-14'!$F$3:$F$11</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="319">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -983,13 +984,88 @@
   <si>
     <t>Finance Average Salary</t>
   </si>
+  <si>
+    <t>Add Text to Beginning or End of Values</t>
+  </si>
+  <si>
+    <t>#1 Flash Fill</t>
+  </si>
+  <si>
+    <t>ID 270</t>
+  </si>
+  <si>
+    <t>ID 450</t>
+  </si>
+  <si>
+    <t>ID 781</t>
+  </si>
+  <si>
+    <t>ID 562</t>
+  </si>
+  <si>
+    <t>ID 124</t>
+  </si>
+  <si>
+    <t>ID 892</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Leena</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>ID-Tom</t>
+  </si>
+  <si>
+    <t>ID-Luna</t>
+  </si>
+  <si>
+    <t>ID-Sara</t>
+  </si>
+  <si>
+    <t>ID-Leena</t>
+  </si>
+  <si>
+    <t>ID-Arthur</t>
+  </si>
+  <si>
+    <t>ID-James</t>
+  </si>
+  <si>
+    <t>#2 Formula</t>
+  </si>
+  <si>
+    <t>Leila</t>
+  </si>
+  <si>
+    <t>#3 Custom Format</t>
+  </si>
+  <si>
+    <t>"#" - Numbers, "@" - Text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;ID &quot;#"/>
+    <numFmt numFmtId="167" formatCode="&quot;ID &quot;@"/>
+    <numFmt numFmtId="169" formatCode="&quot;ID &quot;#;;;&quot;ID &quot;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1336,7 +1412,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1432,6 +1508,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1451,10 +1531,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
@@ -2467,13 +2546,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -2652,17 +2731,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -2739,10 +2818,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="40" t="s">
@@ -3259,16 +3338,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="C4" s="44" t="s">
@@ -3353,10 +3432,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="56"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="C11" s="44" t="s">
@@ -3449,12 +3528,12 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1">
       <c r="A3" s="45" t="s">
@@ -3864,11 +3943,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -3891,10 +3970,10 @@
       <c r="E3" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
@@ -4859,7 +4938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CA4F55-CAD1-49F7-A8EB-DD8BF5EC43C9}">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -4872,37 +4951,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1">
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="55" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="54">
         <v>60270</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="53" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4913,7 +4992,7 @@
       <c r="F5" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="52">
         <v>39627</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -4927,7 +5006,7 @@
       <c r="F6" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="52">
         <v>29727</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -4941,7 +5020,7 @@
       <c r="F7" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="52">
         <v>93668</v>
       </c>
     </row>
@@ -4952,7 +5031,7 @@
       <c r="F8" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="52">
         <v>134000</v>
       </c>
     </row>
@@ -4963,7 +5042,7 @@
       <c r="F9" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="52">
         <v>34808</v>
       </c>
     </row>
@@ -4974,7 +5053,7 @@
       <c r="F10" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="52">
         <v>134468</v>
       </c>
     </row>
@@ -4985,7 +5064,7 @@
       <c r="F11" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="52">
         <v>45000</v>
       </c>
     </row>
@@ -5055,6 +5134,345 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5D0DC5-F573-4A8A-87A3-3DC461D5D3A2}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1">
+      <c r="A3" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="56"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5">
+        <v>270</v>
+      </c>
+      <c r="D5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6">
+        <v>450</v>
+      </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7">
+        <v>781</v>
+      </c>
+      <c r="D7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8">
+        <v>562</v>
+      </c>
+      <c r="D8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10">
+        <v>892</v>
+      </c>
+      <c r="D10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1">
+      <c r="A12" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="56"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14">
+        <v>270</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"ID "&amp;C14</f>
+        <v>ID 270</v>
+      </c>
+      <c r="F14" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"ID-"&amp;F14&amp;" Sales"</f>
+        <v>ID-Tom Sales</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15">
+        <v>450</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:D19" si="0">"ID "&amp;C15</f>
+        <v>ID 450</v>
+      </c>
+      <c r="F15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15:G19" si="1">"ID-"&amp;F15&amp;" Sales"</f>
+        <v>ID-Luna Sales</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16">
+        <v>781</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>ID 781</v>
+      </c>
+      <c r="F16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>ID-Sara Sales</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="C17">
+        <v>562</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>ID 562</v>
+      </c>
+      <c r="F17" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>ID-Leena Sales</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="C18">
+        <v>124</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>ID 124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>ID-Arthur Sales</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="C19">
+        <v>892</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>ID 892</v>
+      </c>
+      <c r="F19" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>ID-Leila Sales</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1">
+      <c r="A21" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" s="56"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="C23" s="63">
+        <v>270</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="C24" s="63">
+        <v>450</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="C25" s="63">
+        <v>781</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="C26" s="63">
+        <v>562</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="C27" s="63">
+        <v>124</v>
+      </c>
+      <c r="F27" s="64" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="C28" s="63">
+        <v>892</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="D30" s="65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="D31" s="65">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="D32" s="65">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="65">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="65">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="65">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="65" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="65" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="65" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5076,10 +5494,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="56"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -5507,11 +5925,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -5990,10 +6408,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -6526,10 +6944,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="56"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -7157,11 +7575,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -7410,11 +7828,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -7618,10 +8036,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7662,14 +8080,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="37" t="s">
@@ -7684,12 +8102,12 @@
       <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="38" t="s">

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43ADE86-5593-4033-9FC3-0E29B9470C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB8A64A-AA1D-468C-8F04-70A2D933BE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Day-13" sheetId="15" r:id="rId13"/>
     <sheet name="Day-14" sheetId="16" r:id="rId14"/>
     <sheet name="Day-15" sheetId="17" r:id="rId15"/>
+    <sheet name="Day-16" sheetId="18" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Day-14'!$F$3:$F$11</definedName>
@@ -1063,9 +1064,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;ID &quot;#"/>
-    <numFmt numFmtId="167" formatCode="&quot;ID &quot;@"/>
-    <numFmt numFmtId="169" formatCode="&quot;ID &quot;#;;;&quot;ID &quot;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;ID &quot;#"/>
+    <numFmt numFmtId="165" formatCode="&quot;ID &quot;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;ID &quot;#;;;&quot;ID &quot;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1512,6 +1513,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1531,9 +1535,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
@@ -2546,13 +2547,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -2731,17 +2732,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -2818,10 +2819,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="61"/>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="40" t="s">
@@ -3338,16 +3339,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="59"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="C4" s="44" t="s">
@@ -3432,10 +3433,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="59"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="C11" s="44" t="s">
@@ -3528,12 +3529,12 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1">
       <c r="A3" s="45" t="s">
@@ -3943,11 +3944,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -3970,10 +3971,10 @@
       <c r="E3" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="61"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
@@ -4951,11 +4952,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1">
       <c r="E3" s="55" t="s">
@@ -5142,25 +5143,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5D0DC5-F573-4A8A-87A3-3DC461D5D3A2}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="59"/>
     </row>
     <row r="5" spans="1:7">
       <c r="C5">
@@ -5247,10 +5248,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="59"/>
     </row>
     <row r="14" spans="1:7">
       <c r="C14">
@@ -5349,16 +5350,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="59"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="C23" s="63">
+      <c r="C23" s="56">
         <v>270</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="57" t="s">
         <v>303</v>
       </c>
       <c r="I23" t="s">
@@ -5366,102 +5367,102 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="C24" s="63">
+      <c r="C24" s="56">
         <v>450</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="57" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="C25" s="63">
+      <c r="C25" s="56">
         <v>781</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="57" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="C26" s="63">
+      <c r="C26" s="56">
         <v>562</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="57" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="C27" s="63">
+      <c r="C27" s="56">
         <v>124</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="57" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="C28" s="63">
+      <c r="C28" s="56">
         <v>892</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="57" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="D30" s="65">
+      <c r="D30" s="58">
         <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="D31" s="65">
+      <c r="D31" s="58">
         <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="D32" s="65">
+      <c r="D32" s="58">
         <v>781</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="65">
+      <c r="D33" s="58">
         <v>562</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="65">
+      <c r="D34" s="58">
         <v>124</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="65">
+      <c r="D35" s="58">
         <v>892</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="58" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="58" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="58" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="58" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="58" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="58" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5473,6 +5474,21 @@
     <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FB7088-5D84-43B7-BE46-C79A60D73A9B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5494,10 +5510,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="59"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -5925,11 +5941,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -6408,10 +6424,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -6944,10 +6960,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -7575,11 +7591,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -7828,11 +7844,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -8036,10 +8052,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8080,14 +8096,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="37" t="s">
@@ -8102,12 +8118,12 @@
       <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="38" t="s">

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB8A64A-AA1D-468C-8F04-70A2D933BE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722DB274-A1F3-4237-BC73-FBEA30BB298D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="327">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -1057,16 +1057,42 @@
   <si>
     <t>"#" - Numbers, "@" - Text</t>
   </si>
+  <si>
+    <t>Combine Text &amp; Numbers</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Combine</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;ID &quot;#"/>
     <numFmt numFmtId="165" formatCode="&quot;ID &quot;@"/>
     <numFmt numFmtId="166" formatCode="&quot;ID &quot;#;;;&quot;ID &quot;@"/>
+    <numFmt numFmtId="167" formatCode="&quot;Base: &quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="&quot;Bonus: &quot;#,##0"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1413,7 +1439,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1535,6 +1561,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
@@ -5481,14 +5509,158 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FB7088-5D84-43B7-BE46-C79A60D73A9B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1">
+      <c r="D3" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4" t="str">
+        <f>D4&amp;" $"&amp;TEXT(E4,"#,##0")</f>
+        <v>Bill $1,000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5">
+        <v>4000</v>
+      </c>
+      <c r="F5" t="str">
+        <f>D5&amp;" $"&amp;TEXT(E5,"#,##0")</f>
+        <v>Jess $4,000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6">
+        <v>2345</v>
+      </c>
+      <c r="F6" t="str">
+        <f>D6&amp;" $"&amp;TEXT(E6,"#,##0")</f>
+        <v>Sarah $2,345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7">
+        <v>7890</v>
+      </c>
+      <c r="F7" t="str">
+        <f>D7&amp;" $"&amp;TEXT(E7,"#,##0")</f>
+        <v>Mike $7,890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1">
+      <c r="D11" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="32">
+        <v>4000</v>
+      </c>
+      <c r="F13">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2345</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E15" s="32">
+        <v>7890</v>
+      </c>
+      <c r="F15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1">
+      <c r="E16" s="66">
+        <f>SUM(E12:E15)</f>
+        <v>15235</v>
+      </c>
+      <c r="F16" s="67">
+        <f>SUM(F12:F15)</f>
+        <v>1300</v>
+      </c>
+      <c r="G16" s="32">
+        <f>SUM(E16:F16)</f>
+        <v>16535</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722DB274-A1F3-4237-BC73-FBEA30BB298D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFFB66F-648A-4BF0-9E27-7A8FD3767AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Day-14" sheetId="16" r:id="rId14"/>
     <sheet name="Day-15" sheetId="17" r:id="rId15"/>
     <sheet name="Day-16" sheetId="18" r:id="rId16"/>
+    <sheet name="Day-17" sheetId="22" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Day-14'!$F$3:$F$11</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="332">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -1080,6 +1081,41 @@
   </si>
   <si>
     <t>Bonus</t>
+  </si>
+  <si>
+    <t>Mistakes that we normally do</t>
+  </si>
+  <si>
+    <t>expand. So, use alignment as Center across selection to avoid this.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#1 Merging Cells:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If we have merged cells in between the data that we are analyzing then while performing any calculations, the range will</t>
+    </r>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Total Points</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1475,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1542,6 +1578,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1561,8 +1599,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
@@ -2575,13 +2614,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -2760,17 +2799,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -2834,7 +2873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FD6CB2-93D0-4DD1-99B9-B44D93E8E056}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2847,10 +2886,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="63"/>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="40" t="s">
@@ -3367,16 +3406,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="61"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="61"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="C4" s="44" t="s">
@@ -3461,10 +3500,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="61"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="C11" s="44" t="s">
@@ -3557,12 +3596,12 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1">
       <c r="A3" s="45" t="s">
@@ -3939,7 +3978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC3BDE-AAC5-49E8-BABD-DB58712F0EA5}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -3972,11 +4011,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -3999,10 +4038,10 @@
       <c r="E3" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
@@ -4980,11 +5019,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1">
       <c r="E3" s="55" t="s">
@@ -5178,18 +5217,18 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="61"/>
     </row>
     <row r="5" spans="1:7">
       <c r="C5">
@@ -5276,10 +5315,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="61"/>
     </row>
     <row r="14" spans="1:7">
       <c r="C14">
@@ -5378,10 +5417,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="61"/>
     </row>
     <row r="23" spans="1:9">
       <c r="C23" s="56">
@@ -5511,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FB7088-5D84-43B7-BE46-C79A60D73A9B}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5523,11 +5562,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="D3" s="44" t="s">
@@ -5644,17 +5683,323 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1">
-      <c r="E16" s="66">
+      <c r="E16" s="59">
         <f>SUM(E12:E15)</f>
         <v>15235</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="60">
         <f>SUM(F12:F15)</f>
         <v>1300</v>
       </c>
       <c r="G16" s="32">
         <f>SUM(E16:F16)</f>
         <v>16535</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FE2C5E-BB83-4E08-AF3B-F30A2DD5D57E}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1">
+      <c r="A1" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="I2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="D3" s="68">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="I3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="D4" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="D5" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="38">
+        <v>480</v>
+      </c>
+      <c r="F5" s="38">
+        <v>500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5">
+        <f>SUM(F5:F26)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="D6" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="38">
+        <v>470</v>
+      </c>
+      <c r="F6" s="38">
+        <v>500</v>
+      </c>
+      <c r="H6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I6">
+        <f>SUM(E5:E26)</f>
+        <v>8134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="D7" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="38">
+        <v>468</v>
+      </c>
+      <c r="F7" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="38">
+        <v>423</v>
+      </c>
+      <c r="F8" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="38">
+        <v>415</v>
+      </c>
+      <c r="F9" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="D10" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="38">
+        <v>406</v>
+      </c>
+      <c r="F10" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="D11" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="38">
+        <v>358</v>
+      </c>
+      <c r="F11" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="D12" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="38">
+        <v>369</v>
+      </c>
+      <c r="F12" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="D13" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="38">
+        <v>358</v>
+      </c>
+      <c r="F13" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="D14" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="38">
+        <v>320</v>
+      </c>
+      <c r="F14" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="D15" s="68">
+        <v>2021</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="D16" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="38">
+        <v>480</v>
+      </c>
+      <c r="F17" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="38">
+        <v>470</v>
+      </c>
+      <c r="F18" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="38">
+        <v>468</v>
+      </c>
+      <c r="F19" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="38">
+        <v>423</v>
+      </c>
+      <c r="F20" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="38">
+        <v>415</v>
+      </c>
+      <c r="F21" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="38">
+        <v>406</v>
+      </c>
+      <c r="F22" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="38">
+        <v>358</v>
+      </c>
+      <c r="F23" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="38">
+        <v>369</v>
+      </c>
+      <c r="F24" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="38">
+        <v>358</v>
+      </c>
+      <c r="F25" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="38">
+        <v>320</v>
+      </c>
+      <c r="F26" s="38">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5682,10 +6027,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="61"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -6113,11 +6458,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -6596,10 +6941,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="61"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -7132,10 +7477,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="61"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -7763,11 +8108,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -8016,11 +8361,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -8224,10 +8569,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8248,7 +8593,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:P8"/>
+      <selection activeCell="B3" sqref="B3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8268,14 +8613,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="37" t="s">
@@ -8290,12 +8635,12 @@
       <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="38" t="s">

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFFB66F-648A-4BF0-9E27-7A8FD3767AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15589F1-087B-4306-BCA3-A10B99569301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Day-15" sheetId="17" r:id="rId15"/>
     <sheet name="Day-16" sheetId="18" r:id="rId16"/>
     <sheet name="Day-17" sheetId="22" r:id="rId17"/>
+    <sheet name="Day-18" sheetId="23" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Day-14'!$F$3:$F$11</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="378">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -1117,20 +1118,159 @@
   <si>
     <t>Total Points</t>
   </si>
+  <si>
+    <t>Find &amp; Remove Duplicates</t>
+  </si>
+  <si>
+    <t>Segment 1</t>
+  </si>
+  <si>
+    <t>Segment 2</t>
+  </si>
+  <si>
+    <t>PR580</t>
+  </si>
+  <si>
+    <t>PR370</t>
+  </si>
+  <si>
+    <t>PR590</t>
+  </si>
+  <si>
+    <t>PR490</t>
+  </si>
+  <si>
+    <t>PR830</t>
+  </si>
+  <si>
+    <t>PR540</t>
+  </si>
+  <si>
+    <t>PR230</t>
+  </si>
+  <si>
+    <t>PR480</t>
+  </si>
+  <si>
+    <t>PR430</t>
+  </si>
+  <si>
+    <t>PR240</t>
+  </si>
+  <si>
+    <t>PR330</t>
+  </si>
+  <si>
+    <t>PR380</t>
+  </si>
+  <si>
+    <t>PR190</t>
+  </si>
+  <si>
+    <t>PR520</t>
+  </si>
+  <si>
+    <t>PR110</t>
+  </si>
+  <si>
+    <t>PR570</t>
+  </si>
+  <si>
+    <t>PR690</t>
+  </si>
+  <si>
+    <t>PR500</t>
+  </si>
+  <si>
+    <t>PR990</t>
+  </si>
+  <si>
+    <t>PR930</t>
+  </si>
+  <si>
+    <t>PR120</t>
+  </si>
+  <si>
+    <t>PR450</t>
+  </si>
+  <si>
+    <t>PR390</t>
+  </si>
+  <si>
+    <t>PR310</t>
+  </si>
+  <si>
+    <t>PR400</t>
+  </si>
+  <si>
+    <t>PR360</t>
+  </si>
+  <si>
+    <t>PR420</t>
+  </si>
+  <si>
+    <t>PR530</t>
+  </si>
+  <si>
+    <t>PR460</t>
+  </si>
+  <si>
+    <t>PR600</t>
+  </si>
+  <si>
+    <t>FIND DUPLICATE ROWS</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>C300</t>
+  </si>
+  <si>
+    <t>C180</t>
+  </si>
+  <si>
+    <t>C280</t>
+  </si>
+  <si>
+    <t>C140</t>
+  </si>
+  <si>
+    <t>C240</t>
+  </si>
+  <si>
+    <t>C200</t>
+  </si>
+  <si>
+    <t>C160</t>
+  </si>
+  <si>
+    <t>C340</t>
+  </si>
+  <si>
+    <t>C120</t>
+  </si>
+  <si>
+    <t>C360</t>
+  </si>
+  <si>
+    <t>C260</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;ID &quot;#"/>
     <numFmt numFmtId="165" formatCode="&quot;ID &quot;@"/>
     <numFmt numFmtId="166" formatCode="&quot;ID &quot;#;;;&quot;ID &quot;@"/>
     <numFmt numFmtId="167" formatCode="&quot;Base: &quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;Bonus: &quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode=";;;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,6 +1371,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1282,7 +1430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1463,8 +1611,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2981B9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF9DA85E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1474,8 +1649,11 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1580,6 +1758,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1599,12 +1780,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="12">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
+    <cellStyle name="Heading 1 2" xfId="10" xr:uid="{0C51514D-70DA-45C2-8B56-3E20F2D5F5B0}"/>
+    <cellStyle name="Heading 2 2" xfId="11" xr:uid="{FB316ABF-DAAB-4F39-BCF5-79CDE9F49238}"/>
+    <cellStyle name="Heading green" xfId="9" xr:uid="{42A1DE62-5363-4714-B120-C214879F5606}"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{DA3F0C31-CC79-4E87-AFB1-7A6099006D56}"/>
     <cellStyle name="Hyperlink 3" xfId="4" xr:uid="{C4CE5DF7-4AB3-4E3B-B8AF-6BB298E76A64}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1614,7 +1800,44 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="7" xr:uid="{E8494675-2B61-4121-80E1-BBCDC14FBEE3}"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -2272,22 +2495,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="PivotFancy" table="0" count="12" xr9:uid="{A96DE6E9-C043-48BF-981B-CC78C23158D1}">
-      <tableStyleElement type="wholeTable" dxfId="41"/>
-      <tableStyleElement type="headerRow" dxfId="40"/>
-      <tableStyleElement type="totalRow" dxfId="39"/>
-      <tableStyleElement type="firstRowStripe" dxfId="38"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="37"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="36"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="35"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="34"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="33"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="32"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="31"/>
-      <tableStyleElement type="pageFieldValues" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
+      <tableStyleElement type="totalRow" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="41"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="40"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="39"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="38"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="37"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="36"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="35"/>
+      <tableStyleElement type="pageFieldValues" dxfId="34"/>
     </tableStyle>
     <tableStyle name="Slicerwithoutborder" pivot="0" table="0" count="2" xr9:uid="{CD3724C7-39F7-4B56-A201-585128461B42}">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2302,32 +2525,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="27" totalsRowDxfId="24" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="31" totalsRowDxfId="28" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="27">
   <autoFilter ref="C3:F29" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}" name="TableDiv" displayName="TableDiv" ref="H4:H9" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}" name="TableDiv" displayName="TableDiv" ref="H4:H9" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="H4:H9" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{3843E976-0EFC-4D33-BEC2-236EAF0CBBCB}" name="Division"/>
@@ -2597,6 +2820,40 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="7">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{50B62898-0532-4D59-9BC2-BBE32041D8A4}">
+  <we:reference id="wa200005271" version="2.5.5.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005271" version="2.5.5.0" store="wa200005271" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_AI_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_ASK</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_CHOICE</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
@@ -2614,13 +2871,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -2799,17 +3056,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -2886,10 +3143,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="64"/>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="40" t="s">
@@ -3406,16 +3663,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="62"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="C4" s="44" t="s">
@@ -3500,10 +3757,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="62"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="C11" s="44" t="s">
@@ -3596,12 +3853,12 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1">
       <c r="A3" s="45" t="s">
@@ -4011,11 +4268,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -4038,10 +4295,10 @@
       <c r="E3" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="66"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
@@ -5019,11 +5276,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1">
       <c r="E3" s="55" t="s">
@@ -5217,18 +5474,18 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="62"/>
     </row>
     <row r="5" spans="1:7">
       <c r="C5">
@@ -5315,10 +5572,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="62"/>
     </row>
     <row r="14" spans="1:7">
       <c r="C14">
@@ -5417,10 +5674,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="B21" s="61"/>
+      <c r="B21" s="62"/>
     </row>
     <row r="23" spans="1:9">
       <c r="C23" s="56">
@@ -5562,11 +5819,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="D3" s="44" t="s">
@@ -5708,8 +5965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FE2C5E-BB83-4E08-AF3B-F30A2DD5D57E}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5718,11 +5975,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:9">
       <c r="I2" t="s">
@@ -5730,11 +5987,11 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="D3" s="68">
+      <c r="D3" s="61">
         <v>2020</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="I3" t="s">
         <v>328</v>
       </c>
@@ -5875,11 +6132,11 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="D15" s="68">
+      <c r="D15" s="61">
         <v>2021</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
     </row>
     <row r="16" spans="1:9">
       <c r="D16" s="37" t="s">
@@ -6006,6 +6263,919 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15330D5-5185-432C-AD67-9169C8181E49}">
+  <dimension ref="A1:S62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="A1" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="D3" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="D4" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="H4" s="71"/>
+      <c r="L4" s="71"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="D5" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="L5" s="71"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="L6" s="71"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="D7" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="L7" s="71"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="D8" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>342</v>
+      </c>
+      <c r="H8" s="71"/>
+      <c r="L8" s="71"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="D9" s="69" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" s="71"/>
+      <c r="L9" s="71"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="D10" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="L10" s="71"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="H11" s="71"/>
+      <c r="L11" s="71"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="H12" s="71"/>
+      <c r="L12" s="71"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="D13" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="H13" s="71"/>
+      <c r="L13" s="71"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="D14" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="H14" s="71"/>
+      <c r="L14" s="71"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H15" s="71"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="H16" s="71"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="D17" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>357</v>
+      </c>
+      <c r="H17" s="71"/>
+      <c r="L17" s="71"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="D18" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="H18" s="71"/>
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="69"/>
+      <c r="D19" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="69"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="69"/>
+      <c r="D20" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="E20" s="69"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="69"/>
+      <c r="D21" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" s="69"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="69"/>
+      <c r="D22" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="E22" s="69"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="69"/>
+      <c r="D23" s="69" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1">
+      <c r="A26" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="D28" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="D29" s="71" t="s">
+        <v>336</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="71">
+        <v>49000</v>
+      </c>
+      <c r="G29" s="72" t="str">
+        <f>_xlfn.CONCAT(D29:F29)</f>
+        <v>PR370C30049000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="D30" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="F30" s="71">
+        <v>53000</v>
+      </c>
+      <c r="G30" s="72" t="str">
+        <f t="shared" ref="G30:G43" si="0">_xlfn.CONCAT(D30:F30)</f>
+        <v>PR490C18053000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="D31" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="71">
+        <v>37000</v>
+      </c>
+      <c r="G31" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR540C28037000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="D32" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="F32" s="71">
+        <v>45000</v>
+      </c>
+      <c r="G32" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR590C14045000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="D33" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="E33" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="F33" s="71">
+        <v>39000</v>
+      </c>
+      <c r="G33" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR480C24039000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="D34" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="F34" s="71">
+        <v>35000</v>
+      </c>
+      <c r="G34" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR240C20035000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="D35" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="F35" s="71">
+        <v>53000</v>
+      </c>
+      <c r="G35" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR490C18053000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="D36" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="E36" s="71" t="s">
+        <v>373</v>
+      </c>
+      <c r="F36" s="71">
+        <v>38000</v>
+      </c>
+      <c r="G36" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR190C16038000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="D37" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>374</v>
+      </c>
+      <c r="F37" s="71">
+        <v>34000</v>
+      </c>
+      <c r="G37" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR520C34034000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="D38" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>375</v>
+      </c>
+      <c r="F38" s="71">
+        <v>52000</v>
+      </c>
+      <c r="G38" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR590C12052000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="D39" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="F39" s="71">
+        <v>42000</v>
+      </c>
+      <c r="G39" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR590C36042000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="D40" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="F40" s="71">
+        <v>45000</v>
+      </c>
+      <c r="G40" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR990C28045000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="D41" s="71" t="s">
+        <v>355</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="F41" s="71">
+        <v>50000</v>
+      </c>
+      <c r="G41" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR120C26050000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="D42" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>374</v>
+      </c>
+      <c r="F42" s="71">
+        <v>52000</v>
+      </c>
+      <c r="G42" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR520C34052000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
+      <c r="D43" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="F43" s="71">
+        <v>35000</v>
+      </c>
+      <c r="G43" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>PR240C20035000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="B44" s="69"/>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="B45" s="69"/>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="B46" s="69"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+    </row>
+    <row r="47" spans="2:19">
+      <c r="B47" s="69"/>
+      <c r="D47" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="F47" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+    </row>
+    <row r="48" spans="2:19">
+      <c r="B48" s="69"/>
+      <c r="C48" t="b">
+        <f>COUNTIF($D$48:$D$62,D48)&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>336</v>
+      </c>
+      <c r="E48" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="F48" s="71">
+        <v>49000</v>
+      </c>
+      <c r="G48" t="str">
+        <f>_xlfn.CONCAT(D48:F48)</f>
+        <v>PR370C30049000</v>
+      </c>
+      <c r="H48" t="str">
+        <f>IF(COUNTIF($G$48:$G$62,G48)&gt;1,"❌","")</f>
+        <v/>
+      </c>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+    </row>
+    <row r="49" spans="2:19">
+      <c r="B49" s="69"/>
+      <c r="C49" s="71" t="b">
+        <f t="shared" ref="C49:C62" si="1">COUNTIF($D$48:$D$62,D49)&gt;1</f>
+        <v>1</v>
+      </c>
+      <c r="D49" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="F49" s="71">
+        <v>53000</v>
+      </c>
+      <c r="G49" s="71" t="str">
+        <f t="shared" ref="G49:G62" si="2">_xlfn.CONCAT(D49:F49)</f>
+        <v>PR490C18053000</v>
+      </c>
+      <c r="H49" s="71" t="str">
+        <f t="shared" ref="H49:H62" si="3">IF(COUNTIF($G$48:$G$62,G49)&gt;1,"❌","")</f>
+        <v>❌</v>
+      </c>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+    </row>
+    <row r="50" spans="2:19">
+      <c r="B50" s="69"/>
+      <c r="C50" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="E50" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="F50" s="71">
+        <v>37000</v>
+      </c>
+      <c r="G50" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR540C28037000</v>
+      </c>
+      <c r="H50" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+    </row>
+    <row r="51" spans="2:19">
+      <c r="B51" s="69"/>
+      <c r="C51" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="E51" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="F51" s="71">
+        <v>45000</v>
+      </c>
+      <c r="G51" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR590C14045000</v>
+      </c>
+      <c r="H51" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+    </row>
+    <row r="52" spans="2:19">
+      <c r="B52" s="69"/>
+      <c r="C52" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="E52" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="F52" s="71">
+        <v>39000</v>
+      </c>
+      <c r="G52" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR480C24039000</v>
+      </c>
+      <c r="H52" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:19">
+      <c r="B53" s="69"/>
+      <c r="C53" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="E53" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="F53" s="71">
+        <v>35000</v>
+      </c>
+      <c r="G53" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR240C20035000</v>
+      </c>
+      <c r="H53" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v>❌</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19">
+      <c r="B54" s="69"/>
+      <c r="C54" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="E54" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="F54" s="71">
+        <v>53000</v>
+      </c>
+      <c r="G54" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR490C18053000</v>
+      </c>
+      <c r="H54" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v>❌</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19">
+      <c r="B55" s="69"/>
+      <c r="C55" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="E55" s="71" t="s">
+        <v>373</v>
+      </c>
+      <c r="F55" s="71">
+        <v>38000</v>
+      </c>
+      <c r="G55" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR190C16038000</v>
+      </c>
+      <c r="H55" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:19">
+      <c r="C56" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="E56" s="71" t="s">
+        <v>374</v>
+      </c>
+      <c r="F56" s="71">
+        <v>34000</v>
+      </c>
+      <c r="G56" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR520C34034000</v>
+      </c>
+      <c r="H56" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:19">
+      <c r="C57" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="E57" s="71" t="s">
+        <v>375</v>
+      </c>
+      <c r="F57" s="71">
+        <v>52000</v>
+      </c>
+      <c r="G57" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR590C12052000</v>
+      </c>
+      <c r="H57" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:19">
+      <c r="C58" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="E58" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="F58" s="71">
+        <v>42000</v>
+      </c>
+      <c r="G58" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR590C36042000</v>
+      </c>
+      <c r="H58" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:19">
+      <c r="C59" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="E59" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="F59" s="71">
+        <v>45000</v>
+      </c>
+      <c r="G59" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR990C28045000</v>
+      </c>
+      <c r="H59" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:19">
+      <c r="C60" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="71" t="s">
+        <v>355</v>
+      </c>
+      <c r="E60" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="F60" s="71">
+        <v>50000</v>
+      </c>
+      <c r="G60" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR120C26050000</v>
+      </c>
+      <c r="H60" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:19">
+      <c r="C61" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="E61" s="71" t="s">
+        <v>374</v>
+      </c>
+      <c r="F61" s="71">
+        <v>52000</v>
+      </c>
+      <c r="G61" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR520C34052000</v>
+      </c>
+      <c r="H61" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:19">
+      <c r="C62" s="71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="E62" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="F62" s="71">
+        <v>35000</v>
+      </c>
+      <c r="G62" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>PR240C20035000</v>
+      </c>
+      <c r="H62" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v>❌</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A26:C26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:D23 E4:E18">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:G43">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:G62">
+    <cfRule type="expression" priority="2">
+      <formula>$H48="❌"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H48="❌"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6027,10 +7197,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="62"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -6458,11 +7628,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -6941,10 +8111,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="62"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -7477,10 +8647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="62"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -8108,11 +9278,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -8361,11 +9531,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -8569,10 +9739,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8613,14 +9783,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="37" t="s">
@@ -8635,12 +9805,12 @@
       <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="38" t="s">

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15589F1-087B-4306-BCA3-A10B99569301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C10B53D-1F00-4EAB-8B74-C2D86867EE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -31,11 +31,15 @@
     <sheet name="Day-16" sheetId="18" r:id="rId16"/>
     <sheet name="Day-17" sheetId="22" r:id="rId17"/>
     <sheet name="Day-18" sheetId="23" r:id="rId18"/>
+    <sheet name="Day-19" sheetId="24" r:id="rId19"/>
+    <sheet name="Forecasting" sheetId="28" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Day-14'!$F$3:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Day-2'!$C$3:$F$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Day-3'!$E$3:$E$29</definedName>
+    <definedName name="CellModes">'Day-1'!$A$16</definedName>
+    <definedName name="CellReferencing">'Day-1'!$A$1</definedName>
     <definedName name="_xlnm.Extract" localSheetId="13">'Day-14'!$I$3</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">'Day-3'!$I$5</definedName>
   </definedNames>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="398">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -1255,6 +1259,66 @@
   </si>
   <si>
     <t>C260</t>
+  </si>
+  <si>
+    <t>Excel Time Saving Tips</t>
+  </si>
+  <si>
+    <t>#1 Excel Bookmarks:</t>
+  </si>
+  <si>
+    <t>Using the namebox you can rename a particular cell and use it to get back at that table or result using the dropdown of namebox. To delete a bookmark go to formulas &gt; name manager &gt; delete the bookmark</t>
+  </si>
+  <si>
+    <t>CellModes</t>
+  </si>
+  <si>
+    <t>CellReferencing</t>
+  </si>
+  <si>
+    <t>#2 One Click Forecasting</t>
+  </si>
+  <si>
+    <t>Forecast(Sales Value)</t>
+  </si>
+  <si>
+    <t>Lower Confidence Bound(Sales Value)</t>
+  </si>
+  <si>
+    <t>Upper Confidence Bound(Sales Value)</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>MASE</t>
+  </si>
+  <si>
+    <t>SMAPE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>#3 Quick Analysis Tool</t>
+  </si>
+  <si>
+    <t>#4 Power Query</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1717,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1761,6 +1825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1780,11 +1845,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
@@ -1800,7 +1863,28 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="7" xr:uid="{E8494675-2B61-4121-80E1-BBCDC14FBEE3}"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1819,24 +1903,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2495,22 +2571,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="PivotFancy" table="0" count="12" xr9:uid="{A96DE6E9-C043-48BF-981B-CC78C23158D1}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="headerRow" dxfId="44"/>
-      <tableStyleElement type="totalRow" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="41"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="40"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="39"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="38"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="37"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="36"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="35"/>
-      <tableStyleElement type="pageFieldValues" dxfId="34"/>
+      <tableStyleElement type="wholeTable" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="48"/>
+      <tableStyleElement type="totalRow" dxfId="47"/>
+      <tableStyleElement type="firstRowStripe" dxfId="46"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="45"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="44"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="43"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="42"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="41"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="40"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="39"/>
+      <tableStyleElement type="pageFieldValues" dxfId="38"/>
     </tableStyle>
     <tableStyle name="Slicerwithoutborder" pivot="0" table="0" count="2" xr9:uid="{CD3724C7-39F7-4B56-A201-585128461B42}">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2524,38 +2600,1819 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Forecasting!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Forecasting!$B$2:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F03-47A4-9D6B-1461D67089B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Forecasting!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast(Sales Value)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Forecasting!$A$2:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46054</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46082</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46113</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46174</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46266</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46296</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46327</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46357</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46388</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46419</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46478</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46508</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46539</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46569</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46631</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46661</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46692</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46722</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Forecasting!$C$2:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="25">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>708.52438128631843</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>762.49738771340628</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>988.43596489374954</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>875.26032517781232</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>397.97027780110415</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>794.16132683960257</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>699.390379659936</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>753.36338608702385</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>979.30196326736711</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>866.12632355142978</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>388.83627617472172</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>785.02732521322002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>690.25637803355346</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>744.22938446064131</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>970.16796164098457</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>856.99232192504724</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>379.70227454833929</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>775.8933235868376</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>681.12237640717103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>735.09538283425888</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>961.03396001460214</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>847.85832029866492</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>385.96472606314046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F03-47A4-9D6B-1461D67089B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Forecasting!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower Confidence Bound(Sales Value)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Forecasting!$A$2:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46054</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46082</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46113</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46174</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46266</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46296</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46327</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46357</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46388</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46419</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46478</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46508</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46539</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46569</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46631</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46661</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46692</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46722</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Forecasting!$D$2:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>228.34348555119976</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>225.20865205421285</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>399.35498161163707</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>238.40413107158895</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>-283.48982222982892</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>70.681517929828601</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>-64.105398530571392</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>-48.153034661380957</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>141.34860204173015</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00">
+                  <c:v>-6.8788614515808604</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00">
+                  <c:v>-517.99650126283473</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>-154.54129724904828</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>-281.18885645650812</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>-258.07919622260169</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>-62.196508175164468</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>-204.68937596910041</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00">
+                  <c:v>-710.6177882646441</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00">
+                  <c:v>-342.43860159167889</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00">
+                  <c:v>-464.74560087483815</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00">
+                  <c:v>-437.66228516337094</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00">
+                  <c:v>-238.11061073078645</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00">
+                  <c:v>-377.20304290338208</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>-863.75902920669046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F03-47A4-9D6B-1461D67089B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Forecasting!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper Confidence Bound(Sales Value)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Forecasting!$A$2:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46054</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46082</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46113</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46174</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46266</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46296</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46327</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46357</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46388</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46419</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46478</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46508</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46539</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46569</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46631</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46661</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46692</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46722</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Forecasting!$E$2:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>1188.705277021437</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>1299.7861233725998</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>1577.5169481758621</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>1512.1165192840358</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>1079.4303778320373</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>1517.6411357493766</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>1462.8861578504434</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>1554.8798068354286</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>1817.2553244930041</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00">
+                  <c:v>1739.1315085544404</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00">
+                  <c:v>1295.669053612278</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>1724.5959476754883</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>1661.701612523615</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>1746.5379651438843</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>2002.5324314571335</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>1918.6740198191949</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00">
+                  <c:v>1470.0223373613228</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00">
+                  <c:v>1894.2252487653541</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00">
+                  <c:v>1826.9903536891802</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00">
+                  <c:v>1907.8530508318886</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00">
+                  <c:v>2160.1785307599907</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00">
+                  <c:v>2072.9196835007119</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>1635.6884813329714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F03-47A4-9D6B-1461D67089B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1917674224"/>
+        <c:axId val="1917677104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1917674224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1917677104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1917677104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1917674224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66EA5360-32B1-D816-D8AE-98DAB2EE1F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="31" totalsRowDxfId="28" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}" name="Table1" displayName="Table1" ref="C3:F30" totalsRowCount="1" headerRowDxfId="35" totalsRowDxfId="32" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="31">
   <autoFilter ref="C3:F29" xr:uid="{016ADBE1-08D9-4B7E-A1A8-89A759CE6156}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{01F75E0F-C556-4397-A3C6-F78A3C4562FB}" name="Channel" totalsRowLabel="Total" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{9BF6FA7A-9107-4797-9A17-B67D9B04AE99}" name="Product" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{38DCF557-C89E-4344-BB24-42D1694BCA5D}" name="Date" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{A5D19D6E-8245-4186-9586-37072967D824}" name="Sales Value" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E02ABB8D-9743-4B7E-B6EA-A02BD272C64C}" name="Table2" displayName="Table2" ref="D3:G30" totalsRowCount="1" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{7D149612-333D-4F8F-A7D3-CE7875BF0A5F}" name="Channel" totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{EB3B883E-008D-47A2-B372-FEBA8A25D63F}" name="Product" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{08805D3D-07B4-4FFF-BFE2-C02148D098E9}" name="Date" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{ED916B00-D255-4E2D-94B3-9BD17081553B}" name="Sales Value" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}" name="TableDiv" displayName="TableDiv" ref="H4:H9" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}" name="TableDiv" displayName="TableDiv" ref="H4:H9" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="H4:H9" xr:uid="{0EE8D6C8-93DC-4761-B251-9F27B86B8B15}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{3843E976-0EFC-4D33-BEC2-236EAF0CBBCB}" name="Division"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{58C58963-F6D8-44A5-A16C-C73453A9FAFC}" name="Table8" displayName="Table8" ref="A1:E50" totalsRowShown="0">
+  <autoFilter ref="A1:E50" xr:uid="{58C58963-F6D8-44A5-A16C-C73453A9FAFC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{348479A0-ADC4-4AA4-8EEC-548D7E64B8D8}" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CBAD6FF5-2994-44CF-98E8-0F604B55ECFF}" name="Sales Value"/>
+    <tableColumn id="3" xr3:uid="{590F0152-2892-4F3A-ABAA-B10E0D32207E}" name="Forecast(Sales Value)">
+      <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$27,$A$2:$A$27,6,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D9EA17B0-6907-4443-ABAB-B82C75043955}" name="Lower Confidence Bound(Sales Value)" dataDxfId="6">
+      <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E88FD0F6-4B87-48C4-AF53-41A327A8B752}" name="Upper Confidence Bound(Sales Value)" dataDxfId="5">
+      <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9CBA7C47-1032-40BA-92A9-AD1BA245FCDE}" name="Table9" displayName="Table9" ref="G1:H8" totalsRowShown="0">
+  <autoFilter ref="G1:H8" xr:uid="{9CBA7C47-1032-40BA-92A9-AD1BA245FCDE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{063234DD-421A-4425-8C8B-0B4974882BAA}" name="Statistic"/>
+    <tableColumn id="2" xr3:uid="{AEED62D6-A389-4DAC-AFA5-3266E58D2E1C}" name="Value" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2838,6 +4695,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_AI_TABLE</we:customFunctionIds>
@@ -2859,7 +4719,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D24"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2871,13 +4731,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -3056,17 +4916,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -3130,7 +4990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FD6CB2-93D0-4DD1-99B9-B44D93E8E056}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -3143,10 +5003,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="65"/>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="40" t="s">
@@ -3651,7 +5511,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3663,16 +5523,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="63"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="C4" s="44" t="s">
@@ -3757,10 +5617,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="63"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="C11" s="44" t="s">
@@ -3853,12 +5713,12 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1">
       <c r="A3" s="45" t="s">
@@ -4268,11 +6128,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -4295,10 +6155,10 @@
       <c r="E3" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="67"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
@@ -5276,11 +7136,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1">
       <c r="E3" s="55" t="s">
@@ -5467,25 +7327,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5D0DC5-F573-4A8A-87A3-3DC461D5D3A2}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="63"/>
     </row>
     <row r="5" spans="1:7">
       <c r="C5">
@@ -5572,10 +7432,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="63"/>
     </row>
     <row r="14" spans="1:7">
       <c r="C14">
@@ -5674,10 +7534,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="63"/>
     </row>
     <row r="23" spans="1:9">
       <c r="C23" s="56">
@@ -5819,11 +7679,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="D3" s="44" t="s">
@@ -5975,11 +7835,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:9">
       <c r="I2" t="s">
@@ -6269,9 +8129,9 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15330D5-5185-432C-AD67-9169C8181E49}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
@@ -6283,508 +8143,432 @@
     <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="A1" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="D3" s="70" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="D3" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="42" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="D4" s="69" t="s">
+    <row r="4" spans="1:5">
+      <c r="D4" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" t="s">
         <v>336</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="L4" s="71"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="D5" s="69" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="D5" t="s">
         <v>337</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" t="s">
         <v>338</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="L5" s="71"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="D6" s="69" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" t="s">
         <v>339</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" t="s">
         <v>340</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="D7" s="69" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" t="s">
         <v>336</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" t="s">
         <v>337</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="L7" s="71"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="D8" s="69" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" t="s">
         <v>341</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" t="s">
         <v>342</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="L8" s="71"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="D9" s="69" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" t="s">
         <v>343</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" t="s">
         <v>344</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="L9" s="71"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="D10" s="69" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" t="s">
         <v>338</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" t="s">
         <v>345</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="L10" s="71"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="D11" s="69" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" t="s">
         <v>346</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" t="s">
         <v>347</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="L11" s="71"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="D12" s="69" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" t="s">
         <v>347</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" t="s">
         <v>348</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="L12" s="71"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="D13" s="69" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" t="s">
         <v>349</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" t="s">
         <v>346</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="L13" s="71"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="D14" s="69" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" t="s">
         <v>350</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" t="s">
         <v>351</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="L14" s="71"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="D15" s="69" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" t="s">
         <v>352</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" t="s">
         <v>353</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="L15" s="71"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="D16" s="69" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" t="s">
         <v>354</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" t="s">
         <v>355</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="L16" s="71"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="D17" s="69" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="D17" t="s">
         <v>356</v>
       </c>
-      <c r="E17" s="69" t="s">
+      <c r="E17" t="s">
         <v>357</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="L17" s="71"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="D18" s="69" t="s">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="D18" t="s">
         <v>358</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" t="s">
         <v>359</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="L18" s="71"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="69"/>
-      <c r="D19" s="69" t="s">
+    </row>
+    <row r="19" spans="1:7">
+      <c r="D19" t="s">
         <v>360</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="69"/>
-      <c r="D20" s="69" t="s">
+    </row>
+    <row r="20" spans="1:7">
+      <c r="D20" t="s">
         <v>361</v>
       </c>
-      <c r="E20" s="69"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="69"/>
-      <c r="D21" s="69" t="s">
+    </row>
+    <row r="21" spans="1:7">
+      <c r="D21" t="s">
         <v>362</v>
       </c>
-      <c r="E21" s="69"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="69"/>
-      <c r="D22" s="69" t="s">
+    </row>
+    <row r="22" spans="1:7">
+      <c r="D22" t="s">
         <v>363</v>
       </c>
-      <c r="E22" s="69"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="69"/>
-      <c r="D23" s="69" t="s">
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1">
-      <c r="A26" s="62" t="s">
+    <row r="26" spans="1:7" ht="15" thickBot="1">
+      <c r="A26" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="D28" s="73" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="D28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="D29" s="71" t="s">
+    <row r="29" spans="1:7">
+      <c r="D29" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" t="s">
         <v>367</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29">
         <v>49000</v>
       </c>
-      <c r="G29" s="72" t="str">
+      <c r="G29" s="62" t="str">
         <f>_xlfn.CONCAT(D29:F29)</f>
         <v>PR370C30049000</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="D30" s="71" t="s">
+    <row r="30" spans="1:7">
+      <c r="D30" t="s">
         <v>338</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" t="s">
         <v>368</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30">
         <v>53000</v>
       </c>
-      <c r="G30" s="72" t="str">
+      <c r="G30" s="62" t="str">
         <f t="shared" ref="G30:G43" si="0">_xlfn.CONCAT(D30:F30)</f>
         <v>PR490C18053000</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="D31" s="71" t="s">
+    <row r="31" spans="1:7">
+      <c r="D31" t="s">
         <v>340</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" t="s">
         <v>369</v>
       </c>
-      <c r="F31" s="71">
+      <c r="F31">
         <v>37000</v>
       </c>
-      <c r="G31" s="72" t="str">
+      <c r="G31" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR540C28037000</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="D32" s="71" t="s">
+    <row r="32" spans="1:7">
+      <c r="D32" t="s">
         <v>337</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" t="s">
         <v>370</v>
       </c>
-      <c r="F32" s="71">
+      <c r="F32">
         <v>45000</v>
       </c>
-      <c r="G32" s="72" t="str">
+      <c r="G32" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR590C14045000</v>
       </c>
     </row>
-    <row r="33" spans="2:19">
-      <c r="D33" s="71" t="s">
+    <row r="33" spans="3:8">
+      <c r="D33" t="s">
         <v>342</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" t="s">
         <v>371</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33">
         <v>39000</v>
       </c>
-      <c r="G33" s="72" t="str">
+      <c r="G33" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR480C24039000</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
-      <c r="D34" s="71" t="s">
+    <row r="34" spans="3:8">
+      <c r="D34" t="s">
         <v>344</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" t="s">
         <v>372</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34">
         <v>35000</v>
       </c>
-      <c r="G34" s="72" t="str">
+      <c r="G34" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR240C20035000</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
-      <c r="D35" s="71" t="s">
+    <row r="35" spans="3:8">
+      <c r="D35" t="s">
         <v>338</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" t="s">
         <v>368</v>
       </c>
-      <c r="F35" s="71">
+      <c r="F35">
         <v>53000</v>
       </c>
-      <c r="G35" s="72" t="str">
+      <c r="G35" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR490C18053000</v>
       </c>
     </row>
-    <row r="36" spans="2:19">
-      <c r="D36" s="71" t="s">
+    <row r="36" spans="3:8">
+      <c r="D36" t="s">
         <v>347</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" t="s">
         <v>373</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36">
         <v>38000</v>
       </c>
-      <c r="G36" s="72" t="str">
+      <c r="G36" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR190C16038000</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
-      <c r="D37" s="71" t="s">
+    <row r="37" spans="3:8">
+      <c r="D37" t="s">
         <v>348</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" t="s">
         <v>374</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37">
         <v>34000</v>
       </c>
-      <c r="G37" s="72" t="str">
+      <c r="G37" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR520C34034000</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
-      <c r="D38" s="71" t="s">
+    <row r="38" spans="3:8">
+      <c r="D38" t="s">
         <v>337</v>
       </c>
-      <c r="E38" s="71" t="s">
+      <c r="E38" t="s">
         <v>375</v>
       </c>
-      <c r="F38" s="71">
+      <c r="F38">
         <v>52000</v>
       </c>
-      <c r="G38" s="72" t="str">
+      <c r="G38" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR590C12052000</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
-      <c r="D39" s="71" t="s">
+    <row r="39" spans="3:8">
+      <c r="D39" t="s">
         <v>337</v>
       </c>
-      <c r="E39" s="71" t="s">
+      <c r="E39" t="s">
         <v>376</v>
       </c>
-      <c r="F39" s="71">
+      <c r="F39">
         <v>42000</v>
       </c>
-      <c r="G39" s="72" t="str">
+      <c r="G39" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR590C36042000</v>
       </c>
     </row>
-    <row r="40" spans="2:19">
-      <c r="D40" s="71" t="s">
+    <row r="40" spans="3:8">
+      <c r="D40" t="s">
         <v>353</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="E40" t="s">
         <v>369</v>
       </c>
-      <c r="F40" s="71">
+      <c r="F40">
         <v>45000</v>
       </c>
-      <c r="G40" s="72" t="str">
+      <c r="G40" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR990C28045000</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
-      <c r="D41" s="71" t="s">
+    <row r="41" spans="3:8">
+      <c r="D41" t="s">
         <v>355</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" t="s">
         <v>377</v>
       </c>
-      <c r="F41" s="71">
+      <c r="F41">
         <v>50000</v>
       </c>
-      <c r="G41" s="72" t="str">
+      <c r="G41" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR120C26050000</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
-      <c r="D42" s="71" t="s">
+    <row r="42" spans="3:8">
+      <c r="D42" t="s">
         <v>348</v>
       </c>
-      <c r="E42" s="71" t="s">
+      <c r="E42" t="s">
         <v>374</v>
       </c>
-      <c r="F42" s="71">
+      <c r="F42">
         <v>52000</v>
       </c>
-      <c r="G42" s="72" t="str">
+      <c r="G42" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR520C34052000</v>
       </c>
     </row>
-    <row r="43" spans="2:19">
-      <c r="D43" s="71" t="s">
+    <row r="43" spans="3:8">
+      <c r="D43" t="s">
         <v>344</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E43" t="s">
         <v>372</v>
       </c>
-      <c r="F43" s="71">
+      <c r="F43">
         <v>35000</v>
       </c>
-      <c r="G43" s="72" t="str">
+      <c r="G43" s="62" t="str">
         <f t="shared" si="0"/>
         <v>PR240C20035000</v>
       </c>
     </row>
-    <row r="44" spans="2:19">
-      <c r="B44" s="69"/>
-    </row>
-    <row r="45" spans="2:19">
-      <c r="B45" s="69"/>
-    </row>
-    <row r="46" spans="2:19">
-      <c r="B46" s="69"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-    </row>
-    <row r="47" spans="2:19">
-      <c r="B47" s="69"/>
-      <c r="D47" s="73" t="s">
+    <row r="47" spans="3:8">
+      <c r="D47" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="F47" s="73" t="s">
+      <c r="F47" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-    </row>
-    <row r="48" spans="2:19">
-      <c r="B48" s="69"/>
+    </row>
+    <row r="48" spans="3:8">
       <c r="C48" t="b">
         <f>COUNTIF($D$48:$D$62,D48)&gt;1</f>
         <v>0</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="D48" t="s">
         <v>336</v>
       </c>
-      <c r="E48" s="71" t="s">
+      <c r="E48" t="s">
         <v>367</v>
       </c>
-      <c r="F48" s="71">
+      <c r="F48">
         <v>49000</v>
       </c>
       <c r="G48" t="str">
@@ -6795,364 +8579,325 @@
         <f>IF(COUNTIF($G$48:$G$62,G48)&gt;1,"❌","")</f>
         <v/>
       </c>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-    </row>
-    <row r="49" spans="2:19">
-      <c r="B49" s="69"/>
-      <c r="C49" s="71" t="b">
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" t="b">
         <f t="shared" ref="C49:C62" si="1">COUNTIF($D$48:$D$62,D49)&gt;1</f>
         <v>1</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="D49" t="s">
         <v>338</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" t="s">
         <v>368</v>
       </c>
-      <c r="F49" s="71">
+      <c r="F49">
         <v>53000</v>
       </c>
-      <c r="G49" s="71" t="str">
+      <c r="G49" t="str">
         <f t="shared" ref="G49:G62" si="2">_xlfn.CONCAT(D49:F49)</f>
         <v>PR490C18053000</v>
       </c>
-      <c r="H49" s="71" t="str">
+      <c r="H49" t="str">
         <f t="shared" ref="H49:H62" si="3">IF(COUNTIF($G$48:$G$62,G49)&gt;1,"❌","")</f>
         <v>❌</v>
       </c>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-    </row>
-    <row r="50" spans="2:19">
-      <c r="B50" s="69"/>
-      <c r="C50" s="71" t="b">
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" t="s">
         <v>340</v>
       </c>
-      <c r="E50" s="71" t="s">
+      <c r="E50" t="s">
         <v>369</v>
       </c>
-      <c r="F50" s="71">
+      <c r="F50">
         <v>37000</v>
       </c>
-      <c r="G50" s="71" t="str">
+      <c r="G50" t="str">
         <f t="shared" si="2"/>
         <v>PR540C28037000</v>
       </c>
-      <c r="H50" s="71" t="str">
+      <c r="H50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="71"/>
-    </row>
-    <row r="51" spans="2:19">
-      <c r="B51" s="69"/>
-      <c r="C51" s="71" t="b">
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D51" s="71" t="s">
+      <c r="D51" t="s">
         <v>337</v>
       </c>
-      <c r="E51" s="71" t="s">
+      <c r="E51" t="s">
         <v>370</v>
       </c>
-      <c r="F51" s="71">
+      <c r="F51">
         <v>45000</v>
       </c>
-      <c r="G51" s="71" t="str">
+      <c r="G51" t="str">
         <f t="shared" si="2"/>
         <v>PR590C14045000</v>
       </c>
-      <c r="H51" s="71" t="str">
+      <c r="H51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-    </row>
-    <row r="52" spans="2:19">
-      <c r="B52" s="69"/>
-      <c r="C52" s="71" t="b">
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D52" s="71" t="s">
+      <c r="D52" t="s">
         <v>342</v>
       </c>
-      <c r="E52" s="71" t="s">
+      <c r="E52" t="s">
         <v>371</v>
       </c>
-      <c r="F52" s="71">
+      <c r="F52">
         <v>39000</v>
       </c>
-      <c r="G52" s="71" t="str">
+      <c r="G52" t="str">
         <f t="shared" si="2"/>
         <v>PR480C24039000</v>
       </c>
-      <c r="H52" s="71" t="str">
+      <c r="H52" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:19">
-      <c r="B53" s="69"/>
-      <c r="C53" s="71" t="b">
+    <row r="53" spans="3:8">
+      <c r="C53" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" t="s">
         <v>344</v>
       </c>
-      <c r="E53" s="71" t="s">
+      <c r="E53" t="s">
         <v>372</v>
       </c>
-      <c r="F53" s="71">
+      <c r="F53">
         <v>35000</v>
       </c>
-      <c r="G53" s="71" t="str">
+      <c r="G53" t="str">
         <f t="shared" si="2"/>
         <v>PR240C20035000</v>
       </c>
-      <c r="H53" s="71" t="str">
+      <c r="H53" t="str">
         <f t="shared" si="3"/>
         <v>❌</v>
       </c>
     </row>
-    <row r="54" spans="2:19">
-      <c r="B54" s="69"/>
-      <c r="C54" s="71" t="b">
+    <row r="54" spans="3:8">
+      <c r="C54" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D54" s="71" t="s">
+      <c r="D54" t="s">
         <v>338</v>
       </c>
-      <c r="E54" s="71" t="s">
+      <c r="E54" t="s">
         <v>368</v>
       </c>
-      <c r="F54" s="71">
+      <c r="F54">
         <v>53000</v>
       </c>
-      <c r="G54" s="71" t="str">
+      <c r="G54" t="str">
         <f t="shared" si="2"/>
         <v>PR490C18053000</v>
       </c>
-      <c r="H54" s="71" t="str">
+      <c r="H54" t="str">
         <f t="shared" si="3"/>
         <v>❌</v>
       </c>
     </row>
-    <row r="55" spans="2:19">
-      <c r="B55" s="69"/>
-      <c r="C55" s="71" t="b">
+    <row r="55" spans="3:8">
+      <c r="C55" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D55" s="71" t="s">
+      <c r="D55" t="s">
         <v>347</v>
       </c>
-      <c r="E55" s="71" t="s">
+      <c r="E55" t="s">
         <v>373</v>
       </c>
-      <c r="F55" s="71">
+      <c r="F55">
         <v>38000</v>
       </c>
-      <c r="G55" s="71" t="str">
+      <c r="G55" t="str">
         <f t="shared" si="2"/>
         <v>PR190C16038000</v>
       </c>
-      <c r="H55" s="71" t="str">
+      <c r="H55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:19">
-      <c r="C56" s="71" t="b">
+    <row r="56" spans="3:8">
+      <c r="C56" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D56" s="71" t="s">
+      <c r="D56" t="s">
         <v>348</v>
       </c>
-      <c r="E56" s="71" t="s">
+      <c r="E56" t="s">
         <v>374</v>
       </c>
-      <c r="F56" s="71">
+      <c r="F56">
         <v>34000</v>
       </c>
-      <c r="G56" s="71" t="str">
+      <c r="G56" t="str">
         <f t="shared" si="2"/>
         <v>PR520C34034000</v>
       </c>
-      <c r="H56" s="71" t="str">
+      <c r="H56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:19">
-      <c r="C57" s="71" t="b">
+    <row r="57" spans="3:8">
+      <c r="C57" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" t="s">
         <v>337</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" t="s">
         <v>375</v>
       </c>
-      <c r="F57" s="71">
+      <c r="F57">
         <v>52000</v>
       </c>
-      <c r="G57" s="71" t="str">
+      <c r="G57" t="str">
         <f t="shared" si="2"/>
         <v>PR590C12052000</v>
       </c>
-      <c r="H57" s="71" t="str">
+      <c r="H57" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:19">
-      <c r="C58" s="71" t="b">
+    <row r="58" spans="3:8">
+      <c r="C58" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D58" s="71" t="s">
+      <c r="D58" t="s">
         <v>337</v>
       </c>
-      <c r="E58" s="71" t="s">
+      <c r="E58" t="s">
         <v>376</v>
       </c>
-      <c r="F58" s="71">
+      <c r="F58">
         <v>42000</v>
       </c>
-      <c r="G58" s="71" t="str">
+      <c r="G58" t="str">
         <f t="shared" si="2"/>
         <v>PR590C36042000</v>
       </c>
-      <c r="H58" s="71" t="str">
+      <c r="H58" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:19">
-      <c r="C59" s="71" t="b">
+    <row r="59" spans="3:8">
+      <c r="C59" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D59" s="71" t="s">
+      <c r="D59" t="s">
         <v>353</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" t="s">
         <v>369</v>
       </c>
-      <c r="F59" s="71">
+      <c r="F59">
         <v>45000</v>
       </c>
-      <c r="G59" s="71" t="str">
+      <c r="G59" t="str">
         <f t="shared" si="2"/>
         <v>PR990C28045000</v>
       </c>
-      <c r="H59" s="71" t="str">
+      <c r="H59" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:19">
-      <c r="C60" s="71" t="b">
+    <row r="60" spans="3:8">
+      <c r="C60" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D60" s="71" t="s">
+      <c r="D60" t="s">
         <v>355</v>
       </c>
-      <c r="E60" s="71" t="s">
+      <c r="E60" t="s">
         <v>377</v>
       </c>
-      <c r="F60" s="71">
+      <c r="F60">
         <v>50000</v>
       </c>
-      <c r="G60" s="71" t="str">
+      <c r="G60" t="str">
         <f t="shared" si="2"/>
         <v>PR120C26050000</v>
       </c>
-      <c r="H60" s="71" t="str">
+      <c r="H60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:19">
-      <c r="C61" s="71" t="b">
+    <row r="61" spans="3:8">
+      <c r="C61" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D61" s="71" t="s">
+      <c r="D61" t="s">
         <v>348</v>
       </c>
-      <c r="E61" s="71" t="s">
+      <c r="E61" t="s">
         <v>374</v>
       </c>
-      <c r="F61" s="71">
+      <c r="F61">
         <v>52000</v>
       </c>
-      <c r="G61" s="71" t="str">
+      <c r="G61" t="str">
         <f t="shared" si="2"/>
         <v>PR520C34052000</v>
       </c>
-      <c r="H61" s="71" t="str">
+      <c r="H61" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:19">
-      <c r="C62" s="71" t="b">
+    <row r="62" spans="3:8">
+      <c r="C62" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D62" s="71" t="s">
+      <c r="D62" t="s">
         <v>344</v>
       </c>
-      <c r="E62" s="71" t="s">
+      <c r="E62" t="s">
         <v>372</v>
       </c>
-      <c r="F62" s="71">
+      <c r="F62">
         <v>35000</v>
       </c>
-      <c r="G62" s="71" t="str">
+      <c r="G62" t="str">
         <f t="shared" si="2"/>
         <v>PR240C20035000</v>
       </c>
-      <c r="H62" s="71" t="str">
+      <c r="H62" t="str">
         <f t="shared" si="3"/>
         <v>❌</v>
       </c>
@@ -7165,18 +8910,529 @@
   <conditionalFormatting sqref="D4:D23 E4:E18">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D48:G62">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$H48="❌"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2">
+      <formula>$H48="❌"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G29:G43">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:G62">
-    <cfRule type="expression" priority="2">
-      <formula>$H48="❌"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$H48="❌"</formula>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAB6D2C-9E11-4AAD-ABDE-457B1BED6916}">
+  <dimension ref="A1:E68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="A1" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="A3" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
+      <c r="A7" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="10">
+        <v>45292</v>
+      </c>
+      <c r="E10" s="9">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="10">
+        <v>45323</v>
+      </c>
+      <c r="E11" s="9">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="10">
+        <v>45352</v>
+      </c>
+      <c r="E12" s="9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="10">
+        <v>45383</v>
+      </c>
+      <c r="E13" s="9">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="10">
+        <v>45413</v>
+      </c>
+      <c r="E14" s="9">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="10">
+        <v>45444</v>
+      </c>
+      <c r="E15" s="9">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" s="10">
+        <v>45474</v>
+      </c>
+      <c r="E16" s="9">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="10">
+        <v>45505</v>
+      </c>
+      <c r="E17" s="9">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="10">
+        <v>45536</v>
+      </c>
+      <c r="E18" s="9">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="10">
+        <v>45566</v>
+      </c>
+      <c r="E19" s="9">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="10">
+        <v>45597</v>
+      </c>
+      <c r="E20" s="9">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="10">
+        <v>45627</v>
+      </c>
+      <c r="E21" s="9">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="10">
+        <v>45658</v>
+      </c>
+      <c r="E22" s="9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="10">
+        <v>45689</v>
+      </c>
+      <c r="E23" s="9">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="10">
+        <v>45717</v>
+      </c>
+      <c r="E24" s="9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="10">
+        <v>45748</v>
+      </c>
+      <c r="E25" s="9">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="10">
+        <v>45778</v>
+      </c>
+      <c r="E26" s="9">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="10">
+        <v>45809</v>
+      </c>
+      <c r="E27" s="9">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="10">
+        <v>45839</v>
+      </c>
+      <c r="E28" s="9">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="10">
+        <v>45870</v>
+      </c>
+      <c r="E29" s="9">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="10">
+        <v>45901</v>
+      </c>
+      <c r="E30" s="9">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="10">
+        <v>45931</v>
+      </c>
+      <c r="E31" s="9">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="10">
+        <v>45962</v>
+      </c>
+      <c r="E32" s="9">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="D33" s="10">
+        <v>45992</v>
+      </c>
+      <c r="E33" s="9">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="D34" s="10">
+        <v>46023</v>
+      </c>
+      <c r="E34" s="9">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="D35" s="10">
+        <v>46054</v>
+      </c>
+      <c r="E35" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1">
+      <c r="A37" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="D39" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="D40" s="10">
+        <v>45292</v>
+      </c>
+      <c r="E40" s="9">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="D41" s="10">
+        <v>45323</v>
+      </c>
+      <c r="E41" s="9">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="D42" s="10">
+        <v>45352</v>
+      </c>
+      <c r="E42" s="9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="D43" s="10">
+        <v>45383</v>
+      </c>
+      <c r="E43" s="9">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="D44" s="10">
+        <v>45413</v>
+      </c>
+      <c r="E44" s="9">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="D45" s="10">
+        <v>45444</v>
+      </c>
+      <c r="E45" s="9">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="D46" s="10">
+        <v>45474</v>
+      </c>
+      <c r="E46" s="9">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="D47" s="10">
+        <v>45505</v>
+      </c>
+      <c r="E47" s="9">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="D48" s="10">
+        <v>45536</v>
+      </c>
+      <c r="E48" s="9">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="10">
+        <v>45566</v>
+      </c>
+      <c r="E49" s="9">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="10">
+        <v>45597</v>
+      </c>
+      <c r="E50" s="9">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" s="10">
+        <v>45627</v>
+      </c>
+      <c r="E51" s="9">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="10">
+        <v>45658</v>
+      </c>
+      <c r="E52" s="9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="10">
+        <v>45689</v>
+      </c>
+      <c r="E53" s="9">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="10">
+        <v>45717</v>
+      </c>
+      <c r="E54" s="9">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="10">
+        <v>45748</v>
+      </c>
+      <c r="E55" s="9">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="10">
+        <v>45778</v>
+      </c>
+      <c r="E56" s="9">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" s="10">
+        <v>45809</v>
+      </c>
+      <c r="E57" s="9">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58" s="10">
+        <v>45839</v>
+      </c>
+      <c r="E58" s="9">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" s="10">
+        <v>45870</v>
+      </c>
+      <c r="E59" s="9">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" s="10">
+        <v>45901</v>
+      </c>
+      <c r="E60" s="9">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" s="10">
+        <v>45931</v>
+      </c>
+      <c r="E61" s="9">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" s="10">
+        <v>45962</v>
+      </c>
+      <c r="E62" s="9">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" s="10">
+        <v>45992</v>
+      </c>
+      <c r="E63" s="9">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" s="10">
+        <v>46023</v>
+      </c>
+      <c r="E64" s="9">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="D65" s="10">
+        <v>46054</v>
+      </c>
+      <c r="E65" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1">
+      <c r="A68" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A68:C68"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E40:E65">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7185,7 +9441,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7197,10 +9453,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="63"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -7609,12 +9865,718 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48667A1-CAA3-4F8F-871E-3ED6FDFC9B2E}">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="70">
+        <v>45292</v>
+      </c>
+      <c r="B2">
+        <v>222</v>
+      </c>
+      <c r="G2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="72">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,1,6,1)</f>
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="70">
+        <v>45323</v>
+      </c>
+      <c r="B3">
+        <v>355</v>
+      </c>
+      <c r="G3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3" s="72">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,2,6,1)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="70">
+        <v>45352</v>
+      </c>
+      <c r="B4">
+        <v>598</v>
+      </c>
+      <c r="G4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4" s="72">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,3,6,1)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="70">
+        <v>45383</v>
+      </c>
+      <c r="B5">
+        <v>448</v>
+      </c>
+      <c r="G5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H5" s="72">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,4,6,1)</f>
+        <v>1.2112414940538068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="70">
+        <v>45413</v>
+      </c>
+      <c r="B6">
+        <v>966</v>
+      </c>
+      <c r="G6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H6" s="72">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,5,6,1)</f>
+        <v>0.60912442554817492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="70">
+        <v>45444</v>
+      </c>
+      <c r="B7">
+        <v>940</v>
+      </c>
+      <c r="G7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H7" s="72">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,6,6,1)</f>
+        <v>284.96474883439231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="70">
+        <v>45474</v>
+      </c>
+      <c r="B8">
+        <v>561</v>
+      </c>
+      <c r="G8" t="s">
+        <v>395</v>
+      </c>
+      <c r="H8" s="72">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,7,6,1)</f>
+        <v>338.83431182791685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="70">
+        <v>45505</v>
+      </c>
+      <c r="B9">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="70">
+        <v>45536</v>
+      </c>
+      <c r="B10">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="70">
+        <v>45566</v>
+      </c>
+      <c r="B11">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="70">
+        <v>45597</v>
+      </c>
+      <c r="B12">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="70">
+        <v>45627</v>
+      </c>
+      <c r="B13">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="70">
+        <v>45658</v>
+      </c>
+      <c r="B14">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="70">
+        <v>45689</v>
+      </c>
+      <c r="B15">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="70">
+        <v>45717</v>
+      </c>
+      <c r="B16">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="70">
+        <v>45748</v>
+      </c>
+      <c r="B17">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="70">
+        <v>45778</v>
+      </c>
+      <c r="B18">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="70">
+        <v>45809</v>
+      </c>
+      <c r="B19">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="70">
+        <v>45839</v>
+      </c>
+      <c r="B20">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="70">
+        <v>45870</v>
+      </c>
+      <c r="B21">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="70">
+        <v>45901</v>
+      </c>
+      <c r="B22">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="70">
+        <v>45931</v>
+      </c>
+      <c r="B23">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="70">
+        <v>45962</v>
+      </c>
+      <c r="B24">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="70">
+        <v>45992</v>
+      </c>
+      <c r="B25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="70">
+        <v>46023</v>
+      </c>
+      <c r="B26">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="70">
+        <v>46054</v>
+      </c>
+      <c r="B27">
+        <v>999</v>
+      </c>
+      <c r="C27">
+        <v>999</v>
+      </c>
+      <c r="D27" s="71">
+        <v>999</v>
+      </c>
+      <c r="E27" s="71">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="70">
+        <v>46082</v>
+      </c>
+      <c r="C28">
+        <f>_xlfn.FORECAST.ETS(A28,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>708.52438128631843</v>
+      </c>
+      <c r="D28" s="71">
+        <f>C28-_xlfn.FORECAST.ETS.CONFINT(A28,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>228.34348555119976</v>
+      </c>
+      <c r="E28" s="71">
+        <f>C28+_xlfn.FORECAST.ETS.CONFINT(A28,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1188.705277021437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="70">
+        <v>46113</v>
+      </c>
+      <c r="C29">
+        <f>_xlfn.FORECAST.ETS(A29,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>762.49738771340628</v>
+      </c>
+      <c r="D29" s="71">
+        <f>C29-_xlfn.FORECAST.ETS.CONFINT(A29,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>225.20865205421285</v>
+      </c>
+      <c r="E29" s="71">
+        <f>C29+_xlfn.FORECAST.ETS.CONFINT(A29,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1299.7861233725998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="70">
+        <v>46143</v>
+      </c>
+      <c r="C30">
+        <f>_xlfn.FORECAST.ETS(A30,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>988.43596489374954</v>
+      </c>
+      <c r="D30" s="71">
+        <f>C30-_xlfn.FORECAST.ETS.CONFINT(A30,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>399.35498161163707</v>
+      </c>
+      <c r="E30" s="71">
+        <f>C30+_xlfn.FORECAST.ETS.CONFINT(A30,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1577.5169481758621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="70">
+        <v>46174</v>
+      </c>
+      <c r="C31">
+        <f>_xlfn.FORECAST.ETS(A31,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>875.26032517781232</v>
+      </c>
+      <c r="D31" s="71">
+        <f>C31-_xlfn.FORECAST.ETS.CONFINT(A31,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>238.40413107158895</v>
+      </c>
+      <c r="E31" s="71">
+        <f>C31+_xlfn.FORECAST.ETS.CONFINT(A31,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1512.1165192840358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="70">
+        <v>46204</v>
+      </c>
+      <c r="C32">
+        <f>_xlfn.FORECAST.ETS(A32,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>397.97027780110415</v>
+      </c>
+      <c r="D32" s="71">
+        <f>C32-_xlfn.FORECAST.ETS.CONFINT(A32,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-283.48982222982892</v>
+      </c>
+      <c r="E32" s="71">
+        <f>C32+_xlfn.FORECAST.ETS.CONFINT(A32,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1079.4303778320373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="70">
+        <v>46235</v>
+      </c>
+      <c r="C33">
+        <f>_xlfn.FORECAST.ETS(A33,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>794.16132683960257</v>
+      </c>
+      <c r="D33" s="71">
+        <f>C33-_xlfn.FORECAST.ETS.CONFINT(A33,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>70.681517929828601</v>
+      </c>
+      <c r="E33" s="71">
+        <f>C33+_xlfn.FORECAST.ETS.CONFINT(A33,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1517.6411357493766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="70">
+        <v>46266</v>
+      </c>
+      <c r="C34">
+        <f>_xlfn.FORECAST.ETS(A34,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>699.390379659936</v>
+      </c>
+      <c r="D34" s="71">
+        <f>C34-_xlfn.FORECAST.ETS.CONFINT(A34,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-64.105398530571392</v>
+      </c>
+      <c r="E34" s="71">
+        <f>C34+_xlfn.FORECAST.ETS.CONFINT(A34,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1462.8861578504434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="70">
+        <v>46296</v>
+      </c>
+      <c r="C35">
+        <f>_xlfn.FORECAST.ETS(A35,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>753.36338608702385</v>
+      </c>
+      <c r="D35" s="71">
+        <f>C35-_xlfn.FORECAST.ETS.CONFINT(A35,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-48.153034661380957</v>
+      </c>
+      <c r="E35" s="71">
+        <f>C35+_xlfn.FORECAST.ETS.CONFINT(A35,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1554.8798068354286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="70">
+        <v>46327</v>
+      </c>
+      <c r="C36">
+        <f>_xlfn.FORECAST.ETS(A36,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>979.30196326736711</v>
+      </c>
+      <c r="D36" s="71">
+        <f>C36-_xlfn.FORECAST.ETS.CONFINT(A36,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>141.34860204173015</v>
+      </c>
+      <c r="E36" s="71">
+        <f>C36+_xlfn.FORECAST.ETS.CONFINT(A36,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1817.2553244930041</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="70">
+        <v>46357</v>
+      </c>
+      <c r="C37">
+        <f>_xlfn.FORECAST.ETS(A37,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>866.12632355142978</v>
+      </c>
+      <c r="D37" s="71">
+        <f>C37-_xlfn.FORECAST.ETS.CONFINT(A37,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-6.8788614515808604</v>
+      </c>
+      <c r="E37" s="71">
+        <f>C37+_xlfn.FORECAST.ETS.CONFINT(A37,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1739.1315085544404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="70">
+        <v>46388</v>
+      </c>
+      <c r="C38">
+        <f>_xlfn.FORECAST.ETS(A38,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>388.83627617472172</v>
+      </c>
+      <c r="D38" s="71">
+        <f>C38-_xlfn.FORECAST.ETS.CONFINT(A38,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-517.99650126283473</v>
+      </c>
+      <c r="E38" s="71">
+        <f>C38+_xlfn.FORECAST.ETS.CONFINT(A38,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1295.669053612278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="70">
+        <v>46419</v>
+      </c>
+      <c r="C39">
+        <f>_xlfn.FORECAST.ETS(A39,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>785.02732521322002</v>
+      </c>
+      <c r="D39" s="71">
+        <f>C39-_xlfn.FORECAST.ETS.CONFINT(A39,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-154.54129724904828</v>
+      </c>
+      <c r="E39" s="71">
+        <f>C39+_xlfn.FORECAST.ETS.CONFINT(A39,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1724.5959476754883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="70">
+        <v>46447</v>
+      </c>
+      <c r="C40">
+        <f>_xlfn.FORECAST.ETS(A40,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>690.25637803355346</v>
+      </c>
+      <c r="D40" s="71">
+        <f>C40-_xlfn.FORECAST.ETS.CONFINT(A40,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-281.18885645650812</v>
+      </c>
+      <c r="E40" s="71">
+        <f>C40+_xlfn.FORECAST.ETS.CONFINT(A40,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1661.701612523615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="70">
+        <v>46478</v>
+      </c>
+      <c r="C41">
+        <f>_xlfn.FORECAST.ETS(A41,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>744.22938446064131</v>
+      </c>
+      <c r="D41" s="71">
+        <f>C41-_xlfn.FORECAST.ETS.CONFINT(A41,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-258.07919622260169</v>
+      </c>
+      <c r="E41" s="71">
+        <f>C41+_xlfn.FORECAST.ETS.CONFINT(A41,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1746.5379651438843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="70">
+        <v>46508</v>
+      </c>
+      <c r="C42">
+        <f>_xlfn.FORECAST.ETS(A42,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>970.16796164098457</v>
+      </c>
+      <c r="D42" s="71">
+        <f>C42-_xlfn.FORECAST.ETS.CONFINT(A42,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-62.196508175164468</v>
+      </c>
+      <c r="E42" s="71">
+        <f>C42+_xlfn.FORECAST.ETS.CONFINT(A42,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>2002.5324314571335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="70">
+        <v>46539</v>
+      </c>
+      <c r="C43">
+        <f>_xlfn.FORECAST.ETS(A43,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>856.99232192504724</v>
+      </c>
+      <c r="D43" s="71">
+        <f>C43-_xlfn.FORECAST.ETS.CONFINT(A43,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-204.68937596910041</v>
+      </c>
+      <c r="E43" s="71">
+        <f>C43+_xlfn.FORECAST.ETS.CONFINT(A43,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1918.6740198191949</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="70">
+        <v>46569</v>
+      </c>
+      <c r="C44">
+        <f>_xlfn.FORECAST.ETS(A44,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>379.70227454833929</v>
+      </c>
+      <c r="D44" s="71">
+        <f>C44-_xlfn.FORECAST.ETS.CONFINT(A44,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-710.6177882646441</v>
+      </c>
+      <c r="E44" s="71">
+        <f>C44+_xlfn.FORECAST.ETS.CONFINT(A44,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1470.0223373613228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="70">
+        <v>46600</v>
+      </c>
+      <c r="C45">
+        <f>_xlfn.FORECAST.ETS(A45,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>775.8933235868376</v>
+      </c>
+      <c r="D45" s="71">
+        <f>C45-_xlfn.FORECAST.ETS.CONFINT(A45,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-342.43860159167889</v>
+      </c>
+      <c r="E45" s="71">
+        <f>C45+_xlfn.FORECAST.ETS.CONFINT(A45,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1894.2252487653541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="70">
+        <v>46631</v>
+      </c>
+      <c r="C46">
+        <f>_xlfn.FORECAST.ETS(A46,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>681.12237640717103</v>
+      </c>
+      <c r="D46" s="71">
+        <f>C46-_xlfn.FORECAST.ETS.CONFINT(A46,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-464.74560087483815</v>
+      </c>
+      <c r="E46" s="71">
+        <f>C46+_xlfn.FORECAST.ETS.CONFINT(A46,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1826.9903536891802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="70">
+        <v>46661</v>
+      </c>
+      <c r="C47">
+        <f>_xlfn.FORECAST.ETS(A47,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>735.09538283425888</v>
+      </c>
+      <c r="D47" s="71">
+        <f>C47-_xlfn.FORECAST.ETS.CONFINT(A47,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-437.66228516337094</v>
+      </c>
+      <c r="E47" s="71">
+        <f>C47+_xlfn.FORECAST.ETS.CONFINT(A47,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1907.8530508318886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="70">
+        <v>46692</v>
+      </c>
+      <c r="C48">
+        <f>_xlfn.FORECAST.ETS(A48,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>961.03396001460214</v>
+      </c>
+      <c r="D48" s="71">
+        <f>C48-_xlfn.FORECAST.ETS.CONFINT(A48,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-238.11061073078645</v>
+      </c>
+      <c r="E48" s="71">
+        <f>C48+_xlfn.FORECAST.ETS.CONFINT(A48,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>2160.1785307599907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="70">
+        <v>46722</v>
+      </c>
+      <c r="C49">
+        <f>_xlfn.FORECAST.ETS(A49,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>847.85832029866492</v>
+      </c>
+      <c r="D49" s="71">
+        <f>C49-_xlfn.FORECAST.ETS.CONFINT(A49,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-377.20304290338208</v>
+      </c>
+      <c r="E49" s="71">
+        <f>C49+_xlfn.FORECAST.ETS.CONFINT(A49,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>2072.9196835007119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="70">
+        <v>46752</v>
+      </c>
+      <c r="C50">
+        <f>_xlfn.FORECAST.ETS(A50,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <v>385.96472606314046</v>
+      </c>
+      <c r="D50" s="71">
+        <f>C50-_xlfn.FORECAST.ETS.CONFINT(A50,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>-863.75902920669046</v>
+      </c>
+      <c r="E50" s="71">
+        <f>C50+_xlfn.FORECAST.ETS.CONFINT(A50,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+        <v>1635.6884813329714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD893A58-35C4-4ADC-96F1-E62CA20E0C55}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7628,11 +10590,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -8099,7 +11061,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F38"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8111,10 +11073,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="63"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -8634,7 +11596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADED6C27-6C18-4AA2-A056-D97167A8B3BE}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -8647,10 +11609,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="63"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -9264,7 +12226,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9278,11 +12240,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -9335,7 +12297,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="10">
@@ -9355,7 +12317,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="10">
@@ -9375,7 +12337,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="10">
@@ -9395,7 +12357,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="10">
@@ -9412,7 +12374,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="10">
@@ -9429,7 +12391,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="10">
@@ -9446,7 +12408,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="10">
@@ -9463,7 +12425,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="10">
@@ -9521,7 +12483,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9531,11 +12493,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -9739,10 +12701,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9783,14 +12745,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="37" t="s">
@@ -9805,12 +12767,12 @@
       <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="38" t="s">

--- a/Microsoft_Excel_by_Leila_Gharani.xlsx
+++ b/Microsoft_Excel_by_Leila_Gharani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C10B53D-1F00-4EAB-8B74-C2D86867EE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CCAF1F-7CC6-4D5F-A499-F38D2494594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Day-18" sheetId="23" r:id="rId18"/>
     <sheet name="Day-19" sheetId="24" r:id="rId19"/>
     <sheet name="Forecasting" sheetId="28" r:id="rId20"/>
+    <sheet name="Day-20" sheetId="29" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Day-14'!$F$3:$F$11</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="409">
   <si>
     <t>Absolute, Relative and Mixed Cell Referencing</t>
   </si>
@@ -1319,6 +1320,39 @@
   </si>
   <si>
     <t>#4 Power Query</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Roll No</t>
+  </si>
+  <si>
+    <t>0-54</t>
+  </si>
+  <si>
+    <t>55-69</t>
+  </si>
+  <si>
+    <t>70-79</t>
+  </si>
+  <si>
+    <t>80-89</t>
+  </si>
+  <si>
+    <t>90-100</t>
+  </si>
+  <si>
+    <t>Vlookup - Approximate Match</t>
+  </si>
+  <si>
+    <t>Data must be sorted for approximate match</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1751,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1826,6 +1860,9 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1845,9 +1882,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{FB7796FF-EE83-4834-81F2-1465ACD8A209}"/>
@@ -4731,13 +4768,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3"/>
@@ -4916,17 +4953,17 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -5003,10 +5040,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="68"/>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="40" t="s">
@@ -5523,16 +5560,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="66"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="C4" s="44" t="s">
@@ -5617,10 +5654,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="C11" s="44" t="s">
@@ -5713,12 +5750,12 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1">
       <c r="A3" s="45" t="s">
@@ -6128,11 +6165,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -6155,10 +6192,10 @@
       <c r="E3" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="68"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
@@ -7136,11 +7173,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1">
       <c r="E3" s="55" t="s">
@@ -7334,18 +7371,18 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="66"/>
     </row>
     <row r="5" spans="1:7">
       <c r="C5">
@@ -7432,10 +7469,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="66"/>
     </row>
     <row r="14" spans="1:7">
       <c r="C14">
@@ -7534,10 +7571,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="B21" s="63"/>
+      <c r="B21" s="66"/>
     </row>
     <row r="23" spans="1:9">
       <c r="C23" s="56">
@@ -7679,11 +7716,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="D3" s="44" t="s">
@@ -7835,11 +7872,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:9">
       <c r="I2" t="s">
@@ -8144,11 +8181,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="3" spans="1:5">
       <c r="D3" s="42" t="s">
@@ -8304,11 +8341,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
     </row>
     <row r="28" spans="1:7">
       <c r="D28" s="42" t="s">
@@ -8929,7 +8966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAB6D2C-9E11-4AAD-ABDE-457B1BED6916}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
@@ -8941,18 +8978,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" t="s">
         <v>380</v>
       </c>
@@ -8966,11 +9003,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="30" t="s">
@@ -9189,11 +9226,11 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
     </row>
     <row r="39" spans="1:5">
       <c r="D39" s="30" t="s">
@@ -9412,11 +9449,11 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" thickBot="1">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9453,10 +9490,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="66"/>
       <c r="D1" t="s">
         <v>26</v>
       </c>
@@ -9906,7 +9943,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="70">
+      <c r="A2" s="63">
         <v>45292</v>
       </c>
       <c r="B2">
@@ -9915,13 +9952,13 @@
       <c r="G2" t="s">
         <v>389</v>
       </c>
-      <c r="H2" s="72">
+      <c r="H2" s="65">
         <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,1,6,1)</f>
         <v>0.501</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="70">
+      <c r="A3" s="63">
         <v>45323</v>
       </c>
       <c r="B3">
@@ -9930,13 +9967,13 @@
       <c r="G3" t="s">
         <v>390</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H3" s="65">
         <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,2,6,1)</f>
         <v>1E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="70">
+      <c r="A4" s="63">
         <v>45352</v>
       </c>
       <c r="B4">
@@ -9945,13 +9982,13 @@
       <c r="G4" t="s">
         <v>391</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="65">
         <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,3,6,1)</f>
         <v>1E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="70">
+      <c r="A5" s="63">
         <v>45383</v>
       </c>
       <c r="B5">
@@ -9960,13 +9997,13 @@
       <c r="G5" t="s">
         <v>392</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="65">
         <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,4,6,1)</f>
         <v>1.2112414940538068</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="70">
+      <c r="A6" s="63">
         <v>45413</v>
       </c>
       <c r="B6">
@@ -9975,13 +10012,13 @@
       <c r="G6" t="s">
         <v>393</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="65">
         <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,5,6,1)</f>
         <v>0.60912442554817492</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="70">
+      <c r="A7" s="63">
         <v>45444</v>
       </c>
       <c r="B7">
@@ -9990,13 +10027,13 @@
       <c r="G7" t="s">
         <v>394</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="65">
         <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,6,6,1)</f>
         <v>284.96474883439231</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="70">
+      <c r="A8" s="63">
         <v>45474</v>
       </c>
       <c r="B8">
@@ -10005,13 +10042,13 @@
       <c r="G8" t="s">
         <v>395</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="65">
         <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$27,$A$2:$A$27,7,6,1)</f>
         <v>338.83431182791685</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="70">
+      <c r="A9" s="63">
         <v>45505</v>
       </c>
       <c r="B9">
@@ -10019,7 +10056,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="70">
+      <c r="A10" s="63">
         <v>45536</v>
       </c>
       <c r="B10">
@@ -10027,7 +10064,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="70">
+      <c r="A11" s="63">
         <v>45566</v>
       </c>
       <c r="B11">
@@ -10035,7 +10072,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="70">
+      <c r="A12" s="63">
         <v>45597</v>
       </c>
       <c r="B12">
@@ -10043,7 +10080,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="70">
+      <c r="A13" s="63">
         <v>45627</v>
       </c>
       <c r="B13">
@@ -10051,7 +10088,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="70">
+      <c r="A14" s="63">
         <v>45658</v>
       </c>
       <c r="B14">
@@ -10059,7 +10096,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="70">
+      <c r="A15" s="63">
         <v>45689</v>
       </c>
       <c r="B15">
@@ -10067,7 +10104,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="70">
+      <c r="A16" s="63">
         <v>45717</v>
       </c>
       <c r="B16">
@@ -10075,7 +10112,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="70">
+      <c r="A17" s="63">
         <v>45748</v>
       </c>
       <c r="B17">
@@ -10083,7 +10120,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="70">
+      <c r="A18" s="63">
         <v>45778</v>
       </c>
       <c r="B18">
@@ -10091,7 +10128,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="70">
+      <c r="A19" s="63">
         <v>45809</v>
       </c>
       <c r="B19">
@@ -10099,7 +10136,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="70">
+      <c r="A20" s="63">
         <v>45839</v>
       </c>
       <c r="B20">
@@ -10107,7 +10144,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="70">
+      <c r="A21" s="63">
         <v>45870</v>
       </c>
       <c r="B21">
@@ -10115,7 +10152,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="70">
+      <c r="A22" s="63">
         <v>45901</v>
       </c>
       <c r="B22">
@@ -10123,7 +10160,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="70">
+      <c r="A23" s="63">
         <v>45931</v>
       </c>
       <c r="B23">
@@ -10131,7 +10168,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="70">
+      <c r="A24" s="63">
         <v>45962</v>
       </c>
       <c r="B24">
@@ -10139,7 +10176,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="70">
+      <c r="A25" s="63">
         <v>45992</v>
       </c>
       <c r="B25">
@@ -10147,7 +10184,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="70">
+      <c r="A26" s="63">
         <v>46023</v>
       </c>
       <c r="B26">
@@ -10155,7 +10192,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="70">
+      <c r="A27" s="63">
         <v>46054</v>
       </c>
       <c r="B27">
@@ -10164,401 +10201,401 @@
       <c r="C27">
         <v>999</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="64">
         <v>999</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="64">
         <v>999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="70">
+      <c r="A28" s="63">
         <v>46082</v>
       </c>
       <c r="C28">
-        <f>_xlfn.FORECAST.ETS(A28,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" ref="C28:C50" si="0">_xlfn.FORECAST.ETS(A28,$B$2:$B$27,$A$2:$A$27,6,1)</f>
         <v>708.52438128631843</v>
       </c>
-      <c r="D28" s="71">
-        <f>C28-_xlfn.FORECAST.ETS.CONFINT(A28,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D28" s="64">
+        <f t="shared" ref="D28:D50" si="1">C28-_xlfn.FORECAST.ETS.CONFINT(A28,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
         <v>228.34348555119976</v>
       </c>
-      <c r="E28" s="71">
-        <f>C28+_xlfn.FORECAST.ETS.CONFINT(A28,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E28" s="64">
+        <f t="shared" ref="E28:E50" si="2">C28+_xlfn.FORECAST.ETS.CONFINT(A28,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
         <v>1188.705277021437</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="70">
+      <c r="A29" s="63">
         <v>46113</v>
       </c>
       <c r="C29">
-        <f>_xlfn.FORECAST.ETS(A29,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>762.49738771340628</v>
       </c>
-      <c r="D29" s="71">
-        <f>C29-_xlfn.FORECAST.ETS.CONFINT(A29,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D29" s="64">
+        <f t="shared" si="1"/>
         <v>225.20865205421285</v>
       </c>
-      <c r="E29" s="71">
-        <f>C29+_xlfn.FORECAST.ETS.CONFINT(A29,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E29" s="64">
+        <f t="shared" si="2"/>
         <v>1299.7861233725998</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="70">
+      <c r="A30" s="63">
         <v>46143</v>
       </c>
       <c r="C30">
-        <f>_xlfn.FORECAST.ETS(A30,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>988.43596489374954</v>
       </c>
-      <c r="D30" s="71">
-        <f>C30-_xlfn.FORECAST.ETS.CONFINT(A30,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D30" s="64">
+        <f t="shared" si="1"/>
         <v>399.35498161163707</v>
       </c>
-      <c r="E30" s="71">
-        <f>C30+_xlfn.FORECAST.ETS.CONFINT(A30,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E30" s="64">
+        <f t="shared" si="2"/>
         <v>1577.5169481758621</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="70">
+      <c r="A31" s="63">
         <v>46174</v>
       </c>
       <c r="C31">
-        <f>_xlfn.FORECAST.ETS(A31,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>875.26032517781232</v>
       </c>
-      <c r="D31" s="71">
-        <f>C31-_xlfn.FORECAST.ETS.CONFINT(A31,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D31" s="64">
+        <f t="shared" si="1"/>
         <v>238.40413107158895</v>
       </c>
-      <c r="E31" s="71">
-        <f>C31+_xlfn.FORECAST.ETS.CONFINT(A31,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E31" s="64">
+        <f t="shared" si="2"/>
         <v>1512.1165192840358</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="70">
+      <c r="A32" s="63">
         <v>46204</v>
       </c>
       <c r="C32">
-        <f>_xlfn.FORECAST.ETS(A32,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>397.97027780110415</v>
       </c>
-      <c r="D32" s="71">
-        <f>C32-_xlfn.FORECAST.ETS.CONFINT(A32,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D32" s="64">
+        <f t="shared" si="1"/>
         <v>-283.48982222982892</v>
       </c>
-      <c r="E32" s="71">
-        <f>C32+_xlfn.FORECAST.ETS.CONFINT(A32,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E32" s="64">
+        <f t="shared" si="2"/>
         <v>1079.4303778320373</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="70">
+      <c r="A33" s="63">
         <v>46235</v>
       </c>
       <c r="C33">
-        <f>_xlfn.FORECAST.ETS(A33,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>794.16132683960257</v>
       </c>
-      <c r="D33" s="71">
-        <f>C33-_xlfn.FORECAST.ETS.CONFINT(A33,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D33" s="64">
+        <f t="shared" si="1"/>
         <v>70.681517929828601</v>
       </c>
-      <c r="E33" s="71">
-        <f>C33+_xlfn.FORECAST.ETS.CONFINT(A33,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E33" s="64">
+        <f t="shared" si="2"/>
         <v>1517.6411357493766</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="70">
+      <c r="A34" s="63">
         <v>46266</v>
       </c>
       <c r="C34">
-        <f>_xlfn.FORECAST.ETS(A34,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>699.390379659936</v>
       </c>
-      <c r="D34" s="71">
-        <f>C34-_xlfn.FORECAST.ETS.CONFINT(A34,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D34" s="64">
+        <f t="shared" si="1"/>
         <v>-64.105398530571392</v>
       </c>
-      <c r="E34" s="71">
-        <f>C34+_xlfn.FORECAST.ETS.CONFINT(A34,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E34" s="64">
+        <f t="shared" si="2"/>
         <v>1462.8861578504434</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="70">
+      <c r="A35" s="63">
         <v>46296</v>
       </c>
       <c r="C35">
-        <f>_xlfn.FORECAST.ETS(A35,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>753.36338608702385</v>
       </c>
-      <c r="D35" s="71">
-        <f>C35-_xlfn.FORECAST.ETS.CONFINT(A35,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D35" s="64">
+        <f t="shared" si="1"/>
         <v>-48.153034661380957</v>
       </c>
-      <c r="E35" s="71">
-        <f>C35+_xlfn.FORECAST.ETS.CONFINT(A35,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E35" s="64">
+        <f t="shared" si="2"/>
         <v>1554.8798068354286</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="70">
+      <c r="A36" s="63">
         <v>46327</v>
       </c>
       <c r="C36">
-        <f>_xlfn.FORECAST.ETS(A36,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>979.30196326736711</v>
       </c>
-      <c r="D36" s="71">
-        <f>C36-_xlfn.FORECAST.ETS.CONFINT(A36,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D36" s="64">
+        <f t="shared" si="1"/>
         <v>141.34860204173015</v>
       </c>
-      <c r="E36" s="71">
-        <f>C36+_xlfn.FORECAST.ETS.CONFINT(A36,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E36" s="64">
+        <f t="shared" si="2"/>
         <v>1817.2553244930041</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="70">
+      <c r="A37" s="63">
         <v>46357</v>
       </c>
       <c r="C37">
-        <f>_xlfn.FORECAST.ETS(A37,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>866.12632355142978</v>
       </c>
-      <c r="D37" s="71">
-        <f>C37-_xlfn.FORECAST.ETS.CONFINT(A37,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D37" s="64">
+        <f t="shared" si="1"/>
         <v>-6.8788614515808604</v>
       </c>
-      <c r="E37" s="71">
-        <f>C37+_xlfn.FORECAST.ETS.CONFINT(A37,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E37" s="64">
+        <f t="shared" si="2"/>
         <v>1739.1315085544404</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="70">
+      <c r="A38" s="63">
         <v>46388</v>
       </c>
       <c r="C38">
-        <f>_xlfn.FORECAST.ETS(A38,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>388.83627617472172</v>
       </c>
-      <c r="D38" s="71">
-        <f>C38-_xlfn.FORECAST.ETS.CONFINT(A38,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D38" s="64">
+        <f t="shared" si="1"/>
         <v>-517.99650126283473</v>
       </c>
-      <c r="E38" s="71">
-        <f>C38+_xlfn.FORECAST.ETS.CONFINT(A38,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E38" s="64">
+        <f t="shared" si="2"/>
         <v>1295.669053612278</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="70">
+      <c r="A39" s="63">
         <v>46419</v>
       </c>
       <c r="C39">
-        <f>_xlfn.FORECAST.ETS(A39,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>785.02732521322002</v>
       </c>
-      <c r="D39" s="71">
-        <f>C39-_xlfn.FORECAST.ETS.CONFINT(A39,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D39" s="64">
+        <f t="shared" si="1"/>
         <v>-154.54129724904828</v>
       </c>
-      <c r="E39" s="71">
-        <f>C39+_xlfn.FORECAST.ETS.CONFINT(A39,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E39" s="64">
+        <f t="shared" si="2"/>
         <v>1724.5959476754883</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="70">
+      <c r="A40" s="63">
         <v>46447</v>
       </c>
       <c r="C40">
-        <f>_xlfn.FORECAST.ETS(A40,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>690.25637803355346</v>
       </c>
-      <c r="D40" s="71">
-        <f>C40-_xlfn.FORECAST.ETS.CONFINT(A40,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D40" s="64">
+        <f t="shared" si="1"/>
         <v>-281.18885645650812</v>
       </c>
-      <c r="E40" s="71">
-        <f>C40+_xlfn.FORECAST.ETS.CONFINT(A40,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E40" s="64">
+        <f t="shared" si="2"/>
         <v>1661.701612523615</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="70">
+      <c r="A41" s="63">
         <v>46478</v>
       </c>
       <c r="C41">
-        <f>_xlfn.FORECAST.ETS(A41,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>744.22938446064131</v>
       </c>
-      <c r="D41" s="71">
-        <f>C41-_xlfn.FORECAST.ETS.CONFINT(A41,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D41" s="64">
+        <f t="shared" si="1"/>
         <v>-258.07919622260169</v>
       </c>
-      <c r="E41" s="71">
-        <f>C41+_xlfn.FORECAST.ETS.CONFINT(A41,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E41" s="64">
+        <f t="shared" si="2"/>
         <v>1746.5379651438843</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="70">
+      <c r="A42" s="63">
         <v>46508</v>
       </c>
       <c r="C42">
-        <f>_xlfn.FORECAST.ETS(A42,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>970.16796164098457</v>
       </c>
-      <c r="D42" s="71">
-        <f>C42-_xlfn.FORECAST.ETS.CONFINT(A42,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D42" s="64">
+        <f t="shared" si="1"/>
         <v>-62.196508175164468</v>
       </c>
-      <c r="E42" s="71">
-        <f>C42+_xlfn.FORECAST.ETS.CONFINT(A42,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E42" s="64">
+        <f t="shared" si="2"/>
         <v>2002.5324314571335</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="70">
+      <c r="A43" s="63">
         <v>46539</v>
       </c>
       <c r="C43">
-        <f>_xlfn.FORECAST.ETS(A43,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>856.99232192504724</v>
       </c>
-      <c r="D43" s="71">
-        <f>C43-_xlfn.FORECAST.ETS.CONFINT(A43,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D43" s="64">
+        <f t="shared" si="1"/>
         <v>-204.68937596910041</v>
       </c>
-      <c r="E43" s="71">
-        <f>C43+_xlfn.FORECAST.ETS.CONFINT(A43,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E43" s="64">
+        <f t="shared" si="2"/>
         <v>1918.6740198191949</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="70">
+      <c r="A44" s="63">
         <v>46569</v>
       </c>
       <c r="C44">
-        <f>_xlfn.FORECAST.ETS(A44,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>379.70227454833929</v>
       </c>
-      <c r="D44" s="71">
-        <f>C44-_xlfn.FORECAST.ETS.CONFINT(A44,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D44" s="64">
+        <f t="shared" si="1"/>
         <v>-710.6177882646441</v>
       </c>
-      <c r="E44" s="71">
-        <f>C44+_xlfn.FORECAST.ETS.CONFINT(A44,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E44" s="64">
+        <f t="shared" si="2"/>
         <v>1470.0223373613228</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="70">
+      <c r="A45" s="63">
         <v>46600</v>
       </c>
       <c r="C45">
-        <f>_xlfn.FORECAST.ETS(A45,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>775.8933235868376</v>
       </c>
-      <c r="D45" s="71">
-        <f>C45-_xlfn.FORECAST.ETS.CONFINT(A45,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D45" s="64">
+        <f t="shared" si="1"/>
         <v>-342.43860159167889</v>
       </c>
-      <c r="E45" s="71">
-        <f>C45+_xlfn.FORECAST.ETS.CONFINT(A45,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E45" s="64">
+        <f t="shared" si="2"/>
         <v>1894.2252487653541</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="70">
+      <c r="A46" s="63">
         <v>46631</v>
       </c>
       <c r="C46">
-        <f>_xlfn.FORECAST.ETS(A46,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>681.12237640717103</v>
       </c>
-      <c r="D46" s="71">
-        <f>C46-_xlfn.FORECAST.ETS.CONFINT(A46,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D46" s="64">
+        <f t="shared" si="1"/>
         <v>-464.74560087483815</v>
       </c>
-      <c r="E46" s="71">
-        <f>C46+_xlfn.FORECAST.ETS.CONFINT(A46,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E46" s="64">
+        <f t="shared" si="2"/>
         <v>1826.9903536891802</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="70">
+      <c r="A47" s="63">
         <v>46661</v>
       </c>
       <c r="C47">
-        <f>_xlfn.FORECAST.ETS(A47,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>735.09538283425888</v>
       </c>
-      <c r="D47" s="71">
-        <f>C47-_xlfn.FORECAST.ETS.CONFINT(A47,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D47" s="64">
+        <f t="shared" si="1"/>
         <v>-437.66228516337094</v>
       </c>
-      <c r="E47" s="71">
-        <f>C47+_xlfn.FORECAST.ETS.CONFINT(A47,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E47" s="64">
+        <f t="shared" si="2"/>
         <v>1907.8530508318886</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="70">
+      <c r="A48" s="63">
         <v>46692</v>
       </c>
       <c r="C48">
-        <f>_xlfn.FORECAST.ETS(A48,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>961.03396001460214</v>
       </c>
-      <c r="D48" s="71">
-        <f>C48-_xlfn.FORECAST.ETS.CONFINT(A48,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D48" s="64">
+        <f t="shared" si="1"/>
         <v>-238.11061073078645</v>
       </c>
-      <c r="E48" s="71">
-        <f>C48+_xlfn.FORECAST.ETS.CONFINT(A48,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E48" s="64">
+        <f t="shared" si="2"/>
         <v>2160.1785307599907</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="70">
+      <c r="A49" s="63">
         <v>46722</v>
       </c>
       <c r="C49">
-        <f>_xlfn.FORECAST.ETS(A49,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>847.85832029866492</v>
       </c>
-      <c r="D49" s="71">
-        <f>C49-_xlfn.FORECAST.ETS.CONFINT(A49,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D49" s="64">
+        <f t="shared" si="1"/>
         <v>-377.20304290338208</v>
       </c>
-      <c r="E49" s="71">
-        <f>C49+_xlfn.FORECAST.ETS.CONFINT(A49,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E49" s="64">
+        <f t="shared" si="2"/>
         <v>2072.9196835007119</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="70">
+      <c r="A50" s="63">
         <v>46752</v>
       </c>
       <c r="C50">
-        <f>_xlfn.FORECAST.ETS(A50,$B$2:$B$27,$A$2:$A$27,6,1)</f>
+        <f t="shared" si="0"/>
         <v>385.96472606314046</v>
       </c>
-      <c r="D50" s="71">
-        <f>C50-_xlfn.FORECAST.ETS.CONFINT(A50,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="D50" s="64">
+        <f t="shared" si="1"/>
         <v>-863.75902920669046</v>
       </c>
-      <c r="E50" s="71">
-        <f>C50+_xlfn.FORECAST.ETS.CONFINT(A50,$B$2:$B$27,$A$2:$A$27,0.95,6,1)</f>
+      <c r="E50" s="64">
+        <f t="shared" si="2"/>
         <v>1635.6884813329714</v>
       </c>
     </row>
@@ -10568,6 +10605,279 @@
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D4710E-BAD9-4A7D-A295-40037EC50159}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1">
+      <c r="A1" s="66" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="E1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1">
+      <c r="A3" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="41">
+        <v>1</v>
+      </c>
+      <c r="B4" s="41">
+        <v>90</v>
+      </c>
+      <c r="C4" s="41" t="str">
+        <f>VLOOKUP(B4,$G$4:$H$8,2,TRUE)</f>
+        <v>A</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="41">
+        <v>2</v>
+      </c>
+      <c r="B5" s="41">
+        <v>72</v>
+      </c>
+      <c r="C5" s="41" t="str">
+        <f t="shared" ref="C5:C18" si="0">VLOOKUP(B5,$G$4:$H$8,2,TRUE)</f>
+        <v>C</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" s="41">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="41">
+        <v>3</v>
+      </c>
+      <c r="B6" s="41">
+        <v>39</v>
+      </c>
+      <c r="C6" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="G6" s="41">
+        <v>70</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="41">
+        <v>4</v>
+      </c>
+      <c r="B7" s="41">
+        <v>95</v>
+      </c>
+      <c r="C7" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" s="41">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="41">
+        <v>5</v>
+      </c>
+      <c r="B8" s="41">
+        <v>82</v>
+      </c>
+      <c r="C8" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" s="41">
+        <v>90</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="41">
+        <v>6</v>
+      </c>
+      <c r="B9" s="41">
+        <v>41</v>
+      </c>
+      <c r="C9" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="41">
+        <v>7</v>
+      </c>
+      <c r="B10" s="41">
+        <v>99</v>
+      </c>
+      <c r="C10" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="41">
+        <v>8</v>
+      </c>
+      <c r="B11" s="41">
+        <v>60</v>
+      </c>
+      <c r="C11" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="41">
+        <v>9</v>
+      </c>
+      <c r="B12" s="41">
+        <v>93</v>
+      </c>
+      <c r="C12" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="41">
+        <v>10</v>
+      </c>
+      <c r="B13" s="41">
+        <v>25</v>
+      </c>
+      <c r="C13" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="41">
+        <v>11</v>
+      </c>
+      <c r="B14" s="41">
+        <v>28</v>
+      </c>
+      <c r="C14" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="41">
+        <v>12</v>
+      </c>
+      <c r="B15" s="41">
+        <v>14</v>
+      </c>
+      <c r="C15" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="41">
+        <v>13</v>
+      </c>
+      <c r="B16" s="41">
+        <v>68</v>
+      </c>
+      <c r="C16" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="41">
+        <v>14</v>
+      </c>
+      <c r="B17" s="41">
+        <v>3</v>
+      </c>
+      <c r="C17" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="41">
+        <v>15</v>
+      </c>
+      <c r="B18" s="41">
+        <v>43</v>
+      </c>
+      <c r="C18" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10590,11 +10900,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
@@ -11073,10 +11383,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="31" t="s">
@@ -11609,10 +11919,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
@@ -12240,11 +12550,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -12493,11 +12803,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -12701,10 +13011,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12745,14 +13055,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="37" t="s">
@@ -12767,12 +13077,12 @@
       <c r="E3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="38" t="s">
